--- a/data/lumaData/testcases.xlsx
+++ b/data/lumaData/testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sehso\eclipse-workspace\FinalProject\data\lumaData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Auto IT training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFBBBA3-E4B4-4649-AF2C-DFD6B531497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5476ED-75CA-4A09-9920-43E8AC233014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24B4FD53-3088-4808-923C-A87E95CBB857}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="220">
   <si>
     <t>TC ID</t>
-  </si>
-  <si>
-    <t>Exected Result</t>
   </si>
   <si>
     <t xml:space="preserve">Actual Result </t>
@@ -71,9 +68,6 @@
     <t>Browser is lunched successfully</t>
   </si>
   <si>
-    <t>user lands to luma home page  title"Home Page"</t>
-  </si>
-  <si>
     <t>Verify that the user is able to create an account  with valid credentials</t>
   </si>
   <si>
@@ -86,6 +80,10 @@
     <t>4.enter first name,last name,email,password &amp; confirm password</t>
   </si>
   <si>
+    <t xml:space="preserve">1.Open browser 
+</t>
+  </si>
+  <si>
     <t>5.click on create an account</t>
   </si>
   <si>
@@ -114,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">4.enter first name,last name,an email that is linked to an existing account,password &amp; confirm password </t>
-  </si>
-  <si>
-    <t>A popup message box to show an error in red "There is already an account with this email address. If you are sure that it is your email address, click here to get your password and access your account." should be  displayed.</t>
   </si>
   <si>
     <t>Verify the login functionality of Luma login page with valid credential</t>
@@ -674,27 +669,151 @@
     <t>fake firstname, lastname, email, password:1234Abcd$</t>
   </si>
   <si>
-    <t>A popup message box to show an error in red"Please enter a valid email address (Ex: johndoe@domain.com)." should be displayed</t>
-  </si>
-  <si>
-    <t>A popup message box to show an error in red "This is a required field." should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be unable to submit the review,system should prompt error message in red "Please select one of each of the ratings above." </t>
-  </si>
-  <si>
-    <t>User should be unable to add the product to the cart.
-A popup message to show an error in red ""This is a required field."" should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System should prompt error message in red "Please enter a valid email address (Ex: johndoe@domain.com)" </t>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>user lands to luma home page 
+ title"Home Page"</t>
+  </si>
+  <si>
+    <r>
+      <t>A popup message box to show an error in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>There is already an account with this email address. If you are sure that it is your email address, click here to get your password and access your account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>." should be  displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A popup message box to show an error in red"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Please enter a valid email address (Ex: johndoe@domain.com).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>" should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A popup message box to show an error in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a required field.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>" should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>User should be unable to add the product to the cart.
+A popup message to show an error in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a required field.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>" should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System should prompt error message in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Please enter a valid email address (Ex: johndoe@domain.com)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>User should be unable to submit the review,system should prompt error message in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Please select one of each of the ratings above.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +855,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -800,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -837,6 +962,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3746E3E-DBEF-407E-89EF-8F1170A2823E}">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1186,28 +1314,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -1222,23 +1350,23 @@
     </row>
     <row r="2" spans="1:19" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>212</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1257,17 +1385,17 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1282,25 +1410,25 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1319,17 +1447,17 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>212</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1348,17 +1476,17 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>212</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1377,19 +1505,19 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>212</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1408,17 +1536,17 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>212</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1435,23 +1563,23 @@
     </row>
     <row r="9" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1460,17 +1588,17 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1489,17 +1617,17 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>212</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1518,19 +1646,19 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>212</v>
+        <v>22</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1549,17 +1677,17 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1576,23 +1704,23 @@
     </row>
     <row r="14" spans="1:19" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1611,17 +1739,17 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1640,17 +1768,17 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1669,19 +1797,19 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>212</v>
+        <v>35</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1700,17 +1828,17 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>212</v>
+        <v>36</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1727,23 +1855,23 @@
     </row>
     <row r="19" spans="1:19" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1762,17 +1890,17 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1791,17 +1919,17 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1820,19 +1948,19 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>212</v>
+        <v>35</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1851,17 +1979,17 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1878,23 +2006,23 @@
     </row>
     <row r="24" spans="1:19" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1903,17 +2031,17 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1922,17 +2050,17 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -1941,19 +2069,19 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>212</v>
+        <v>35</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1962,40 +2090,40 @@
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>212</v>
+        <v>216</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2004,17 +2132,17 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -2023,17 +2151,17 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -2042,19 +2170,19 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>212</v>
+        <v>35</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -2063,17 +2191,17 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>212</v>
+      <c r="E33" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -2082,40 +2210,40 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>212</v>
+      <c r="E34" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2124,17 +2252,17 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -2143,40 +2271,40 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>212</v>
+        <v>64</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -2185,17 +2313,17 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -2204,17 +2332,17 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>212</v>
+        <v>71</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2223,17 +2351,17 @@
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>212</v>
+        <v>72</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -2242,17 +2370,17 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>212</v>
+        <v>73</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2261,40 +2389,40 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>212</v>
+      <c r="E43" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -2303,17 +2431,17 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -2322,17 +2450,17 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>212</v>
+        <v>95</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2341,17 +2469,17 @@
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>212</v>
+        <v>94</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -2360,17 +2488,17 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2379,17 +2507,17 @@
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>212</v>
+        <v>99</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -2398,17 +2526,17 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>212</v>
+        <v>97</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2417,17 +2545,17 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>212</v>
+        <v>100</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -2436,17 +2564,17 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>212</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -2455,19 +2583,19 @@
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -2476,19 +2604,19 @@
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="G54" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -2497,19 +2625,19 @@
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>212</v>
+        <v>105</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -2518,19 +2646,19 @@
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>212</v>
+        <v>101</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -2539,19 +2667,19 @@
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>212</v>
+        <v>106</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -2560,19 +2688,19 @@
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>212</v>
+        <v>107</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -2581,19 +2709,19 @@
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>212</v>
+        <v>108</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -2602,19 +2730,19 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>212</v>
+        <v>102</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -2623,17 +2751,17 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>212</v>
+        <v>103</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -2642,17 +2770,17 @@
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>212</v>
+        <v>104</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -2661,40 +2789,40 @@
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>212</v>
+        <v>109</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" ht="92.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -2703,17 +2831,17 @@
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -2722,17 +2850,17 @@
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>212</v>
+        <v>115</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -2741,17 +2869,17 @@
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>212</v>
+        <v>116</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -2760,17 +2888,17 @@
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>212</v>
+        <v>117</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -2779,17 +2907,17 @@
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -2798,17 +2926,17 @@
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>212</v>
+        <v>118</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -2817,40 +2945,40 @@
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>212</v>
+        <v>120</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -2859,17 +2987,17 @@
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -2878,17 +3006,17 @@
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>212</v>
+        <v>129</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -2897,17 +3025,17 @@
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>212</v>
+        <v>130</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -2916,17 +3044,17 @@
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>212</v>
+        <v>132</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -2935,17 +3063,17 @@
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>212</v>
+        <v>133</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -2954,17 +3082,17 @@
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>212</v>
+        <v>96</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -2973,17 +3101,17 @@
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>212</v>
+        <v>131</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -2992,40 +3120,40 @@
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>212</v>
+        <v>134</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:9" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -3034,17 +3162,17 @@
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -3053,42 +3181,42 @@
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>212</v>
+        <v>138</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -3097,17 +3225,17 @@
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -3116,17 +3244,17 @@
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>212</v>
+        <v>144</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -3135,17 +3263,17 @@
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>212</v>
+        <v>145</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -3154,40 +3282,40 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>212</v>
+        <v>146</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
     <row r="89" spans="1:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -3196,17 +3324,17 @@
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -3215,17 +3343,17 @@
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>212</v>
+        <v>152</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -3234,19 +3362,19 @@
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>212</v>
+        <v>153</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -3255,40 +3383,40 @@
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>212</v>
+        <v>154</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -3297,17 +3425,17 @@
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -3316,19 +3444,19 @@
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -3337,40 +3465,40 @@
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>212</v>
+        <v>160</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -3379,17 +3507,17 @@
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -3398,19 +3526,19 @@
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -3419,40 +3547,40 @@
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>212</v>
+      <c r="E101" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -3461,17 +3589,17 @@
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -3480,17 +3608,17 @@
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>212</v>
+        <v>129</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -3499,17 +3627,17 @@
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>212</v>
+        <v>94</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -3518,17 +3646,17 @@
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>212</v>
+        <v>171</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -3537,17 +3665,17 @@
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>212</v>
+        <v>172</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -3556,19 +3684,19 @@
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>212</v>
+        <v>173</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -3577,40 +3705,40 @@
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>212</v>
+        <v>174</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -3619,17 +3747,17 @@
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
@@ -3638,17 +3766,17 @@
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>212</v>
+        <v>129</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
@@ -3657,17 +3785,17 @@
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>212</v>
+        <v>94</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
@@ -3676,17 +3804,17 @@
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>212</v>
+        <v>171</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -3695,17 +3823,17 @@
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>212</v>
+        <v>172</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -3714,19 +3842,19 @@
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>212</v>
+        <v>177</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -3735,40 +3863,40 @@
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -3777,17 +3905,17 @@
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
@@ -3796,17 +3924,17 @@
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>212</v>
+        <v>188</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
@@ -3815,17 +3943,17 @@
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>212</v>
+        <v>189</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
@@ -3834,17 +3962,17 @@
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>212</v>
+        <v>190</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
@@ -3853,17 +3981,17 @@
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>212</v>
+        <v>191</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
@@ -3872,17 +4000,17 @@
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>212</v>
+        <v>192</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -3891,17 +4019,17 @@
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -3910,17 +4038,17 @@
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -3929,17 +4057,17 @@
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>212</v>
+        <v>197</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -3948,19 +4076,19 @@
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -3969,17 +4097,17 @@
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>212</v>
+        <v>198</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>

--- a/data/lumaData/testcases.xlsx
+++ b/data/lumaData/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Auto IT training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5476ED-75CA-4A09-9920-43E8AC233014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C9070-6F9A-4F4E-81A2-B1C4318B2EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24B4FD53-3088-4808-923C-A87E95CBB857}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="237">
   <si>
     <t>TC ID</t>
   </si>
@@ -90,18 +90,6 @@
     <t xml:space="preserve">Browser should be successfully lunched </t>
   </si>
   <si>
-    <t>user should lands to luma home page  title"Home Page"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user should be able to click on create account button </t>
-  </si>
-  <si>
-    <t>user should able to enter first name,last name,email,password &amp; confirm password entered</t>
-  </si>
-  <si>
-    <t>user should land to luma dashboard  page and able to see title "Thank you for registering with Main Website Store."</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the user is unable to create an account with an email that has already been taken </t>
   </si>
   <si>
@@ -132,18 +120,6 @@
     <t xml:space="preserve">5.click on sign in button </t>
   </si>
   <si>
-    <t xml:space="preserve">user should be able to click on sign in button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user should be able to enter email &amp; password </t>
-  </si>
-  <si>
-    <t>user should land to luma dashboard  page.</t>
-  </si>
-  <si>
-    <t>user should land to luma home page  title"Home Page"</t>
-  </si>
-  <si>
     <t>TS1-TC001</t>
   </si>
   <si>
@@ -207,24 +183,12 @@
     <t>6.Select sign out</t>
   </si>
   <si>
-    <t>user should able to click on the upper right corner drop down list</t>
-  </si>
-  <si>
-    <t>user should be able to sign out</t>
-  </si>
-  <si>
     <t>TS5-TC008</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the user is able to view the navigation menu and its categories </t>
-  </si>
-  <si>
     <t>3.Click on each one of the categories</t>
   </si>
   <si>
-    <t xml:space="preserve">user should see the navigation menu and able to click on each category </t>
-  </si>
-  <si>
     <t>TS6-TC009</t>
   </si>
   <si>
@@ -243,15 +207,6 @@
     <t>6.click on add To cart button</t>
   </si>
   <si>
-    <t>user should be able to click on men category</t>
-  </si>
-  <si>
-    <t>user should be able to click on Top48</t>
-  </si>
-  <si>
-    <t>user should be able to click on Cassius Sparring Tank</t>
-  </si>
-  <si>
     <t>TS6-TC010</t>
   </si>
   <si>
@@ -276,90 +231,6 @@
     <t>8.click on proceed to checkout cart</t>
   </si>
   <si>
-    <t>9.click on proceed to checkout cart</t>
-  </si>
-  <si>
-    <t>10.type first name</t>
-  </si>
-  <si>
-    <t>11.type last name</t>
-  </si>
-  <si>
-    <t>12.type company</t>
-  </si>
-  <si>
-    <t>13.type street address</t>
-  </si>
-  <si>
-    <t>14.type city</t>
-  </si>
-  <si>
-    <t>15.select region</t>
-  </si>
-  <si>
-    <t>16.type postcode</t>
-  </si>
-  <si>
-    <t>17.type phone number</t>
-  </si>
-  <si>
-    <t>18.selcect Shipping Methods</t>
-  </si>
-  <si>
-    <t>19.click on next</t>
-  </si>
-  <si>
-    <t>20.click on place order</t>
-  </si>
-  <si>
-    <t>user is able to click on Fitness Equipment</t>
-  </si>
-  <si>
-    <t>user is able to hover on Gear</t>
-  </si>
-  <si>
-    <t>user is able to click on shopping cart</t>
-  </si>
-  <si>
-    <t>user is able to click on cart</t>
-  </si>
-  <si>
-    <t>user is able to click on Band</t>
-  </si>
-  <si>
-    <t>user is able to click on add to button</t>
-  </si>
-  <si>
-    <t>user is able to click on proceed to cart</t>
-  </si>
-  <si>
-    <t>user is able to type address</t>
-  </si>
-  <si>
-    <t>user is able to type number</t>
-  </si>
-  <si>
-    <t>user is able to selcect Methods</t>
-  </si>
-  <si>
-    <t>user is able to click next</t>
-  </si>
-  <si>
-    <t>user is able to type company</t>
-  </si>
-  <si>
-    <t>user is able to type city</t>
-  </si>
-  <si>
-    <t>user is able to select region</t>
-  </si>
-  <si>
-    <t>user is able to type postcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to purchase a product  </t>
-  </si>
-  <si>
     <t>TS6-TC011</t>
   </si>
   <si>
@@ -378,21 +249,6 @@
     <t>user is able to click on men category</t>
   </si>
   <si>
-    <t>user is able to click on Top48</t>
-  </si>
-  <si>
-    <t>user is able to click on Cassius Sparring Tank</t>
-  </si>
-  <si>
-    <t>user is able to click on blue color</t>
-  </si>
-  <si>
-    <t>user is able to click on size  S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">items should be successfully added to the cart </t>
-  </si>
-  <si>
     <t>TS6-TC012</t>
   </si>
   <si>
@@ -420,39 +276,15 @@
     <t>user is able to click on Gear</t>
   </si>
   <si>
-    <t>user is able to click on watches</t>
-  </si>
-  <si>
-    <t>user is able to click on view and edit</t>
-  </si>
-  <si>
-    <t>user is able to Click on Dash Digital Watch</t>
-  </si>
-  <si>
-    <t>user is able to Click on Add to Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to remove items from the shopping cart </t>
-  </si>
-  <si>
     <t>TS7-TC013</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the functionality of the search bar </t>
   </si>
   <si>
-    <t>3.type a product name and hit enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user should be able to type in the search bar and able ti hit enter and get a search result </t>
-  </si>
-  <si>
     <t>TS8-TC014</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the home page luma logo is visible and interactable and works as a home button. </t>
-  </si>
-  <si>
     <t>3.click on what's New</t>
   </si>
   <si>
@@ -465,12 +297,6 @@
     <t>user should be able to click on what's new category</t>
   </si>
   <si>
-    <t>user should be able to click on jackets</t>
-  </si>
-  <si>
-    <t>-User should be able view the luma logo -Luma logo, takes the user to the start screen (home page) when clicking on it.</t>
-  </si>
-  <si>
     <t>TS9-TC015</t>
   </si>
   <si>
@@ -486,15 +312,6 @@
     <t>5.click on submit</t>
   </si>
   <si>
-    <t>user is able to click on contact us link</t>
-  </si>
-  <si>
-    <t>user is able to enter Name,Email,Phone Number,Text in the box</t>
-  </si>
-  <si>
-    <t>user should be able to send an Email to customer service</t>
-  </si>
-  <si>
     <t>TS10-TC016</t>
   </si>
   <si>
@@ -504,15 +321,9 @@
     <t>4.Click on subscribe</t>
   </si>
   <si>
-    <t xml:space="preserve">user is able to type in the email field </t>
-  </si>
-  <si>
     <t>3.At the buttom of the page,type a valid Email address in the email field</t>
   </si>
   <si>
-    <t>User should be able to subscribe</t>
-  </si>
-  <si>
     <t>TS10-TC017</t>
   </si>
   <si>
@@ -543,36 +354,18 @@
     <t>8.Click on submit</t>
   </si>
   <si>
-    <t>user is able to click on  Quest Lumaflex™ Band</t>
-  </si>
-  <si>
-    <t>user should be able to Click on Add Your Review</t>
-  </si>
-  <si>
-    <t>user is able to Select Rating,Enter Nickname,Summary and Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to Add a Review and submit it. </t>
-  </si>
-  <si>
     <t>Verify that the user is unable to add a review if the rating wasn't selected</t>
   </si>
   <si>
     <t>7.Enter Nickname,Summary and Review</t>
   </si>
   <si>
-    <t>user is able Enter Nickname,Summary and Review</t>
-  </si>
-  <si>
     <t>TS11-TC019</t>
   </si>
   <si>
     <t>TS12-TC020</t>
   </si>
   <si>
-    <t>Verify that the user is able to edit the Account information</t>
-  </si>
-  <si>
     <t>3.click on sign in</t>
   </si>
   <si>
@@ -594,37 +387,7 @@
     <t>13.Click on save button</t>
   </si>
   <si>
-    <t xml:space="preserve">user should able to click on sign in </t>
-  </si>
-  <si>
-    <t>user should able to Enter Email</t>
-  </si>
-  <si>
-    <t>user should able to Enter password</t>
-  </si>
-  <si>
-    <t>user should able to Click on signin</t>
-  </si>
-  <si>
-    <t>user should able to Click on the upper right corner drop down list</t>
-  </si>
-  <si>
-    <t>user should able to Click on My Account</t>
-  </si>
-  <si>
-    <t>user should able to click on edit</t>
-  </si>
-  <si>
-    <t>user should able to Type last name</t>
-  </si>
-  <si>
     <t>11.Delete last name</t>
-  </si>
-  <si>
-    <t>user should able to delete the last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last name should be edited successfully </t>
   </si>
   <si>
     <t>Email:Betta@gmail.com
@@ -639,18 +402,9 @@
 Password:</t>
   </si>
   <si>
-    <t>user is able to type last name</t>
-  </si>
-  <si>
-    <t>user is able to type first name</t>
-  </si>
-  <si>
     <t>fake credential</t>
   </si>
   <si>
-    <t xml:space="preserve">bag pack for man </t>
-  </si>
-  <si>
     <t xml:space="preserve">fake credential </t>
   </si>
   <si>
@@ -670,32 +424,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>user lands to luma home page 
- title"Home Page"</t>
-  </si>
-  <si>
-    <r>
-      <t>A popup message box to show an error in red "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>There is already an account with this email address. If you are sure that it is your email address, click here to get your password and access your account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>." should be  displayed.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -743,29 +471,6 @@
   </si>
   <si>
     <r>
-      <t>User should be unable to add the product to the cart.
-A popup message to show an error in red "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>This is a required field.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>" should be displayed</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>System should prompt error message in red "</t>
     </r>
     <r>
@@ -808,12 +513,358 @@
       <t xml:space="preserve">" </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">3.click on Orders and Returns </t>
+  </si>
+  <si>
+    <t>5.click on enter</t>
+  </si>
+  <si>
+    <t>Orders and Returns page should be displayed</t>
+  </si>
+  <si>
+    <t>order ID=000008236
+billing last name=lee
+email=betta@gmail.com</t>
+  </si>
+  <si>
+    <t>Orders and Returns page should be displayed and user should be able to see the order ID and its status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the home page luma logo is visible and interactable and also works as a home button. </t>
+  </si>
+  <si>
+    <t>verify that the user is able to check the order status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.enter order ID,billing last name and email </t>
+  </si>
+  <si>
+    <t>TS12-TC021</t>
+  </si>
+  <si>
+    <t>TS13-TC022</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to edit the first and last name</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to edit the billing address</t>
+  </si>
+  <si>
+    <t>email &amp; password successfully typed.</t>
+  </si>
+  <si>
+    <t>first name,last name,email,password &amp; confirm password entered successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create account page opened. </t>
+  </si>
+  <si>
+    <t>user lands to luma home page  title"Home Page"</t>
+  </si>
+  <si>
+    <t>user lands to luma dashboard  page and  title "Thank you for registering with Main Website Store." displayed successfully.</t>
+  </si>
+  <si>
+    <r>
+      <t>A popup message box to show an error in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>There is already an account with this email address. If you are sure that it is your email address, click here to get your password and access your account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>." is  displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> signin page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user lands to luma dashboard  page and  title "Welcome, mike lee!" is  displayed successfully. </t>
+  </si>
+  <si>
+    <t>email &amp; password typed.</t>
+  </si>
+  <si>
+    <t>signin page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email typed</t>
+  </si>
+  <si>
+    <t>drop down list is displyed.</t>
+  </si>
+  <si>
+    <t>user signed out successfully</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to view the navigation menu and its categories and the its funcionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigation menu is visible and its categories are clickibale </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> men category page is displayed</t>
+  </si>
+  <si>
+    <t>3.click on men category</t>
+  </si>
+  <si>
+    <t>Top48 page is displayed</t>
+  </si>
+  <si>
+    <t>Cassius Sparring Tank page is displayed</t>
+  </si>
+  <si>
+    <r>
+      <t>A popup message to show an error in red "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a required field.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>" should be displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>hovered over Gear successfully</t>
+  </si>
+  <si>
+    <t>Fitness Equipment page is displayed.</t>
+  </si>
+  <si>
+    <t>Band page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item is added to cart successfully. </t>
+  </si>
+  <si>
+    <t>shooping cart page displayed successsfully.</t>
+  </si>
+  <si>
+    <t>9.type first name</t>
+  </si>
+  <si>
+    <t>10.type last name</t>
+  </si>
+  <si>
+    <t>11.type company</t>
+  </si>
+  <si>
+    <t>12.type street address</t>
+  </si>
+  <si>
+    <t>13.type city</t>
+  </si>
+  <si>
+    <t>14.select region</t>
+  </si>
+  <si>
+    <t>15.type postcode</t>
+  </si>
+  <si>
+    <t>16.type phone number</t>
+  </si>
+  <si>
+    <t>18.click on next</t>
+  </si>
+  <si>
+    <t>29.click on place order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first name typed </t>
+  </si>
+  <si>
+    <t>last name typed</t>
+  </si>
+  <si>
+    <t>company typed</t>
+  </si>
+  <si>
+    <t>street address typed</t>
+  </si>
+  <si>
+    <t>city typed</t>
+  </si>
+  <si>
+    <t>postcode typed</t>
+  </si>
+  <si>
+    <t>phone number typed</t>
+  </si>
+  <si>
+    <t>17.selcect Shipping Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping Method selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> region selected successfully</t>
+  </si>
+  <si>
+    <t>shipping  page is displayed successfully</t>
+  </si>
+  <si>
+    <t>review and payment page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order placed successfully.  </t>
+  </si>
+  <si>
+    <t>blue color selected successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> size  S selected successfully</t>
+  </si>
+  <si>
+    <t>items is added to the cart   successfully</t>
+  </si>
+  <si>
+    <t>Gear page is displayed.</t>
+  </si>
+  <si>
+    <t>watches page is displayed</t>
+  </si>
+  <si>
+    <t>Dash Digital Watch page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopping cart page is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view and edit page displayed </t>
+  </si>
+  <si>
+    <t>item is removeed successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jackets page is displayed.</t>
+  </si>
+  <si>
+    <t>user landed to the start screen (luma home page).</t>
+  </si>
+  <si>
+    <t>contact us  page is displayed.</t>
+  </si>
+  <si>
+    <t>Name,Email,Phone Number,Text typed successfully</t>
+  </si>
+  <si>
+    <t>email sent successfully.</t>
+  </si>
+  <si>
+    <t>email typed</t>
+  </si>
+  <si>
+    <t>user is subscribed successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gear  page is displayed.</t>
+  </si>
+  <si>
+    <t>Fitness   page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quest Lumaflex™ Band  page is displayed.</t>
+  </si>
+  <si>
+    <t>Add Your Review  page is displayed.</t>
+  </si>
+  <si>
+    <t>Rating is selected, and Nickname,Summary and Review typed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review submited successfully. </t>
+  </si>
+  <si>
+    <t>Quest Lumaflex™ Band  page is displayed.</t>
+  </si>
+  <si>
+    <t>Nickname,Summary and Review typed</t>
+  </si>
+  <si>
+    <t>sign in page is displayed.</t>
+  </si>
+  <si>
+    <t>password typed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user lands to luma dashboard  page and  title is  displayed successfully. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drop down list page is displayed.</t>
+  </si>
+  <si>
+    <t>My Account page is displayed.</t>
+  </si>
+  <si>
+    <t>edit  page is displayed.</t>
+  </si>
+  <si>
+    <t>last name deleted.</t>
+  </si>
+  <si>
+    <t>last name typed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name edited and saved successfully </t>
+  </si>
+  <si>
+    <t>Order ID,billing last name, email successfully entred .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.in Default Billing Address, click on edit address </t>
+  </si>
+  <si>
+    <t>edit address page is displayed successfully.</t>
+  </si>
+  <si>
+    <t>10.user type street address,city and zipcode.</t>
+  </si>
+  <si>
+    <t>street address,city and zipcode typed.</t>
+  </si>
+  <si>
+    <t>11.click on save</t>
+  </si>
+  <si>
+    <t>the address is saved successfully.</t>
+  </si>
+  <si>
+    <t>3.type a bag pack for men and hit enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bag pack for man typed in the search bar and search result is displayed. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,7 +947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -919,13 +970,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -967,6 +1031,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1289,17 +1377,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3746E3E-DBEF-407E-89EF-8F1170A2823E}">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="14.54296875" style="11" customWidth="1"/>
     <col min="2" max="2" width="37.36328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" style="11" customWidth="1"/>
     <col min="4" max="4" width="41.81640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="17.453125" style="11" customWidth="1"/>
     <col min="6" max="6" width="28.08984375" style="11" customWidth="1"/>
@@ -1309,7 +1397,7 @@
     <col min="10" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="13" customFormat="1" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="13" customFormat="1" ht="49" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1348,9 +1436,9 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="50.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1362,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -1381,17 +1469,17 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="42" customHeight="1" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
@@ -1410,9 +1498,9 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="58.5" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1424,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -1443,17 +1531,17 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="40.5" customHeight="1" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
@@ -1472,17 +1560,17 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="47.5" customHeight="1" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
@@ -1501,20 +1589,20 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="84.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="63" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -1532,17 +1620,17 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="95.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="75" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
@@ -1561,21 +1649,21 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
@@ -1584,17 +1672,17 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="41.5" customHeight="1" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
@@ -1613,17 +1701,17 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="41" customHeight="1" thickBot="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
@@ -1642,20 +1730,20 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="67.5" customHeight="1" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
@@ -1673,17 +1761,17 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="146" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="123" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
@@ -1702,21 +1790,21 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="73" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
@@ -1735,17 +1823,17 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="47" customHeight="1" thickBot="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
@@ -1764,17 +1852,17 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="43.5" customHeight="1" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
@@ -1793,20 +1881,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="47" customHeight="1" thickBot="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
@@ -1824,17 +1912,17 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="57.5" customHeight="1" thickBot="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
@@ -1853,21 +1941,21 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="78" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
@@ -1886,17 +1974,17 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="44.5" customHeight="1" thickBot="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="6" t="s">
@@ -1915,17 +2003,17 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="44.5" customHeight="1" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
@@ -1944,20 +2032,20 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="39" customHeight="1" thickBot="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
@@ -1975,17 +2063,17 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="85.5" customHeight="1" thickBot="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
@@ -2004,21 +2092,21 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="81" customHeight="1" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="2" t="s">
@@ -2027,17 +2115,17 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="44" customHeight="1" thickBot="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="6" t="s">
@@ -2046,17 +2134,17 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="47.5" customHeight="1" thickBot="1">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="6" t="s">
@@ -2065,20 +2153,20 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:19" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="43" customHeight="1" thickBot="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>11</v>
@@ -2086,17 +2174,17 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:19" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="67.5" customHeight="1" thickBot="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="6" t="s">
@@ -2105,21 +2193,21 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" ht="61.5" customHeight="1" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="2" t="s">
@@ -2128,17 +2216,17 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:19" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="48" customHeight="1" thickBot="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="6" t="s">
@@ -2147,17 +2235,17 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:19" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="37" customHeight="1" thickBot="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="6" t="s">
@@ -2166,20 +2254,20 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="40.5" customHeight="1" thickBot="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
@@ -2187,17 +2275,17 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="45.5" customHeight="1" thickBot="1">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="6" t="s">
@@ -2206,17 +2294,17 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="29" customHeight="1" thickBot="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="6" t="s">
@@ -2225,21 +2313,21 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="65" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="2" t="s">
@@ -2248,17 +2336,17 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="42" customHeight="1" thickBot="1">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="6" t="s">
@@ -2267,17 +2355,17 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="44" customHeight="1" thickBot="1">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="6" t="s">
@@ -2286,21 +2374,21 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="95" customHeight="1" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="2" t="s">
@@ -2309,17 +2397,17 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="43" customHeight="1" thickBot="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="6" t="s">
@@ -2328,17 +2416,17 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="47" customHeight="1" thickBot="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="6" t="s">
@@ -2347,17 +2435,17 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
@@ -2366,17 +2454,17 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="47" customHeight="1" thickBot="1">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
@@ -2385,17 +2473,17 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="102.5" customHeight="1" thickBot="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="6" t="s">
@@ -2404,21 +2492,21 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="65" customHeight="1" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="2" t="s">
@@ -2427,17 +2515,17 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="41.5" customHeight="1" thickBot="1">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="6" t="s">
@@ -2446,17 +2534,17 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="20.5" customHeight="1" thickBot="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
@@ -2465,17 +2553,17 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="44" customHeight="1" thickBot="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="6" t="s">
@@ -2484,17 +2572,17 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="19" customHeight="1" thickBot="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
@@ -2503,17 +2591,17 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="6" t="s">
@@ -2522,17 +2610,17 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="42" customHeight="1" thickBot="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="6" t="s">
@@ -2541,17 +2629,17 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="39" customHeight="1" thickBot="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="6" t="s">
@@ -2560,39 +2648,41 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="31" customHeight="1" thickBot="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>100</v>
+        <v>172</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>11</v>
@@ -2600,20 +2690,20 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="32" customHeight="1" thickBot="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>11</v>
@@ -2621,20 +2711,20 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>11</v>
@@ -2642,20 +2732,20 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="27.5" customHeight="1" thickBot="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>11</v>
@@ -2663,20 +2753,20 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="29" customHeight="1" thickBot="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>11</v>
@@ -2684,20 +2774,20 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>11</v>
@@ -2705,20 +2795,20 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="28" customHeight="1" thickBot="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>11</v>
@@ -2726,38 +2816,36 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="29.5" customHeight="1" thickBot="1">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>102</v>
+        <v>189</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>204</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F60" s="9"/>
       <c r="G60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="31" customHeight="1" thickBot="1">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="6" t="s">
@@ -2766,17 +2854,17 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="30.5" customHeight="1" thickBot="1">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="6" t="s">
@@ -2785,59 +2873,59 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>109</v>
+    <row r="63" spans="1:9" ht="83" customHeight="1" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" ht="92.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" ht="42.5" customHeight="1" thickBot="1">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="6" t="s">
@@ -2846,17 +2934,17 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="6" t="s">
@@ -2865,17 +2953,17 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="39" customHeight="1" thickBot="1">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="6" t="s">
@@ -2884,17 +2972,17 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="22" customHeight="1" thickBot="1">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="6" t="s">
@@ -2903,17 +2991,17 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="29.5" customHeight="1" thickBot="1">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="6" t="s">
@@ -2922,17 +3010,17 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="42" customHeight="1" thickBot="1">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="6" t="s">
@@ -2941,59 +3029,59 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>120</v>
+    <row r="71" spans="1:9" ht="66.5" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" ht="41.5" customHeight="1" thickBot="1">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" ht="26" customHeight="1" thickBot="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="6" t="s">
@@ -3002,17 +3090,17 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="26.5" customHeight="1" thickBot="1">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="6" t="s">
@@ -3021,17 +3109,17 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="43.5" customHeight="1" thickBot="1">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="6" t="s">
@@ -3040,17 +3128,17 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="6" t="s">
@@ -3059,17 +3147,17 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="31" customHeight="1" thickBot="1">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="6" t="s">
@@ -3078,17 +3166,17 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="28.5" customHeight="1" thickBot="1">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="6" t="s">
@@ -3097,17 +3185,17 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="46.5" customHeight="1" thickBot="1">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="6" t="s">
@@ -3116,59 +3204,59 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>134</v>
+    <row r="80" spans="1:9" ht="56.5" customHeight="1" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" ht="40" customHeight="1" thickBot="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" ht="56.5" customHeight="1" thickBot="1">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="6" t="s">
@@ -3177,61 +3265,59 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>138</v>
+    <row r="83" spans="1:9" ht="60" customHeight="1" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" ht="45.5" customHeight="1" thickBot="1">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-    </row>
-    <row r="85" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" ht="39.5" customHeight="1" thickBot="1">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="6" t="s">
@@ -3240,17 +3326,17 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="6" t="s">
@@ -3259,17 +3345,17 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="68.5" customHeight="1" thickBot="1">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="6" t="s">
@@ -3278,59 +3364,59 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" ht="93.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>146</v>
+    <row r="88" spans="1:9" ht="58" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" ht="42.5" customHeight="1" thickBot="1">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:9" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="6" t="s">
@@ -3339,263 +3425,263 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="38.5" customHeight="1" thickBot="1">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>152</v>
+        <v>92</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="G91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="42" customHeight="1" thickBot="1">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>206</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" ht="53.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>154</v>
+    <row r="93" spans="1:9" ht="75" customHeight="1" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" ht="47" customHeight="1" thickBot="1">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-    </row>
-    <row r="95" spans="1:9" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" ht="38" customHeight="1" thickBot="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F95" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="G95" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="24" customHeight="1" thickBot="1">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>160</v>
+    <row r="97" spans="1:9" ht="60" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-    </row>
-    <row r="99" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" ht="47.5" customHeight="1" thickBot="1">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F99" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="G99" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" ht="64" customHeight="1" thickBot="1">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>158</v>
+        <v>96</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>208</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" ht="83.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>218</v>
+    <row r="101" spans="1:9" ht="56.5" customHeight="1" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="1:9" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9" ht="43" customHeight="1" thickBot="1">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="6" t="s">
@@ -3604,17 +3690,17 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="1:9" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" ht="42" customHeight="1" thickBot="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="6" t="s">
@@ -3623,17 +3709,17 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" ht="46.5" customHeight="1" thickBot="1">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="6" t="s">
@@ -3642,17 +3728,17 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="1:9" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" ht="45.5" customHeight="1" thickBot="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="6" t="s">
@@ -3661,99 +3747,99 @@
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="1:9" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" ht="48" customHeight="1" thickBot="1">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F107" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="1:9" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" ht="44" customHeight="1" thickBot="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>204</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F108" s="9"/>
       <c r="G108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="1:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>174</v>
+    <row r="109" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" ht="50" customHeight="1" thickBot="1">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-    </row>
-    <row r="111" spans="1:9" ht="62.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" ht="32" customHeight="1" thickBot="1">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="6" t="s">
@@ -3762,17 +3848,17 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="1:9" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" ht="42" customHeight="1" thickBot="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="6" t="s">
@@ -3781,17 +3867,17 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="1:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" ht="43" customHeight="1" thickBot="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="6" t="s">
@@ -3800,17 +3886,17 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" ht="42.5" customHeight="1" thickBot="1">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="6" t="s">
@@ -3819,99 +3905,99 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="1:9" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" ht="45.5" customHeight="1" thickBot="1">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F115" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G115" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:9" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" ht="76.5" customHeight="1" thickBot="1">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>204</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F116" s="9"/>
       <c r="G116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:9" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>219</v>
+    <row r="117" spans="1:9" ht="75" customHeight="1" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-    </row>
-    <row r="118" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+    </row>
+    <row r="118" spans="1:9" ht="46" customHeight="1" thickBot="1">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-    </row>
-    <row r="119" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F118" s="9"/>
+      <c r="G118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+    </row>
+    <row r="119" spans="1:9" ht="29" customHeight="1" thickBot="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="6" t="s">
@@ -3920,17 +4006,17 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" ht="27.5" customHeight="1" thickBot="1">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="6" t="s">
@@ -3939,17 +4025,17 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="1:9" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" ht="23.5" customHeight="1" thickBot="1">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="6" t="s">
@@ -3958,17 +4044,17 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" ht="49.5" customHeight="1" thickBot="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="6" t="s">
@@ -3977,17 +4063,17 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" spans="1:9" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" ht="44.5" customHeight="1" thickBot="1">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="6" t="s">
@@ -3996,17 +4082,17 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="1:9" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" ht="32.5" customHeight="1" thickBot="1">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="6" t="s">
@@ -4015,17 +4101,17 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" ht="32.5" customHeight="1" thickBot="1">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="6" t="s">
@@ -4034,17 +4120,17 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
@@ -4053,64 +4139,392 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" ht="30.5" customHeight="1" thickBot="1">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F127" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="G127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="1:9" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" ht="32" customHeight="1" thickBot="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>209</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F128" s="9"/>
       <c r="G128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="1:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>198</v>
+    <row r="129" spans="1:9" ht="69.5" customHeight="1" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" spans="1:9" ht="44" customHeight="1" thickBot="1">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+    </row>
+    <row r="131" spans="1:9" ht="33" customHeight="1" thickBot="1">
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+    </row>
+    <row r="132" spans="1:9" ht="37" customHeight="1" thickBot="1">
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+    </row>
+    <row r="133" spans="1:9" ht="34" customHeight="1" thickBot="1">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134" spans="1:9" ht="53" customHeight="1" thickBot="1">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+    </row>
+    <row r="135" spans="1:9" ht="48.5" customHeight="1" thickBot="1">
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+    </row>
+    <row r="136" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+    </row>
+    <row r="137" spans="1:9" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+    </row>
+    <row r="138" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+    </row>
+    <row r="139" spans="1:9" ht="29" customHeight="1" thickBot="1">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+    </row>
+    <row r="140" spans="1:9" ht="59.5" customHeight="1" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F140" s="23"/>
+      <c r="G140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" spans="1:9" ht="39.5" customHeight="1" thickBot="1">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F141" s="18"/>
+      <c r="G141" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+    </row>
+    <row r="142" spans="1:9" ht="39.5" customHeight="1" thickBot="1">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F142" s="18"/>
+      <c r="G142" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+    </row>
+    <row r="143" spans="1:9" ht="54.5" thickBot="1">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F143" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+    </row>
+    <row r="144" spans="1:9" ht="62" customHeight="1" thickBot="1">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F144" s="18"/>
+      <c r="G144" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+    </row>
+    <row r="145" spans="1:9" ht="41.5" customHeight="1" thickBot="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+    </row>
+    <row r="146" spans="1:9" ht="45" customHeight="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+    </row>
+    <row r="147" spans="1:9" ht="44.5" customHeight="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" ht="62" customHeight="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lumaData/testcases.xlsx
+++ b/data/lumaData/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Auto IT training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C8094D-E93B-4D79-850D-F18610B79E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D0458-E88F-4DA0-AA2B-7026DCB0C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24B4FD53-3088-4808-923C-A87E95CBB857}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="255">
   <si>
     <t>TC ID</t>
   </si>
@@ -358,29 +358,6 @@
   <si>
     <t>Email:Betta@gmail.com
 Password:1234Abcd$</t>
-  </si>
-  <si>
-    <t>Email:@gmail.com
-Password:1234Abcd$</t>
-  </si>
-  <si>
-    <t>Email:Betta@gmail.com
-Password:</t>
-  </si>
-  <si>
-    <t>fake credential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake credential </t>
-  </si>
-  <si>
-    <t>fake email</t>
-  </si>
-  <si>
-    <t>Email:@gmail.com</t>
-  </si>
-  <si>
-    <t>fake last name</t>
   </si>
   <si>
     <t>passed</t>
@@ -949,12 +926,38 @@
     <t>fake firstname, lastname, email, password:1234Abcd$
 C.password:1234Abcd$</t>
   </si>
+  <si>
+    <t>fake credential</t>
+  </si>
+  <si>
+    <t>Email:@gmail.com
+Password:1234Abcd$</t>
+  </si>
+  <si>
+    <t>Email:Betta@gmail.com
+Password:</t>
+  </si>
+  <si>
+    <t>fake email</t>
+  </si>
+  <si>
+    <t>Email:@gmail.com</t>
+  </si>
+  <si>
+    <t>fake last name</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake data  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,8 +1014,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,8 +1058,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1079,13 +1107,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1179,6 +1278,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -1189,6 +1324,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDF6F3"/>
       <color rgb="FFFF6699"/>
     </mruColors>
   </colors>
@@ -1500,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3746E3E-DBEF-407E-89EF-8F1170A2823E}">
-  <dimension ref="A1:S172"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1649,7 @@
     <col min="3" max="3" width="40.7265625" style="10" customWidth="1"/>
     <col min="4" max="4" width="44.54296875" style="10" customWidth="1"/>
     <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="28.08984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.90625" style="10" customWidth="1"/>
     <col min="7" max="7" width="31.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="26.6328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="15.453125" style="10" customWidth="1"/>
@@ -1531,22 +1667,22 @@
         <v>5</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
@@ -1572,11 +1708,13 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1"/>
@@ -1599,13 +1737,15 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="4"/>
@@ -1634,11 +1774,13 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1"/>
@@ -1654,20 +1796,22 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="4"/>
@@ -1683,20 +1827,22 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="4"/>
@@ -1719,15 +1865,15 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4"/>
@@ -1750,13 +1896,15 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="4"/>
@@ -1785,30 +1933,34 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="4"/>
@@ -1824,20 +1976,22 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="4"/>
@@ -1860,15 +2014,15 @@
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="4"/>
@@ -1891,13 +2045,15 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="4"/>
@@ -1918,7 +2074,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1926,11 +2082,13 @@
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="1"/>
@@ -1946,20 +2104,22 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="4"/>
@@ -1982,13 +2142,15 @@
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="4"/>
@@ -2011,15 +2173,15 @@
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="4"/>
@@ -2042,13 +2204,15 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="4"/>
@@ -2069,7 +2233,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -2077,11 +2241,13 @@
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="1"/>
@@ -2104,13 +2270,15 @@
         <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="4"/>
@@ -2133,13 +2301,15 @@
         <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="4"/>
@@ -2162,15 +2332,15 @@
         <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="4"/>
@@ -2193,13 +2363,15 @@
         <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="4"/>
@@ -2220,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>22</v>
@@ -2228,11 +2400,13 @@
       <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="7"/>
@@ -2245,13 +2419,15 @@
         <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="8"/>
@@ -2264,13 +2440,15 @@
         <v>33</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="8"/>
@@ -2283,15 +2461,15 @@
         <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="8"/>
@@ -2304,13 +2482,15 @@
         <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="8"/>
@@ -2321,7 +2501,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -2329,11 +2509,13 @@
       <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="7"/>
@@ -2346,13 +2528,15 @@
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="8"/>
@@ -2365,13 +2549,15 @@
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="8"/>
@@ -2384,15 +2570,15 @@
         <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="8"/>
@@ -2405,32 +2591,36 @@
         <v>43</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="8"/>
@@ -2441,7 +2631,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
@@ -2449,49 +2639,55 @@
       <c r="D35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="8"/>
@@ -2502,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>22</v>
@@ -2510,11 +2706,13 @@
       <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="1" t="s">
+      <c r="E38" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="7"/>
@@ -2527,70 +2725,78 @@
         <v>32</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="8"/>
@@ -2603,13 +2809,15 @@
         <v>51</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="8"/>
@@ -2628,11 +2836,13 @@
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="1" t="s">
+      <c r="E44" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="7"/>
@@ -2645,108 +2855,120 @@
         <v>32</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="62.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="8"/>
@@ -2759,34 +2981,36 @@
         <v>59</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="8"/>
@@ -2796,201 +3020,207 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="8"/>
@@ -3001,7 +3231,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>22</v>
@@ -3009,36 +3239,40 @@
       <c r="D63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="1" t="s">
+      <c r="E63" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G64" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="4" t="s">
@@ -3047,30 +3281,34 @@
       <c r="D65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="5" t="s">
+      <c r="E65" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="8"/>
@@ -3083,51 +3321,57 @@
         <v>50</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="8"/>
@@ -3140,13 +3384,15 @@
         <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="8"/>
@@ -3165,11 +3411,13 @@
       <c r="D71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="1" t="s">
+      <c r="E71" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G71" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="7"/>
@@ -3182,51 +3430,57 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G72" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G74" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="8"/>
@@ -3239,70 +3493,78 @@
         <v>69</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G78" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H78" s="8"/>
@@ -3315,13 +3577,15 @@
         <v>72</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G79" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H79" s="8"/>
@@ -3332,7 +3596,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>22</v>
@@ -3340,30 +3604,34 @@
       <c r="D80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="1" t="s">
+      <c r="E80" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G81" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="8"/>
@@ -3373,16 +3641,18 @@
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="8"/>
@@ -3393,7 +3663,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>22</v>
@@ -3401,11 +3671,13 @@
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="1" t="s">
+      <c r="E83" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="7"/>
@@ -3418,19 +3690,21 @@
         <v>32</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F84" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
@@ -3439,30 +3713,34 @@
       <c r="D85" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E85" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="5" t="s">
+      <c r="E85" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G85" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="8"/>
@@ -3475,13 +3753,15 @@
         <v>78</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G87" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H87" s="8"/>
@@ -3492,7 +3772,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>22</v>
@@ -3500,11 +3780,13 @@
       <c r="D88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="1" t="s">
+      <c r="E88" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G88" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="7"/>
@@ -3517,32 +3799,36 @@
         <v>32</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G90" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H90" s="8"/>
@@ -3555,34 +3841,36 @@
         <v>82</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G91" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G92" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H92" s="8"/>
@@ -3601,11 +3889,13 @@
       <c r="D93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="1" t="s">
+      <c r="E93" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G93" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H93" s="7"/>
@@ -3618,53 +3908,57 @@
         <v>32</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G94" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
-    <row r="95" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G96" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="8"/>
@@ -3675,7 +3969,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>22</v>
@@ -3683,11 +3977,13 @@
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="1" t="s">
+      <c r="E97" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G97" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H97" s="7"/>
@@ -3700,13 +3996,15 @@
         <v>32</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G98" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="8"/>
@@ -3719,15 +4017,15 @@
         <v>89</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G99" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H99" s="8"/>
@@ -3740,13 +4038,15 @@
         <v>86</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G100" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="8"/>
@@ -3765,49 +4065,55 @@
       <c r="D101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="1" t="s">
+      <c r="E101" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G101" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G102" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G103" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H103" s="8"/>
@@ -3820,13 +4126,15 @@
         <v>92</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G104" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H104" s="8"/>
@@ -3839,32 +4147,36 @@
         <v>93</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G105" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="1:9" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G106" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H106" s="8"/>
@@ -3877,15 +4189,15 @@
         <v>95</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G107" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H107" s="8"/>
@@ -3898,13 +4210,15 @@
         <v>96</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G108" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="8"/>
@@ -3923,11 +4237,13 @@
       <c r="D109" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E109" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="1" t="s">
+      <c r="E109" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F109" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H109" s="7"/>
@@ -3940,19 +4256,21 @@
         <v>32</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G110" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" ht="65.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="4" t="s">
@@ -3961,11 +4279,13 @@
       <c r="D111" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E111" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="5" t="s">
+      <c r="E111" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G111" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H111" s="8"/>
@@ -3978,13 +4298,15 @@
         <v>92</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G112" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H112" s="8"/>
@@ -3997,13 +4319,15 @@
         <v>93</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G113" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H113" s="8"/>
@@ -4016,13 +4340,15 @@
         <v>94</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G114" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H114" s="8"/>
@@ -4035,15 +4361,15 @@
         <v>98</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G115" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G115" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H115" s="8"/>
@@ -4056,13 +4382,15 @@
         <v>96</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H116" s="8"/>
@@ -4073,7 +4401,7 @@
         <v>100</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>22</v>
@@ -4081,11 +4409,13 @@
       <c r="D117" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="1" t="s">
+      <c r="E117" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F117" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G117" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H117" s="7"/>
@@ -4098,51 +4428,57 @@
         <v>32</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F118" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G118" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F119" s="8"/>
-      <c r="G119" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G119" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F120" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H120" s="8"/>
@@ -4155,13 +4491,15 @@
         <v>102</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F121" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G121" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H121" s="8"/>
@@ -4174,13 +4512,15 @@
         <v>103</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F122" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G122" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H122" s="8"/>
@@ -4193,51 +4533,57 @@
         <v>41</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G123" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="1:9" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F124" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G124" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H125" s="8"/>
@@ -4250,53 +4596,57 @@
         <v>108</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F126" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G126" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G127" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F127" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G127" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G128" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H128" s="8"/>
@@ -4304,10 +4654,10 @@
     </row>
     <row r="129" spans="1:9" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>22</v>
@@ -4315,11 +4665,13 @@
       <c r="D129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="5" t="s">
+      <c r="E129" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F129" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G129" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H129" s="18"/>
@@ -4332,32 +4684,36 @@
         <v>32</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F130" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G130" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G131" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H131" s="15"/>
@@ -4370,13 +4726,15 @@
         <v>40</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F132" s="15"/>
-      <c r="G132" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F132" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G132" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H132" s="15"/>
@@ -4389,12 +4747,14 @@
         <v>102</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="F133" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G133" s="5" t="s">
         <v>9</v>
       </c>
@@ -4408,12 +4768,14 @@
         <v>103</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F134" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="F134" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G134" s="5" t="s">
         <v>9</v>
       </c>
@@ -4427,12 +4789,14 @@
         <v>41</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F135" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="F135" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G135" s="5" t="s">
         <v>9</v>
       </c>
@@ -4446,12 +4810,14 @@
         <v>104</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F136" s="16"/>
+        <v>110</v>
+      </c>
+      <c r="F136" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G136" s="5" t="s">
         <v>9</v>
       </c>
@@ -4462,15 +4828,17 @@
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F137" s="16"/>
+        <v>110</v>
+      </c>
+      <c r="F137" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G137" s="5" t="s">
         <v>9</v>
       </c>
@@ -4481,15 +4849,17 @@
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F138" s="16"/>
+        <v>110</v>
+      </c>
+      <c r="F138" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G138" s="5" t="s">
         <v>9</v>
       </c>
@@ -4500,15 +4870,17 @@
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F139" s="16"/>
+        <v>110</v>
+      </c>
+      <c r="F139" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G139" s="5" t="s">
         <v>9</v>
       </c>
@@ -4517,10 +4889,10 @@
     </row>
     <row r="140" spans="1:9" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>41</v>
@@ -4529,9 +4901,11 @@
         <v>17</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F140" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="F140" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="G140" s="1" t="s">
         <v>9</v>
       </c>
@@ -4545,12 +4919,14 @@
         <v>104</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F141" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="F141" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G141" s="12" t="s">
         <v>9</v>
       </c>
@@ -4561,15 +4937,17 @@
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F142" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="F142" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G142" s="12" t="s">
         <v>9</v>
       </c>
@@ -4580,16 +4958,16 @@
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F143" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="F143" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>9</v>
@@ -4601,15 +4979,17 @@
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F144" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="F144" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G144" s="12" t="s">
         <v>9</v>
       </c>
@@ -4618,10 +4998,10 @@
     </row>
     <row r="145" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>22</v>
@@ -4630,9 +5010,11 @@
         <v>17</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F145" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="F145" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="G145" s="12" t="s">
         <v>9</v>
       </c>
@@ -4646,12 +5028,14 @@
         <v>32</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F146" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="F146" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G146" s="12" t="s">
         <v>9</v>
       </c>
@@ -4665,12 +5049,14 @@
         <v>24</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F147" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="F147" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G147" s="12" t="s">
         <v>9</v>
       </c>
@@ -4684,12 +5070,12 @@
         <v>25</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F148" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F148" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G148" s="12" t="s">
@@ -4705,12 +5091,14 @@
         <v>26</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F149" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="F149" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G149" s="12" t="s">
         <v>9</v>
       </c>
@@ -4721,15 +5109,17 @@
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F150" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F150" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G150" s="12" t="s">
         <v>9</v>
       </c>
@@ -4740,15 +5130,17 @@
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F151" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F151" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G151" s="12" t="s">
         <v>9</v>
       </c>
@@ -4759,15 +5151,17 @@
       <c r="A152" s="31"/>
       <c r="B152" s="31"/>
       <c r="C152" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F152" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="F152" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G152" s="12" t="s">
         <v>9</v>
       </c>
@@ -4778,15 +5172,17 @@
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F153" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G153" s="12" t="s">
         <v>9</v>
       </c>
@@ -4797,15 +5193,17 @@
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F154" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F154" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G154" s="12" t="s">
         <v>9</v>
       </c>
@@ -4816,15 +5214,17 @@
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F155" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F155" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G155" s="12" t="s">
         <v>9</v>
       </c>
@@ -4833,10 +5233,10 @@
     </row>
     <row r="156" spans="1:9" s="19" customFormat="1" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>22</v>
@@ -4845,9 +5245,9 @@
         <v>17</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F156" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="F156" s="37"/>
       <c r="G156" s="12" t="s">
         <v>9</v>
       </c>
@@ -4861,12 +5261,14 @@
         <v>32</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F157" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G157" s="12" t="s">
         <v>9</v>
       </c>
@@ -4880,12 +5282,14 @@
         <v>48</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F158" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F158" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G158" s="12" t="s">
         <v>9</v>
       </c>
@@ -4899,12 +5303,14 @@
         <v>49</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F159" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F159" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G159" s="12" t="s">
         <v>9</v>
       </c>
@@ -4918,12 +5324,14 @@
         <v>50</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F160" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F160" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G160" s="12" t="s">
         <v>9</v>
       </c>
@@ -4937,12 +5345,14 @@
         <v>61</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F161" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F161" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G161" s="12" t="s">
         <v>9</v>
       </c>
@@ -4956,12 +5366,14 @@
         <v>62</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F162" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F162" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G162" s="12" t="s">
         <v>9</v>
       </c>
@@ -4972,15 +5384,17 @@
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="30" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F163" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F163" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4989,10 +5403,10 @@
     </row>
     <row r="164" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>22</v>
@@ -5001,9 +5415,11 @@
         <v>17</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F164" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="F164" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="G164" s="5" t="s">
         <v>9</v>
       </c>
@@ -5017,12 +5433,14 @@
         <v>32</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F165" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F165" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G165" s="5" t="s">
         <v>9</v>
       </c>
@@ -5036,12 +5454,14 @@
         <v>48</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F166" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F166" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G166" s="5" t="s">
         <v>9</v>
       </c>
@@ -5055,12 +5475,14 @@
         <v>49</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F167" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F167" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G167" s="5" t="s">
         <v>9</v>
       </c>
@@ -5074,12 +5496,14 @@
         <v>50</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F168" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F168" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G168" s="5" t="s">
         <v>9</v>
       </c>
@@ -5093,12 +5517,14 @@
         <v>61</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F169" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F169" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G169" s="5" t="s">
         <v>9</v>
       </c>
@@ -5112,12 +5538,14 @@
         <v>62</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F170" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F170" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G170" s="5" t="s">
         <v>9</v>
       </c>
@@ -5128,15 +5556,17 @@
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F171" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="F171" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="G171" s="5" t="s">
         <v>9</v>
       </c>
@@ -5149,10 +5579,2494 @@
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
       <c r="E172" s="27"/>
-      <c r="F172" s="17"/>
+      <c r="F172" s="37"/>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
+    </row>
+    <row r="173" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F173" s="39"/>
+    </row>
+    <row r="174" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F174" s="39"/>
+    </row>
+    <row r="175" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F175" s="39"/>
+    </row>
+    <row r="176" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F176" s="39"/>
+    </row>
+    <row r="177" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F177" s="39"/>
+    </row>
+    <row r="178" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F178" s="39"/>
+    </row>
+    <row r="179" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F179" s="39"/>
+    </row>
+    <row r="180" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F180" s="39"/>
+    </row>
+    <row r="181" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F181" s="39"/>
+    </row>
+    <row r="182" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F182" s="39"/>
+    </row>
+    <row r="183" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F183" s="39"/>
+    </row>
+    <row r="184" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F184" s="39"/>
+    </row>
+    <row r="185" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F185" s="39"/>
+    </row>
+    <row r="186" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F186" s="39"/>
+    </row>
+    <row r="187" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F187" s="39"/>
+    </row>
+    <row r="188" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F188" s="39"/>
+    </row>
+    <row r="189" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F189" s="39"/>
+    </row>
+    <row r="190" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F190" s="39"/>
+    </row>
+    <row r="191" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F191" s="39"/>
+    </row>
+    <row r="192" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F192" s="39"/>
+    </row>
+    <row r="193" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F193" s="39"/>
+    </row>
+    <row r="194" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F194" s="39"/>
+    </row>
+    <row r="195" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F195" s="39"/>
+    </row>
+    <row r="196" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F196" s="39"/>
+    </row>
+    <row r="197" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F197" s="39"/>
+    </row>
+    <row r="198" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F198" s="39"/>
+    </row>
+    <row r="199" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F199" s="39"/>
+    </row>
+    <row r="200" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F200" s="39"/>
+    </row>
+    <row r="201" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F201" s="39"/>
+    </row>
+    <row r="202" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F202" s="39"/>
+    </row>
+    <row r="203" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F203" s="39"/>
+    </row>
+    <row r="204" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F204" s="39"/>
+    </row>
+    <row r="205" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F205" s="39"/>
+    </row>
+    <row r="206" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F206" s="39"/>
+    </row>
+    <row r="207" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F207" s="39"/>
+    </row>
+    <row r="208" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F208" s="39"/>
+    </row>
+    <row r="209" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F209" s="39"/>
+    </row>
+    <row r="210" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F210" s="39"/>
+    </row>
+    <row r="211" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F211" s="39"/>
+    </row>
+    <row r="212" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F212" s="39"/>
+    </row>
+    <row r="213" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F213" s="39"/>
+    </row>
+    <row r="214" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F214" s="39"/>
+    </row>
+    <row r="215" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F215" s="39"/>
+    </row>
+    <row r="216" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F216" s="39"/>
+    </row>
+    <row r="217" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F217" s="39"/>
+    </row>
+    <row r="218" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F218" s="39"/>
+    </row>
+    <row r="219" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F219" s="39"/>
+    </row>
+    <row r="220" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F220" s="39"/>
+    </row>
+    <row r="221" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F221" s="39"/>
+    </row>
+    <row r="222" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F222" s="39"/>
+    </row>
+    <row r="223" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F223" s="39"/>
+    </row>
+    <row r="224" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F224" s="39"/>
+    </row>
+    <row r="225" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F225" s="39"/>
+    </row>
+    <row r="226" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F226" s="39"/>
+    </row>
+    <row r="227" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F227" s="39"/>
+    </row>
+    <row r="228" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F228" s="39"/>
+    </row>
+    <row r="229" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F229" s="39"/>
+    </row>
+    <row r="230" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F230" s="39"/>
+    </row>
+    <row r="231" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F231" s="39"/>
+    </row>
+    <row r="232" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F232" s="39"/>
+    </row>
+    <row r="233" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F233" s="39"/>
+    </row>
+    <row r="234" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F234" s="39"/>
+    </row>
+    <row r="235" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F235" s="39"/>
+    </row>
+    <row r="236" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F236" s="39"/>
+    </row>
+    <row r="237" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F237" s="39"/>
+    </row>
+    <row r="238" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F238" s="39"/>
+    </row>
+    <row r="239" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F239" s="39"/>
+    </row>
+    <row r="240" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F240" s="39"/>
+    </row>
+    <row r="241" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F241" s="39"/>
+    </row>
+    <row r="242" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F242" s="39"/>
+    </row>
+    <row r="243" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F243" s="39"/>
+    </row>
+    <row r="244" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F244" s="39"/>
+    </row>
+    <row r="245" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F245" s="39"/>
+    </row>
+    <row r="246" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F246" s="39"/>
+    </row>
+    <row r="247" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F247" s="39"/>
+    </row>
+    <row r="248" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F248" s="39"/>
+    </row>
+    <row r="249" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F249" s="39"/>
+    </row>
+    <row r="250" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F250" s="39"/>
+    </row>
+    <row r="251" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F251" s="39"/>
+    </row>
+    <row r="252" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F252" s="39"/>
+    </row>
+    <row r="253" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F253" s="39"/>
+    </row>
+    <row r="254" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F254" s="39"/>
+    </row>
+    <row r="255" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F255" s="39"/>
+    </row>
+    <row r="256" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F256" s="39"/>
+    </row>
+    <row r="257" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F257" s="39"/>
+    </row>
+    <row r="258" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F258" s="39"/>
+    </row>
+    <row r="259" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F259" s="39"/>
+    </row>
+    <row r="260" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F260" s="39"/>
+    </row>
+    <row r="261" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F261" s="39"/>
+    </row>
+    <row r="262" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F262" s="39"/>
+    </row>
+    <row r="263" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F263" s="39"/>
+    </row>
+    <row r="264" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F264" s="39"/>
+    </row>
+    <row r="265" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F265" s="39"/>
+    </row>
+    <row r="266" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F266" s="39"/>
+    </row>
+    <row r="267" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F267" s="39"/>
+    </row>
+    <row r="268" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F268" s="39"/>
+    </row>
+    <row r="269" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F269" s="39"/>
+    </row>
+    <row r="270" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F270" s="39"/>
+    </row>
+    <row r="271" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F271" s="39"/>
+    </row>
+    <row r="272" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F272" s="39"/>
+    </row>
+    <row r="273" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F273" s="39"/>
+    </row>
+    <row r="274" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F274" s="39"/>
+    </row>
+    <row r="275" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F275" s="39"/>
+    </row>
+    <row r="276" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F276" s="39"/>
+    </row>
+    <row r="277" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F277" s="39"/>
+    </row>
+    <row r="278" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F278" s="39"/>
+    </row>
+    <row r="279" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F279" s="39"/>
+    </row>
+    <row r="280" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F280" s="39"/>
+    </row>
+    <row r="281" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F281" s="39"/>
+    </row>
+    <row r="282" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F282" s="39"/>
+    </row>
+    <row r="283" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F283" s="39"/>
+    </row>
+    <row r="284" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F284" s="39"/>
+    </row>
+    <row r="285" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F285" s="39"/>
+    </row>
+    <row r="286" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F286" s="39"/>
+    </row>
+    <row r="287" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F287" s="39"/>
+    </row>
+    <row r="288" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F288" s="39"/>
+    </row>
+    <row r="289" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F289" s="39"/>
+    </row>
+    <row r="290" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F290" s="39"/>
+    </row>
+    <row r="291" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F291" s="39"/>
+    </row>
+    <row r="292" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F292" s="39"/>
+    </row>
+    <row r="293" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F293" s="39"/>
+    </row>
+    <row r="294" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F294" s="39"/>
+    </row>
+    <row r="295" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F295" s="39"/>
+    </row>
+    <row r="296" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F296" s="39"/>
+    </row>
+    <row r="297" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F297" s="39"/>
+    </row>
+    <row r="298" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F298" s="39"/>
+    </row>
+    <row r="299" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F299" s="39"/>
+    </row>
+    <row r="300" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F300" s="39"/>
+    </row>
+    <row r="301" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F301" s="39"/>
+    </row>
+    <row r="302" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F302" s="39"/>
+    </row>
+    <row r="303" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F303" s="39"/>
+    </row>
+    <row r="304" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F304" s="39"/>
+    </row>
+    <row r="305" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F305" s="39"/>
+    </row>
+    <row r="306" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F306" s="39"/>
+    </row>
+    <row r="307" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F307" s="39"/>
+    </row>
+    <row r="308" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F308" s="39"/>
+    </row>
+    <row r="309" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F309" s="39"/>
+    </row>
+    <row r="310" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F310" s="39"/>
+    </row>
+    <row r="311" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F311" s="39"/>
+    </row>
+    <row r="312" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F312" s="39"/>
+    </row>
+    <row r="313" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F313" s="39"/>
+    </row>
+    <row r="314" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F314" s="39"/>
+    </row>
+    <row r="315" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F315" s="39"/>
+    </row>
+    <row r="316" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F316" s="39"/>
+    </row>
+    <row r="317" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F317" s="39"/>
+    </row>
+    <row r="318" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F318" s="39"/>
+    </row>
+    <row r="319" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F319" s="39"/>
+    </row>
+    <row r="320" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F320" s="39"/>
+    </row>
+    <row r="321" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F321" s="39"/>
+    </row>
+    <row r="322" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F322" s="39"/>
+    </row>
+    <row r="323" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F323" s="39"/>
+    </row>
+    <row r="324" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F324" s="39"/>
+    </row>
+    <row r="325" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F325" s="39"/>
+    </row>
+    <row r="326" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F326" s="39"/>
+    </row>
+    <row r="327" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F327" s="39"/>
+    </row>
+    <row r="328" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F328" s="39"/>
+    </row>
+    <row r="329" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F329" s="39"/>
+    </row>
+    <row r="330" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F330" s="39"/>
+    </row>
+    <row r="331" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F331" s="39"/>
+    </row>
+    <row r="332" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F332" s="39"/>
+    </row>
+    <row r="333" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F333" s="39"/>
+    </row>
+    <row r="334" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F334" s="39"/>
+    </row>
+    <row r="335" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F335" s="39"/>
+    </row>
+    <row r="336" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F336" s="39"/>
+    </row>
+    <row r="337" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F337" s="39"/>
+    </row>
+    <row r="338" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F338" s="39"/>
+    </row>
+    <row r="339" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F339" s="39"/>
+    </row>
+    <row r="340" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F340" s="39"/>
+    </row>
+    <row r="341" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F341" s="39"/>
+    </row>
+    <row r="342" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F342" s="39"/>
+    </row>
+    <row r="343" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F343" s="39"/>
+    </row>
+    <row r="344" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F344" s="39"/>
+    </row>
+    <row r="345" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F345" s="39"/>
+    </row>
+    <row r="346" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F346" s="39"/>
+    </row>
+    <row r="347" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F347" s="39"/>
+    </row>
+    <row r="348" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F348" s="39"/>
+    </row>
+    <row r="349" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F349" s="39"/>
+    </row>
+    <row r="350" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F350" s="39"/>
+    </row>
+    <row r="351" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F351" s="39"/>
+    </row>
+    <row r="352" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F352" s="39"/>
+    </row>
+    <row r="353" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F353" s="39"/>
+    </row>
+    <row r="354" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F354" s="39"/>
+    </row>
+    <row r="355" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F355" s="39"/>
+    </row>
+    <row r="356" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F356" s="39"/>
+    </row>
+    <row r="357" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F357" s="39"/>
+    </row>
+    <row r="358" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F358" s="39"/>
+    </row>
+    <row r="359" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F359" s="39"/>
+    </row>
+    <row r="360" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F360" s="39"/>
+    </row>
+    <row r="361" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F361" s="39"/>
+    </row>
+    <row r="362" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F362" s="39"/>
+    </row>
+    <row r="363" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F363" s="39"/>
+    </row>
+    <row r="364" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F364" s="39"/>
+    </row>
+    <row r="365" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F365" s="39"/>
+    </row>
+    <row r="366" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F366" s="39"/>
+    </row>
+    <row r="367" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F367" s="39"/>
+    </row>
+    <row r="368" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F368" s="39"/>
+    </row>
+    <row r="369" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F369" s="39"/>
+    </row>
+    <row r="370" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F370" s="39"/>
+    </row>
+    <row r="371" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F371" s="39"/>
+    </row>
+    <row r="372" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F372" s="39"/>
+    </row>
+    <row r="373" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F373" s="39"/>
+    </row>
+    <row r="374" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F374" s="39"/>
+    </row>
+    <row r="375" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F375" s="39"/>
+    </row>
+    <row r="376" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F376" s="39"/>
+    </row>
+    <row r="377" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F377" s="39"/>
+    </row>
+    <row r="378" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F378" s="39"/>
+    </row>
+    <row r="379" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F379" s="39"/>
+    </row>
+    <row r="380" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F380" s="39"/>
+    </row>
+    <row r="381" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F381" s="39"/>
+    </row>
+    <row r="382" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F382" s="39"/>
+    </row>
+    <row r="383" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F383" s="39"/>
+    </row>
+    <row r="384" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F384" s="39"/>
+    </row>
+    <row r="385" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F385" s="39"/>
+    </row>
+    <row r="386" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F386" s="39"/>
+    </row>
+    <row r="387" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F387" s="39"/>
+    </row>
+    <row r="388" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F388" s="39"/>
+    </row>
+    <row r="389" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F389" s="39"/>
+    </row>
+    <row r="390" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F390" s="39"/>
+    </row>
+    <row r="391" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F391" s="39"/>
+    </row>
+    <row r="392" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F392" s="39"/>
+    </row>
+    <row r="393" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F393" s="39"/>
+    </row>
+    <row r="394" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F394" s="39"/>
+    </row>
+    <row r="395" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F395" s="39"/>
+    </row>
+    <row r="396" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F396" s="39"/>
+    </row>
+    <row r="397" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F397" s="39"/>
+    </row>
+    <row r="398" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F398" s="39"/>
+    </row>
+    <row r="399" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F399" s="39"/>
+    </row>
+    <row r="400" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F400" s="39"/>
+    </row>
+    <row r="401" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F401" s="39"/>
+    </row>
+    <row r="402" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F402" s="39"/>
+    </row>
+    <row r="403" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F403" s="39"/>
+    </row>
+    <row r="404" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F404" s="39"/>
+    </row>
+    <row r="405" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F405" s="39"/>
+    </row>
+    <row r="406" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F406" s="39"/>
+    </row>
+    <row r="407" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F407" s="39"/>
+    </row>
+    <row r="408" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F408" s="39"/>
+    </row>
+    <row r="409" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F409" s="39"/>
+    </row>
+    <row r="410" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F410" s="39"/>
+    </row>
+    <row r="411" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F411" s="39"/>
+    </row>
+    <row r="412" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F412" s="39"/>
+    </row>
+    <row r="413" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F413" s="39"/>
+    </row>
+    <row r="414" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F414" s="39"/>
+    </row>
+    <row r="415" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F415" s="39"/>
+    </row>
+    <row r="416" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F416" s="39"/>
+    </row>
+    <row r="417" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F417" s="39"/>
+    </row>
+    <row r="418" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F418" s="39"/>
+    </row>
+    <row r="419" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F419" s="39"/>
+    </row>
+    <row r="420" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F420" s="39"/>
+    </row>
+    <row r="421" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F421" s="39"/>
+    </row>
+    <row r="422" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F422" s="39"/>
+    </row>
+    <row r="423" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F423" s="39"/>
+    </row>
+    <row r="424" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F424" s="39"/>
+    </row>
+    <row r="425" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F425" s="39"/>
+    </row>
+    <row r="426" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F426" s="39"/>
+    </row>
+    <row r="427" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F427" s="39"/>
+    </row>
+    <row r="428" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F428" s="39"/>
+    </row>
+    <row r="429" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F429" s="39"/>
+    </row>
+    <row r="430" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F430" s="39"/>
+    </row>
+    <row r="431" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F431" s="39"/>
+    </row>
+    <row r="432" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F432" s="39"/>
+    </row>
+    <row r="433" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F433" s="39"/>
+    </row>
+    <row r="434" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F434" s="39"/>
+    </row>
+    <row r="435" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F435" s="39"/>
+    </row>
+    <row r="436" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F436" s="39"/>
+    </row>
+    <row r="437" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F437" s="39"/>
+    </row>
+    <row r="438" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F438" s="39"/>
+    </row>
+    <row r="439" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F439" s="39"/>
+    </row>
+    <row r="440" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F440" s="39"/>
+    </row>
+    <row r="441" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F441" s="39"/>
+    </row>
+    <row r="442" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F442" s="39"/>
+    </row>
+    <row r="443" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F443" s="39"/>
+    </row>
+    <row r="444" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F444" s="39"/>
+    </row>
+    <row r="445" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F445" s="39"/>
+    </row>
+    <row r="446" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F446" s="39"/>
+    </row>
+    <row r="447" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F447" s="39"/>
+    </row>
+    <row r="448" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F448" s="39"/>
+    </row>
+    <row r="449" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F449" s="39"/>
+    </row>
+    <row r="450" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F450" s="39"/>
+    </row>
+    <row r="451" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F451" s="39"/>
+    </row>
+    <row r="452" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F452" s="39"/>
+    </row>
+    <row r="453" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F453" s="39"/>
+    </row>
+    <row r="454" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F454" s="39"/>
+    </row>
+    <row r="455" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F455" s="39"/>
+    </row>
+    <row r="456" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F456" s="39"/>
+    </row>
+    <row r="457" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F457" s="39"/>
+    </row>
+    <row r="458" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F458" s="39"/>
+    </row>
+    <row r="459" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F459" s="39"/>
+    </row>
+    <row r="460" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F460" s="39"/>
+    </row>
+    <row r="461" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F461" s="39"/>
+    </row>
+    <row r="462" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F462" s="39"/>
+    </row>
+    <row r="463" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F463" s="39"/>
+    </row>
+    <row r="464" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F464" s="39"/>
+    </row>
+    <row r="465" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F465" s="39"/>
+    </row>
+    <row r="466" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F466" s="39"/>
+    </row>
+    <row r="467" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F467" s="39"/>
+    </row>
+    <row r="468" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F468" s="39"/>
+    </row>
+    <row r="469" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F469" s="39"/>
+    </row>
+    <row r="470" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F470" s="39"/>
+    </row>
+    <row r="471" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F471" s="39"/>
+    </row>
+    <row r="472" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F472" s="39"/>
+    </row>
+    <row r="473" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F473" s="39"/>
+    </row>
+    <row r="474" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F474" s="39"/>
+    </row>
+    <row r="475" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F475" s="39"/>
+    </row>
+    <row r="476" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F476" s="39"/>
+    </row>
+    <row r="477" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F477" s="39"/>
+    </row>
+    <row r="478" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F478" s="39"/>
+    </row>
+    <row r="479" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F479" s="39"/>
+    </row>
+    <row r="480" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F480" s="39"/>
+    </row>
+    <row r="481" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F481" s="39"/>
+    </row>
+    <row r="482" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F482" s="39"/>
+    </row>
+    <row r="483" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F483" s="39"/>
+    </row>
+    <row r="484" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F484" s="39"/>
+    </row>
+    <row r="485" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F485" s="39"/>
+    </row>
+    <row r="486" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F486" s="39"/>
+    </row>
+    <row r="487" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F487" s="39"/>
+    </row>
+    <row r="488" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F488" s="39"/>
+    </row>
+    <row r="489" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F489" s="39"/>
+    </row>
+    <row r="490" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F490" s="39"/>
+    </row>
+    <row r="491" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F491" s="39"/>
+    </row>
+    <row r="492" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F492" s="39"/>
+    </row>
+    <row r="493" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F493" s="39"/>
+    </row>
+    <row r="494" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F494" s="39"/>
+    </row>
+    <row r="495" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F495" s="39"/>
+    </row>
+    <row r="496" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F496" s="39"/>
+    </row>
+    <row r="497" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F497" s="39"/>
+    </row>
+    <row r="498" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F498" s="39"/>
+    </row>
+    <row r="499" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F499" s="39"/>
+    </row>
+    <row r="500" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F500" s="39"/>
+    </row>
+    <row r="501" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F501" s="39"/>
+    </row>
+    <row r="502" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F502" s="39"/>
+    </row>
+    <row r="503" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F503" s="39"/>
+    </row>
+    <row r="504" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F504" s="39"/>
+    </row>
+    <row r="505" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F505" s="39"/>
+    </row>
+    <row r="506" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F506" s="39"/>
+    </row>
+    <row r="507" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F507" s="39"/>
+    </row>
+    <row r="508" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F508" s="39"/>
+    </row>
+    <row r="509" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F509" s="39"/>
+    </row>
+    <row r="510" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F510" s="39"/>
+    </row>
+    <row r="511" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F511" s="39"/>
+    </row>
+    <row r="512" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F512" s="39"/>
+    </row>
+    <row r="513" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F513" s="39"/>
+    </row>
+    <row r="514" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F514" s="39"/>
+    </row>
+    <row r="515" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F515" s="39"/>
+    </row>
+    <row r="516" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F516" s="39"/>
+    </row>
+    <row r="517" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F517" s="39"/>
+    </row>
+    <row r="518" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F518" s="39"/>
+    </row>
+    <row r="519" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F519" s="39"/>
+    </row>
+    <row r="520" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F520" s="39"/>
+    </row>
+    <row r="521" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F521" s="39"/>
+    </row>
+    <row r="522" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F522" s="39"/>
+    </row>
+    <row r="523" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F523" s="39"/>
+    </row>
+    <row r="524" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F524" s="39"/>
+    </row>
+    <row r="525" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F525" s="39"/>
+    </row>
+    <row r="526" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F526" s="39"/>
+    </row>
+    <row r="527" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F527" s="39"/>
+    </row>
+    <row r="528" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F528" s="39"/>
+    </row>
+    <row r="529" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F529" s="39"/>
+    </row>
+    <row r="530" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F530" s="39"/>
+    </row>
+    <row r="531" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F531" s="39"/>
+    </row>
+    <row r="532" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F532" s="39"/>
+    </row>
+    <row r="533" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F533" s="39"/>
+    </row>
+    <row r="534" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F534" s="39"/>
+    </row>
+    <row r="535" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F535" s="39"/>
+    </row>
+    <row r="536" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F536" s="39"/>
+    </row>
+    <row r="537" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F537" s="39"/>
+    </row>
+    <row r="538" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F538" s="39"/>
+    </row>
+    <row r="539" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F539" s="39"/>
+    </row>
+    <row r="540" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F540" s="39"/>
+    </row>
+    <row r="541" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F541" s="39"/>
+    </row>
+    <row r="542" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F542" s="39"/>
+    </row>
+    <row r="543" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F543" s="39"/>
+    </row>
+    <row r="544" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F544" s="39"/>
+    </row>
+    <row r="545" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F545" s="39"/>
+    </row>
+    <row r="546" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F546" s="39"/>
+    </row>
+    <row r="547" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F547" s="39"/>
+    </row>
+    <row r="548" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F548" s="39"/>
+    </row>
+    <row r="549" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F549" s="39"/>
+    </row>
+    <row r="550" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F550" s="39"/>
+    </row>
+    <row r="551" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F551" s="39"/>
+    </row>
+    <row r="552" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F552" s="39"/>
+    </row>
+    <row r="553" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F553" s="39"/>
+    </row>
+    <row r="554" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F554" s="39"/>
+    </row>
+    <row r="555" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F555" s="39"/>
+    </row>
+    <row r="556" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F556" s="39"/>
+    </row>
+    <row r="557" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F557" s="39"/>
+    </row>
+    <row r="558" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F558" s="39"/>
+    </row>
+    <row r="559" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F559" s="39"/>
+    </row>
+    <row r="560" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F560" s="39"/>
+    </row>
+    <row r="561" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F561" s="39"/>
+    </row>
+    <row r="562" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F562" s="39"/>
+    </row>
+    <row r="563" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F563" s="39"/>
+    </row>
+    <row r="564" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F564" s="39"/>
+    </row>
+    <row r="565" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F565" s="39"/>
+    </row>
+    <row r="566" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F566" s="39"/>
+    </row>
+    <row r="567" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F567" s="39"/>
+    </row>
+    <row r="568" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F568" s="39"/>
+    </row>
+    <row r="569" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F569" s="39"/>
+    </row>
+    <row r="570" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F570" s="39"/>
+    </row>
+    <row r="571" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F571" s="39"/>
+    </row>
+    <row r="572" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F572" s="39"/>
+    </row>
+    <row r="573" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F573" s="39"/>
+    </row>
+    <row r="574" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F574" s="39"/>
+    </row>
+    <row r="575" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F575" s="39"/>
+    </row>
+    <row r="576" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F576" s="39"/>
+    </row>
+    <row r="577" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F577" s="39"/>
+    </row>
+    <row r="578" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F578" s="39"/>
+    </row>
+    <row r="579" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F579" s="39"/>
+    </row>
+    <row r="580" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F580" s="39"/>
+    </row>
+    <row r="581" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F581" s="39"/>
+    </row>
+    <row r="582" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F582" s="39"/>
+    </row>
+    <row r="583" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F583" s="39"/>
+    </row>
+    <row r="584" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F584" s="39"/>
+    </row>
+    <row r="585" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F585" s="39"/>
+    </row>
+    <row r="586" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F586" s="39"/>
+    </row>
+    <row r="587" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F587" s="39"/>
+    </row>
+    <row r="588" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F588" s="39"/>
+    </row>
+    <row r="589" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F589" s="39"/>
+    </row>
+    <row r="590" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F590" s="39"/>
+    </row>
+    <row r="591" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F591" s="39"/>
+    </row>
+    <row r="592" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F592" s="39"/>
+    </row>
+    <row r="593" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F593" s="39"/>
+    </row>
+    <row r="594" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F594" s="39"/>
+    </row>
+    <row r="595" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F595" s="39"/>
+    </row>
+    <row r="596" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F596" s="39"/>
+    </row>
+    <row r="597" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F597" s="39"/>
+    </row>
+    <row r="598" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F598" s="39"/>
+    </row>
+    <row r="599" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F599" s="39"/>
+    </row>
+    <row r="600" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F600" s="39"/>
+    </row>
+    <row r="601" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F601" s="39"/>
+    </row>
+    <row r="602" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F602" s="39"/>
+    </row>
+    <row r="603" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F603" s="39"/>
+    </row>
+    <row r="604" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F604" s="39"/>
+    </row>
+    <row r="605" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F605" s="39"/>
+    </row>
+    <row r="606" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F606" s="39"/>
+    </row>
+    <row r="607" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F607" s="39"/>
+    </row>
+    <row r="608" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F608" s="39"/>
+    </row>
+    <row r="609" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F609" s="39"/>
+    </row>
+    <row r="610" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F610" s="39"/>
+    </row>
+    <row r="611" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F611" s="39"/>
+    </row>
+    <row r="612" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F612" s="39"/>
+    </row>
+    <row r="613" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F613" s="39"/>
+    </row>
+    <row r="614" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F614" s="39"/>
+    </row>
+    <row r="615" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F615" s="39"/>
+    </row>
+    <row r="616" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F616" s="39"/>
+    </row>
+    <row r="617" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F617" s="39"/>
+    </row>
+    <row r="618" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F618" s="39"/>
+    </row>
+    <row r="619" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F619" s="39"/>
+    </row>
+    <row r="620" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F620" s="39"/>
+    </row>
+    <row r="621" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F621" s="39"/>
+    </row>
+    <row r="622" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F622" s="39"/>
+    </row>
+    <row r="623" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F623" s="39"/>
+    </row>
+    <row r="624" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F624" s="39"/>
+    </row>
+    <row r="625" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F625" s="39"/>
+    </row>
+    <row r="626" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F626" s="39"/>
+    </row>
+    <row r="627" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F627" s="39"/>
+    </row>
+    <row r="628" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F628" s="39"/>
+    </row>
+    <row r="629" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F629" s="39"/>
+    </row>
+    <row r="630" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F630" s="39"/>
+    </row>
+    <row r="631" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F631" s="39"/>
+    </row>
+    <row r="632" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F632" s="39"/>
+    </row>
+    <row r="633" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F633" s="39"/>
+    </row>
+    <row r="634" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F634" s="39"/>
+    </row>
+    <row r="635" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F635" s="39"/>
+    </row>
+    <row r="636" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F636" s="39"/>
+    </row>
+    <row r="637" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F637" s="39"/>
+    </row>
+    <row r="638" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F638" s="39"/>
+    </row>
+    <row r="639" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F639" s="39"/>
+    </row>
+    <row r="640" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F640" s="39"/>
+    </row>
+    <row r="641" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F641" s="39"/>
+    </row>
+    <row r="642" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F642" s="39"/>
+    </row>
+    <row r="643" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F643" s="39"/>
+    </row>
+    <row r="644" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F644" s="39"/>
+    </row>
+    <row r="645" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F645" s="39"/>
+    </row>
+    <row r="646" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F646" s="39"/>
+    </row>
+    <row r="647" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F647" s="39"/>
+    </row>
+    <row r="648" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F648" s="39"/>
+    </row>
+    <row r="649" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F649" s="39"/>
+    </row>
+    <row r="650" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F650" s="39"/>
+    </row>
+    <row r="651" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F651" s="39"/>
+    </row>
+    <row r="652" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F652" s="39"/>
+    </row>
+    <row r="653" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F653" s="39"/>
+    </row>
+    <row r="654" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F654" s="39"/>
+    </row>
+    <row r="655" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F655" s="39"/>
+    </row>
+    <row r="656" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F656" s="39"/>
+    </row>
+    <row r="657" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F657" s="39"/>
+    </row>
+    <row r="658" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F658" s="39"/>
+    </row>
+    <row r="659" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F659" s="39"/>
+    </row>
+    <row r="660" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F660" s="39"/>
+    </row>
+    <row r="661" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F661" s="39"/>
+    </row>
+    <row r="662" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F662" s="39"/>
+    </row>
+    <row r="663" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F663" s="39"/>
+    </row>
+    <row r="664" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F664" s="39"/>
+    </row>
+    <row r="665" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F665" s="39"/>
+    </row>
+    <row r="666" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F666" s="39"/>
+    </row>
+    <row r="667" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F667" s="39"/>
+    </row>
+    <row r="668" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F668" s="39"/>
+    </row>
+    <row r="669" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F669" s="39"/>
+    </row>
+    <row r="670" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F670" s="39"/>
+    </row>
+    <row r="671" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F671" s="39"/>
+    </row>
+    <row r="672" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F672" s="39"/>
+    </row>
+    <row r="673" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F673" s="39"/>
+    </row>
+    <row r="674" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F674" s="39"/>
+    </row>
+    <row r="675" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F675" s="39"/>
+    </row>
+    <row r="676" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F676" s="39"/>
+    </row>
+    <row r="677" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F677" s="39"/>
+    </row>
+    <row r="678" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F678" s="39"/>
+    </row>
+    <row r="679" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F679" s="39"/>
+    </row>
+    <row r="680" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F680" s="39"/>
+    </row>
+    <row r="681" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F681" s="39"/>
+    </row>
+    <row r="682" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F682" s="39"/>
+    </row>
+    <row r="683" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F683" s="39"/>
+    </row>
+    <row r="684" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F684" s="39"/>
+    </row>
+    <row r="685" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F685" s="39"/>
+    </row>
+    <row r="686" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F686" s="39"/>
+    </row>
+    <row r="687" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F687" s="39"/>
+    </row>
+    <row r="688" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F688" s="39"/>
+    </row>
+    <row r="689" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F689" s="39"/>
+    </row>
+    <row r="690" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F690" s="39"/>
+    </row>
+    <row r="691" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F691" s="39"/>
+    </row>
+    <row r="692" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F692" s="39"/>
+    </row>
+    <row r="693" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F693" s="39"/>
+    </row>
+    <row r="694" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F694" s="39"/>
+    </row>
+    <row r="695" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F695" s="39"/>
+    </row>
+    <row r="696" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F696" s="39"/>
+    </row>
+    <row r="697" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F697" s="39"/>
+    </row>
+    <row r="698" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F698" s="39"/>
+    </row>
+    <row r="699" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F699" s="39"/>
+    </row>
+    <row r="700" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F700" s="39"/>
+    </row>
+    <row r="701" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F701" s="39"/>
+    </row>
+    <row r="702" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F702" s="39"/>
+    </row>
+    <row r="703" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F703" s="39"/>
+    </row>
+    <row r="704" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F704" s="39"/>
+    </row>
+    <row r="705" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F705" s="39"/>
+    </row>
+    <row r="706" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F706" s="39"/>
+    </row>
+    <row r="707" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F707" s="39"/>
+    </row>
+    <row r="708" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F708" s="39"/>
+    </row>
+    <row r="709" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F709" s="39"/>
+    </row>
+    <row r="710" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F710" s="39"/>
+    </row>
+    <row r="711" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F711" s="39"/>
+    </row>
+    <row r="712" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F712" s="39"/>
+    </row>
+    <row r="713" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F713" s="39"/>
+    </row>
+    <row r="714" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F714" s="39"/>
+    </row>
+    <row r="715" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F715" s="39"/>
+    </row>
+    <row r="716" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F716" s="39"/>
+    </row>
+    <row r="717" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F717" s="39"/>
+    </row>
+    <row r="718" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F718" s="39"/>
+    </row>
+    <row r="719" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F719" s="39"/>
+    </row>
+    <row r="720" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F720" s="39"/>
+    </row>
+    <row r="721" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F721" s="39"/>
+    </row>
+    <row r="722" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F722" s="39"/>
+    </row>
+    <row r="723" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F723" s="39"/>
+    </row>
+    <row r="724" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F724" s="39"/>
+    </row>
+    <row r="725" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F725" s="39"/>
+    </row>
+    <row r="726" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F726" s="39"/>
+    </row>
+    <row r="727" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F727" s="39"/>
+    </row>
+    <row r="728" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F728" s="39"/>
+    </row>
+    <row r="729" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F729" s="39"/>
+    </row>
+    <row r="730" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F730" s="39"/>
+    </row>
+    <row r="731" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F731" s="39"/>
+    </row>
+    <row r="732" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F732" s="39"/>
+    </row>
+    <row r="733" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F733" s="39"/>
+    </row>
+    <row r="734" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F734" s="39"/>
+    </row>
+    <row r="735" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F735" s="39"/>
+    </row>
+    <row r="736" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F736" s="39"/>
+    </row>
+    <row r="737" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F737" s="39"/>
+    </row>
+    <row r="738" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F738" s="39"/>
+    </row>
+    <row r="739" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F739" s="39"/>
+    </row>
+    <row r="740" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F740" s="39"/>
+    </row>
+    <row r="741" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F741" s="39"/>
+    </row>
+    <row r="742" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F742" s="39"/>
+    </row>
+    <row r="743" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F743" s="39"/>
+    </row>
+    <row r="744" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F744" s="39"/>
+    </row>
+    <row r="745" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F745" s="39"/>
+    </row>
+    <row r="746" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F746" s="39"/>
+    </row>
+    <row r="747" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F747" s="39"/>
+    </row>
+    <row r="748" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F748" s="39"/>
+    </row>
+    <row r="749" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F749" s="39"/>
+    </row>
+    <row r="750" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F750" s="39"/>
+    </row>
+    <row r="751" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F751" s="39"/>
+    </row>
+    <row r="752" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F752" s="39"/>
+    </row>
+    <row r="753" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F753" s="39"/>
+    </row>
+    <row r="754" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F754" s="39"/>
+    </row>
+    <row r="755" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F755" s="39"/>
+    </row>
+    <row r="756" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F756" s="39"/>
+    </row>
+    <row r="757" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F757" s="39"/>
+    </row>
+    <row r="758" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F758" s="39"/>
+    </row>
+    <row r="759" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F759" s="39"/>
+    </row>
+    <row r="760" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F760" s="39"/>
+    </row>
+    <row r="761" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F761" s="39"/>
+    </row>
+    <row r="762" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F762" s="39"/>
+    </row>
+    <row r="763" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F763" s="39"/>
+    </row>
+    <row r="764" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F764" s="39"/>
+    </row>
+    <row r="765" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F765" s="39"/>
+    </row>
+    <row r="766" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F766" s="39"/>
+    </row>
+    <row r="767" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F767" s="39"/>
+    </row>
+    <row r="768" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F768" s="39"/>
+    </row>
+    <row r="769" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F769" s="39"/>
+    </row>
+    <row r="770" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F770" s="39"/>
+    </row>
+    <row r="771" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F771" s="39"/>
+    </row>
+    <row r="772" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F772" s="39"/>
+    </row>
+    <row r="773" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F773" s="39"/>
+    </row>
+    <row r="774" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F774" s="39"/>
+    </row>
+    <row r="775" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F775" s="39"/>
+    </row>
+    <row r="776" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F776" s="39"/>
+    </row>
+    <row r="777" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F777" s="39"/>
+    </row>
+    <row r="778" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F778" s="39"/>
+    </row>
+    <row r="779" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F779" s="39"/>
+    </row>
+    <row r="780" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F780" s="39"/>
+    </row>
+    <row r="781" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F781" s="39"/>
+    </row>
+    <row r="782" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F782" s="39"/>
+    </row>
+    <row r="783" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F783" s="39"/>
+    </row>
+    <row r="784" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F784" s="39"/>
+    </row>
+    <row r="785" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F785" s="39"/>
+    </row>
+    <row r="786" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F786" s="39"/>
+    </row>
+    <row r="787" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F787" s="39"/>
+    </row>
+    <row r="788" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F788" s="39"/>
+    </row>
+    <row r="789" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F789" s="39"/>
+    </row>
+    <row r="790" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F790" s="39"/>
+    </row>
+    <row r="791" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F791" s="39"/>
+    </row>
+    <row r="792" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F792" s="39"/>
+    </row>
+    <row r="793" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F793" s="39"/>
+    </row>
+    <row r="794" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F794" s="39"/>
+    </row>
+    <row r="795" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F795" s="39"/>
+    </row>
+    <row r="796" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F796" s="39"/>
+    </row>
+    <row r="797" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F797" s="39"/>
+    </row>
+    <row r="798" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F798" s="39"/>
+    </row>
+    <row r="799" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F799" s="39"/>
+    </row>
+    <row r="800" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F800" s="39"/>
+    </row>
+    <row r="801" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F801" s="39"/>
+    </row>
+    <row r="802" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F802" s="39"/>
+    </row>
+    <row r="803" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F803" s="39"/>
+    </row>
+    <row r="804" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F804" s="39"/>
+    </row>
+    <row r="805" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F805" s="39"/>
+    </row>
+    <row r="806" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F806" s="39"/>
+    </row>
+    <row r="807" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F807" s="39"/>
+    </row>
+    <row r="808" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F808" s="39"/>
+    </row>
+    <row r="809" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F809" s="39"/>
+    </row>
+    <row r="810" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F810" s="39"/>
+    </row>
+    <row r="811" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F811" s="39"/>
+    </row>
+    <row r="812" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F812" s="39"/>
+    </row>
+    <row r="813" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F813" s="39"/>
+    </row>
+    <row r="814" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F814" s="39"/>
+    </row>
+    <row r="815" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F815" s="39"/>
+    </row>
+    <row r="816" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F816" s="39"/>
+    </row>
+    <row r="817" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F817" s="39"/>
+    </row>
+    <row r="818" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F818" s="39"/>
+    </row>
+    <row r="819" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F819" s="39"/>
+    </row>
+    <row r="820" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F820" s="39"/>
+    </row>
+    <row r="821" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F821" s="39"/>
+    </row>
+    <row r="822" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F822" s="39"/>
+    </row>
+    <row r="823" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F823" s="39"/>
+    </row>
+    <row r="824" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F824" s="39"/>
+    </row>
+    <row r="825" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F825" s="39"/>
+    </row>
+    <row r="826" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F826" s="39"/>
+    </row>
+    <row r="827" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F827" s="39"/>
+    </row>
+    <row r="828" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F828" s="39"/>
+    </row>
+    <row r="829" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F829" s="39"/>
+    </row>
+    <row r="830" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F830" s="39"/>
+    </row>
+    <row r="831" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F831" s="39"/>
+    </row>
+    <row r="832" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F832" s="39"/>
+    </row>
+    <row r="833" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F833" s="39"/>
+    </row>
+    <row r="834" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F834" s="39"/>
+    </row>
+    <row r="835" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F835" s="39"/>
+    </row>
+    <row r="836" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F836" s="39"/>
+    </row>
+    <row r="837" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F837" s="39"/>
+    </row>
+    <row r="838" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F838" s="39"/>
+    </row>
+    <row r="839" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F839" s="39"/>
+    </row>
+    <row r="840" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F840" s="39"/>
+    </row>
+    <row r="841" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F841" s="39"/>
+    </row>
+    <row r="842" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F842" s="39"/>
+    </row>
+    <row r="843" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F843" s="39"/>
+    </row>
+    <row r="844" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F844" s="39"/>
+    </row>
+    <row r="845" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F845" s="39"/>
+    </row>
+    <row r="846" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F846" s="39"/>
+    </row>
+    <row r="847" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F847" s="39"/>
+    </row>
+    <row r="848" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F848" s="39"/>
+    </row>
+    <row r="849" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F849" s="39"/>
+    </row>
+    <row r="850" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F850" s="39"/>
+    </row>
+    <row r="851" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F851" s="39"/>
+    </row>
+    <row r="852" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F852" s="39"/>
+    </row>
+    <row r="853" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F853" s="39"/>
+    </row>
+    <row r="854" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F854" s="39"/>
+    </row>
+    <row r="855" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F855" s="39"/>
+    </row>
+    <row r="856" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F856" s="39"/>
+    </row>
+    <row r="857" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F857" s="39"/>
+    </row>
+    <row r="858" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F858" s="39"/>
+    </row>
+    <row r="859" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F859" s="39"/>
+    </row>
+    <row r="860" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F860" s="39"/>
+    </row>
+    <row r="861" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F861" s="39"/>
+    </row>
+    <row r="862" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F862" s="39"/>
+    </row>
+    <row r="863" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F863" s="39"/>
+    </row>
+    <row r="864" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F864" s="39"/>
+    </row>
+    <row r="865" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F865" s="39"/>
+    </row>
+    <row r="866" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F866" s="39"/>
+    </row>
+    <row r="867" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F867" s="39"/>
+    </row>
+    <row r="868" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F868" s="39"/>
+    </row>
+    <row r="869" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F869" s="39"/>
+    </row>
+    <row r="870" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F870" s="39"/>
+    </row>
+    <row r="871" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F871" s="39"/>
+    </row>
+    <row r="872" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F872" s="39"/>
+    </row>
+    <row r="873" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F873" s="39"/>
+    </row>
+    <row r="874" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F874" s="39"/>
+    </row>
+    <row r="875" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F875" s="39"/>
+    </row>
+    <row r="876" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F876" s="39"/>
+    </row>
+    <row r="877" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F877" s="39"/>
+    </row>
+    <row r="878" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F878" s="39"/>
+    </row>
+    <row r="879" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F879" s="39"/>
+    </row>
+    <row r="880" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F880" s="39"/>
+    </row>
+    <row r="881" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F881" s="39"/>
+    </row>
+    <row r="882" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F882" s="39"/>
+    </row>
+    <row r="883" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F883" s="39"/>
+    </row>
+    <row r="884" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F884" s="39"/>
+    </row>
+    <row r="885" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F885" s="39"/>
+    </row>
+    <row r="886" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F886" s="39"/>
+    </row>
+    <row r="887" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F887" s="39"/>
+    </row>
+    <row r="888" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F888" s="39"/>
+    </row>
+    <row r="889" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F889" s="39"/>
+    </row>
+    <row r="890" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F890" s="39"/>
+    </row>
+    <row r="891" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F891" s="39"/>
+    </row>
+    <row r="892" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F892" s="39"/>
+    </row>
+    <row r="893" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F893" s="39"/>
+    </row>
+    <row r="894" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F894" s="39"/>
+    </row>
+    <row r="895" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F895" s="39"/>
+    </row>
+    <row r="896" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F896" s="39"/>
+    </row>
+    <row r="897" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F897" s="39"/>
+    </row>
+    <row r="898" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F898" s="39"/>
+    </row>
+    <row r="899" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F899" s="39"/>
+    </row>
+    <row r="900" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F900" s="39"/>
+    </row>
+    <row r="901" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F901" s="39"/>
+    </row>
+    <row r="902" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F902" s="39"/>
+    </row>
+    <row r="903" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F903" s="39"/>
+    </row>
+    <row r="904" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F904" s="39"/>
+    </row>
+    <row r="905" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F905" s="39"/>
+    </row>
+    <row r="906" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F906" s="39"/>
+    </row>
+    <row r="907" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F907" s="39"/>
+    </row>
+    <row r="908" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F908" s="39"/>
+    </row>
+    <row r="909" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F909" s="39"/>
+    </row>
+    <row r="910" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F910" s="39"/>
+    </row>
+    <row r="911" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F911" s="39"/>
+    </row>
+    <row r="912" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F912" s="39"/>
+    </row>
+    <row r="913" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F913" s="39"/>
+    </row>
+    <row r="914" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F914" s="39"/>
+    </row>
+    <row r="915" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F915" s="39"/>
+    </row>
+    <row r="916" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F916" s="39"/>
+    </row>
+    <row r="917" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F917" s="39"/>
+    </row>
+    <row r="918" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F918" s="39"/>
+    </row>
+    <row r="919" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F919" s="39"/>
+    </row>
+    <row r="920" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F920" s="39"/>
+    </row>
+    <row r="921" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F921" s="39"/>
+    </row>
+    <row r="922" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F922" s="39"/>
+    </row>
+    <row r="923" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F923" s="39"/>
+    </row>
+    <row r="924" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F924" s="39"/>
+    </row>
+    <row r="925" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F925" s="39"/>
+    </row>
+    <row r="926" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F926" s="39"/>
+    </row>
+    <row r="927" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F927" s="39"/>
+    </row>
+    <row r="928" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F928" s="39"/>
+    </row>
+    <row r="929" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F929" s="39"/>
+    </row>
+    <row r="930" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F930" s="39"/>
+    </row>
+    <row r="931" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F931" s="39"/>
+    </row>
+    <row r="932" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F932" s="39"/>
+    </row>
+    <row r="933" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F933" s="39"/>
+    </row>
+    <row r="934" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F934" s="39"/>
+    </row>
+    <row r="935" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F935" s="39"/>
+    </row>
+    <row r="936" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F936" s="39"/>
+    </row>
+    <row r="937" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F937" s="39"/>
+    </row>
+    <row r="938" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F938" s="39"/>
+    </row>
+    <row r="939" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F939" s="39"/>
+    </row>
+    <row r="940" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F940" s="39"/>
+    </row>
+    <row r="941" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F941" s="39"/>
+    </row>
+    <row r="942" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F942" s="39"/>
+    </row>
+    <row r="943" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F943" s="39"/>
+    </row>
+    <row r="944" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F944" s="39"/>
+    </row>
+    <row r="945" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F945" s="39"/>
+    </row>
+    <row r="946" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F946" s="39"/>
+    </row>
+    <row r="947" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F947" s="39"/>
+    </row>
+    <row r="948" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F948" s="39"/>
+    </row>
+    <row r="949" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F949" s="39"/>
+    </row>
+    <row r="950" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F950" s="39"/>
+    </row>
+    <row r="951" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F951" s="39"/>
+    </row>
+    <row r="952" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F952" s="39"/>
+    </row>
+    <row r="953" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F953" s="39"/>
+    </row>
+    <row r="954" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F954" s="39"/>
+    </row>
+    <row r="955" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F955" s="39"/>
+    </row>
+    <row r="956" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F956" s="39"/>
+    </row>
+    <row r="957" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F957" s="39"/>
+    </row>
+    <row r="958" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F958" s="39"/>
+    </row>
+    <row r="959" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F959" s="39"/>
+    </row>
+    <row r="960" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F960" s="39"/>
+    </row>
+    <row r="961" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F961" s="39"/>
+    </row>
+    <row r="962" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F962" s="39"/>
+    </row>
+    <row r="963" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F963" s="39"/>
+    </row>
+    <row r="964" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F964" s="39"/>
+    </row>
+    <row r="965" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F965" s="39"/>
+    </row>
+    <row r="966" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F966" s="39"/>
+    </row>
+    <row r="967" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F967" s="39"/>
+    </row>
+    <row r="968" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F968" s="39"/>
+    </row>
+    <row r="969" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F969" s="39"/>
+    </row>
+    <row r="970" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F970" s="39"/>
+    </row>
+    <row r="971" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F971" s="39"/>
+    </row>
+    <row r="972" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F972" s="39"/>
+    </row>
+    <row r="973" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F973" s="39"/>
+    </row>
+    <row r="974" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F974" s="39"/>
+    </row>
+    <row r="975" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F975" s="39"/>
+    </row>
+    <row r="976" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F976" s="39"/>
+    </row>
+    <row r="977" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F977" s="39"/>
+    </row>
+    <row r="978" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F978" s="39"/>
+    </row>
+    <row r="979" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F979" s="39"/>
+    </row>
+    <row r="980" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F980" s="39"/>
+    </row>
+    <row r="981" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F981" s="39"/>
+    </row>
+    <row r="982" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F982" s="39"/>
+    </row>
+    <row r="983" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F983" s="39"/>
+    </row>
+    <row r="984" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F984" s="39"/>
+    </row>
+    <row r="985" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F985" s="39"/>
+    </row>
+    <row r="986" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F986" s="39"/>
+    </row>
+    <row r="987" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F987" s="39"/>
+    </row>
+    <row r="988" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F988" s="39"/>
+    </row>
+    <row r="989" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F989" s="39"/>
+    </row>
+    <row r="990" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F990" s="39"/>
+    </row>
+    <row r="991" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F991" s="39"/>
+    </row>
+    <row r="992" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F992" s="39"/>
+    </row>
+    <row r="993" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F993" s="39"/>
+    </row>
+    <row r="994" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F994" s="39"/>
+    </row>
+    <row r="995" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F995" s="39"/>
+    </row>
+    <row r="996" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F996" s="39"/>
+    </row>
+    <row r="997" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F997" s="39"/>
+    </row>
+    <row r="998" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F998" s="39"/>
+    </row>
+    <row r="999" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F999" s="39"/>
+    </row>
+    <row r="1000" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1000" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lumaData/testcases.xlsx
+++ b/data/lumaData/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Auto IT training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344334D8-3C9B-45D1-BAE2-2F39B5BBFB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792DB35-C0FE-45D0-8CEC-4F21DF3BFCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24B4FD53-3088-4808-923C-A87E95CBB857}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="340">
   <si>
     <t>TC ID</t>
   </si>
@@ -960,62 +960,6 @@
   </si>
   <si>
     <t>verify the list view functionality</t>
-  </si>
-  <si>
-    <r>
-      <t>a list of sorting options such as "Product Name," "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Price</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>," or "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">." is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>displayed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>The search results page should display relevant products matching the search query</t>
@@ -1249,32 +1193,268 @@
     <t>street address typed(using generated address.)</t>
   </si>
   <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
     <t>Verify that the user can Add to Cart one or more items if the attributes of the product size &amp; color was selected</t>
   </si>
   <si>
-    <t>TC11</t>
-  </si>
-  <si>
     <t>TC23</t>
   </si>
   <si>
-    <t>TC26</t>
+    <t>TS20-TC031</t>
+  </si>
+  <si>
+    <r>
+      <t>a list of sorting options such as "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Product Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>," "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>," or "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>." is displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>6.select "Price" option</t>
+  </si>
+  <si>
+    <t>The items are rearranged in ascending order based on their prices.</t>
+  </si>
+  <si>
+    <t>Verify the functionality of the set ascending &amp; descending button</t>
+  </si>
+  <si>
+    <t>7.click on Set Descending Direction</t>
+  </si>
+  <si>
+    <t>The products on the page should be rearranged in descending order based on their price.</t>
+  </si>
+  <si>
+    <t>5. Click on the "PageNext" link.</t>
+  </si>
+  <si>
+    <t>6.Click on the "PagePrevious" link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Repeat the test with different search queries or result sets to ensure consistency.</t>
+  </si>
+  <si>
+    <t>the user should on the next page of the results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the user should back to the previous page.</t>
+  </si>
+  <si>
+    <t>Verify navigation through pagination</t>
+  </si>
+  <si>
+    <t>7.Repeat: Click on the "PageNext" link until reaching the last page</t>
+  </si>
+  <si>
+    <t>The "PageNext" link is disabled or not clickable on the last page</t>
+  </si>
+  <si>
+    <t>TS21-TC032</t>
+  </si>
+  <si>
+    <t>Coded using the Cucumber framework.</t>
+  </si>
+  <si>
+    <t>Verify Product Zoom Functionality</t>
+  </si>
+  <si>
+    <t>TS22-TC033</t>
+  </si>
+  <si>
+    <r>
+      <t>5.click on product name "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sparta Gym Tank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>product detail page is displayed</t>
+  </si>
+  <si>
+    <t>6.hover over the product image and click</t>
+  </si>
+  <si>
+    <t>7.click on zoom-in button</t>
+  </si>
+  <si>
+    <t>The product image should be zoomed-in</t>
+  </si>
+  <si>
+    <t>A new windo opens, showing a larger version of the product image and Additional options are displayed such as zoom-in and zoom-out.</t>
+  </si>
+  <si>
+    <t>Verify the functionality to reorder previous orders</t>
+  </si>
+  <si>
+    <t>Verify the functionality of update quantity</t>
+  </si>
+  <si>
+    <t>7.Click on the upper right corner dropdown list</t>
+  </si>
+  <si>
+    <t>TS23-TC034</t>
+  </si>
+  <si>
+    <t>9.click on reorder</t>
+  </si>
+  <si>
+    <t>10.click on proceed to checkout</t>
+  </si>
+  <si>
+    <t>11.select shipping method and click on next</t>
+  </si>
+  <si>
+    <t>12.click on place order</t>
+  </si>
+  <si>
+    <t>The order is added to the cart for reorder.</t>
+  </si>
+  <si>
+    <t>The checkout page is displayed.</t>
+  </si>
+  <si>
+    <t>The user proceeds to the next step of the checkout process.</t>
+  </si>
+  <si>
+    <t>The order is successfully placed.</t>
+  </si>
+  <si>
+    <t>TS24-TC035</t>
+  </si>
+  <si>
+    <t>TS25-TC036</t>
+  </si>
+  <si>
+    <t>9.click on Go to Wish List Link</t>
+  </si>
+  <si>
+    <t>10.click on share wish list</t>
+  </si>
+  <si>
+    <t>11.type email and message</t>
+  </si>
+  <si>
+    <t>Wish List Sharing page is displayed</t>
+  </si>
+  <si>
+    <t>wish list page is displayed</t>
+  </si>
+  <si>
+    <t>12.click on share wish list button</t>
+  </si>
+  <si>
+    <t>wish list has been shared successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>qwerty@test.com</t>
+    </r>
+  </si>
+  <si>
+    <t>verify the functionality of  "Share Wish List"</t>
+  </si>
+  <si>
+    <t>3.user hover over Gear Category and clicks on Watches</t>
+  </si>
+  <si>
+    <t>4.user clicks on item Dash Digital Watch</t>
+  </si>
+  <si>
+    <t>5.user update the quantity to "3"</t>
+  </si>
+  <si>
+    <t>6.user clicks on Add To Cart button</t>
+  </si>
+  <si>
+    <t>The page for watches should be displayed.</t>
+  </si>
+  <si>
+    <t>The product details page for the "Dash Digital Watch" should be displayed.</t>
+  </si>
+  <si>
+    <t>The quantity field for the product should be updated with the value "3".</t>
+  </si>
+  <si>
+    <t>The product should be added to the cart.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,8 +1524,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF080808"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,6 +1576,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1717,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1613,16 +1817,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1660,7 +1854,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1671,9 +1865,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1686,9 +1877,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1704,6 +1892,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2029,21 +2265,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3746E3E-DBEF-407E-89EF-8F1170A2823E}">
   <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259:F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="41" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.08984375" style="10" customWidth="1"/>
     <col min="3" max="3" width="40.7265625" style="10" customWidth="1"/>
     <col min="4" max="4" width="44.54296875" style="10" customWidth="1"/>
     <col min="5" max="5" width="17.453125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="32.90625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="32.90625" style="25" customWidth="1"/>
     <col min="7" max="7" width="31.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="26.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" style="10" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
@@ -2060,13 +2296,13 @@
       <c r="D1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="52" t="s">
         <v>205</v>
       </c>
       <c r="H1" s="21" t="s">
@@ -2102,7 +2338,7 @@
       <c r="E2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>221</v>
       </c>
       <c r="G2" s="31" t="s">
@@ -2133,7 +2369,7 @@
       <c r="E3" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -2168,7 +2404,7 @@
       <c r="E4" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G4" s="31" t="s">
@@ -2199,7 +2435,7 @@
       <c r="E5" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G5" s="32" t="s">
@@ -2230,7 +2466,7 @@
       <c r="E6" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G6" s="32" t="s">
@@ -2256,12 +2492,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G7" s="32" t="s">
@@ -2292,7 +2528,7 @@
       <c r="E8" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G8" s="32" t="s">
@@ -2327,8 +2563,8 @@
       <c r="E9" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="63" t="s">
-        <v>283</v>
+      <c r="F9" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>9</v>
@@ -2348,7 +2584,7 @@
       <c r="E10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G10" s="32" t="s">
@@ -2379,7 +2615,7 @@
       <c r="E11" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G11" s="32" t="s">
@@ -2405,12 +2641,12 @@
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G12" s="32" t="s">
@@ -2441,7 +2677,7 @@
       <c r="E13" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G13" s="32" t="s">
@@ -2476,8 +2712,8 @@
       <c r="E14" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="63" t="s">
-        <v>283</v>
+      <c r="F14" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>9</v>
@@ -2507,7 +2743,7 @@
       <c r="E15" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G15" s="32" t="s">
@@ -2538,7 +2774,7 @@
       <c r="E16" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G16" s="32" t="s">
@@ -2564,12 +2800,12 @@
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G17" s="32" t="s">
@@ -2600,7 +2836,7 @@
       <c r="E18" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G18" s="32" t="s">
@@ -2635,8 +2871,8 @@
       <c r="E19" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="63" t="s">
-        <v>284</v>
+      <c r="F19" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>9</v>
@@ -2666,7 +2902,7 @@
       <c r="E20" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G20" s="32" t="s">
@@ -2697,7 +2933,7 @@
       <c r="E21" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G21" s="32" t="s">
@@ -2723,12 +2959,12 @@
         <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G22" s="32" t="s">
@@ -2759,7 +2995,7 @@
       <c r="E23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G23" s="32" t="s">
@@ -2794,8 +3030,8 @@
       <c r="E24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>284</v>
+      <c r="F24" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>9</v>
@@ -2815,7 +3051,7 @@
       <c r="E25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G25" s="32" t="s">
@@ -2836,7 +3072,7 @@
       <c r="E26" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G26" s="32" t="s">
@@ -2852,12 +3088,12 @@
         <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G27" s="32" t="s">
@@ -2878,7 +3114,7 @@
       <c r="E28" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G28" s="32" t="s">
@@ -2903,8 +3139,8 @@
       <c r="E29" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="63" t="s">
-        <v>284</v>
+      <c r="F29" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>9</v>
@@ -2924,7 +3160,7 @@
       <c r="E30" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G30" s="32" t="s">
@@ -2945,7 +3181,7 @@
       <c r="E31" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="F31" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G31" s="32" t="s">
@@ -2961,12 +3197,12 @@
         <v>229</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G32" s="32" t="s">
@@ -2987,7 +3223,7 @@
       <c r="E33" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G33" s="32" t="s">
@@ -3008,7 +3244,7 @@
       <c r="E34" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G34" s="32" t="s">
@@ -3033,7 +3269,7 @@
       <c r="E35" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G35" s="31" t="s">
@@ -3054,7 +3290,7 @@
       <c r="E36" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G36" s="32" t="s">
@@ -3075,7 +3311,7 @@
       <c r="E37" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G37" s="32" t="s">
@@ -3100,7 +3336,7 @@
       <c r="E38" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G38" s="31" t="s">
@@ -3121,7 +3357,7 @@
       <c r="E39" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G39" s="32" t="s">
@@ -3142,7 +3378,7 @@
       <c r="E40" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G40" s="32" t="s">
@@ -3163,7 +3399,7 @@
       <c r="E41" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G41" s="32" t="s">
@@ -3184,7 +3420,7 @@
       <c r="E42" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G42" s="32" t="s">
@@ -3205,7 +3441,7 @@
       <c r="E43" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G43" s="32" t="s">
@@ -3230,8 +3466,8 @@
       <c r="E44" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="63" t="s">
-        <v>285</v>
+      <c r="F44" s="72" t="s">
+        <v>47</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>9</v>
@@ -3251,7 +3487,7 @@
       <c r="E45" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G45" s="32" t="s">
@@ -3272,7 +3508,7 @@
       <c r="E46" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G46" s="32" t="s">
@@ -3293,7 +3529,7 @@
       <c r="E47" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G47" s="32" t="s">
@@ -3314,7 +3550,7 @@
       <c r="E48" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G48" s="32" t="s">
@@ -3335,7 +3571,7 @@
       <c r="E49" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="64" t="s">
+      <c r="F49" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G49" s="32" t="s">
@@ -3356,7 +3592,7 @@
       <c r="E50" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G50" s="32" t="s">
@@ -3377,7 +3613,7 @@
       <c r="E51" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="64" t="s">
+      <c r="F51" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G51" s="32" t="s">
@@ -3393,12 +3629,12 @@
         <v>144</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G52" s="32" t="s">
@@ -3414,12 +3650,12 @@
         <v>145</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F53" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G53" s="32" t="s">
@@ -3435,12 +3671,12 @@
         <v>146</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G54" s="32" t="s">
@@ -3456,12 +3692,12 @@
         <v>147</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G55" s="32" t="s">
@@ -3477,12 +3713,12 @@
         <v>148</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G56" s="32" t="s">
@@ -3498,12 +3734,12 @@
         <v>149</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E57" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="64" t="s">
+      <c r="F57" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -3519,12 +3755,12 @@
         <v>150</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G58" s="32" t="s">
@@ -3540,12 +3776,12 @@
         <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="64" t="s">
+      <c r="F59" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G59" s="32" t="s">
@@ -3566,7 +3802,7 @@
       <c r="E60" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G60" s="32" t="s">
@@ -3587,7 +3823,7 @@
       <c r="E61" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G61" s="32" t="s">
@@ -3608,7 +3844,7 @@
       <c r="E62" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="64" t="s">
+      <c r="F62" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G62" s="32" t="s">
@@ -3622,7 +3858,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>22</v>
@@ -3633,7 +3869,7 @@
       <c r="E63" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G63" s="31" t="s">
@@ -3654,7 +3890,7 @@
       <c r="E64" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="64" t="s">
+      <c r="F64" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G64" s="32" t="s">
@@ -3675,7 +3911,7 @@
       <c r="E65" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="64" t="s">
+      <c r="F65" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G65" s="32" t="s">
@@ -3696,7 +3932,7 @@
       <c r="E66" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="64" t="s">
+      <c r="F66" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G66" s="32" t="s">
@@ -3717,7 +3953,7 @@
       <c r="E67" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="64" t="s">
+      <c r="F67" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G67" s="32" t="s">
@@ -3738,7 +3974,7 @@
       <c r="E68" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="64" t="s">
+      <c r="F68" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G68" s="32" t="s">
@@ -3759,7 +3995,7 @@
       <c r="E69" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="64" t="s">
+      <c r="F69" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G69" s="32" t="s">
@@ -3780,7 +4016,7 @@
       <c r="E70" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="64" t="s">
+      <c r="F70" s="58" t="s">
         <v>221</v>
       </c>
       <c r="G70" s="32" t="s">
@@ -3805,8 +4041,8 @@
       <c r="E71" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F71" s="65" t="s">
-        <v>287</v>
+      <c r="F71" s="72" t="s">
+        <v>60</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>9</v>
@@ -3826,7 +4062,7 @@
       <c r="E72" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G72" s="32" t="s">
@@ -3847,7 +4083,7 @@
       <c r="E73" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G73" s="32" t="s">
@@ -3868,7 +4104,7 @@
       <c r="E74" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G74" s="32" t="s">
@@ -3889,7 +4125,7 @@
       <c r="E75" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G75" s="32" t="s">
@@ -3910,7 +4146,7 @@
       <c r="E76" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G76" s="32" t="s">
@@ -3931,7 +4167,7 @@
       <c r="E77" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G77" s="32" t="s">
@@ -3952,7 +4188,7 @@
       <c r="E78" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="48" t="s">
+      <c r="F78" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G78" s="32" t="s">
@@ -3973,7 +4209,7 @@
       <c r="E79" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G79" s="32" t="s">
@@ -3998,7 +4234,7 @@
       <c r="E80" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="65" t="s">
+      <c r="F80" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G80" s="31" t="s">
@@ -4019,7 +4255,7 @@
       <c r="E81" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G81" s="32" t="s">
@@ -4031,16 +4267,16 @@
     <row r="82" spans="1:9" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="66" t="s">
-        <v>262</v>
+      <c r="C82" s="60" t="s">
+        <v>261</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F82" s="48" t="s">
+      <c r="F82" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G82" s="32" t="s">
@@ -4065,7 +4301,7 @@
       <c r="E83" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="65" t="s">
+      <c r="F83" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G83" s="31" t="s">
@@ -4086,7 +4322,7 @@
       <c r="E84" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F84" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G84" s="32" t="s">
@@ -4107,7 +4343,7 @@
       <c r="E85" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F85" s="48" t="s">
+      <c r="F85" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G85" s="32" t="s">
@@ -4128,7 +4364,7 @@
       <c r="E86" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F86" s="48" t="s">
+      <c r="F86" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G86" s="32" t="s">
@@ -4149,7 +4385,7 @@
       <c r="E87" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F87" s="48" t="s">
+      <c r="F87" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G87" s="32" t="s">
@@ -4174,7 +4410,7 @@
       <c r="E88" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F88" s="65" t="s">
+      <c r="F88" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -4195,7 +4431,7 @@
       <c r="E89" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F89" s="48" t="s">
+      <c r="F89" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -4216,7 +4452,7 @@
       <c r="E90" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F90" s="48" t="s">
+      <c r="F90" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G90" s="32" t="s">
@@ -4232,12 +4468,12 @@
         <v>82</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G91" s="32" t="s">
@@ -4258,7 +4494,7 @@
       <c r="E92" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G92" s="32" t="s">
@@ -4283,7 +4519,7 @@
       <c r="E93" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F93" s="65" t="s">
+      <c r="F93" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G93" s="31" t="s">
@@ -4304,7 +4540,7 @@
       <c r="E94" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F94" s="48" t="s">
+      <c r="F94" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G94" s="32" t="s">
@@ -4320,12 +4556,12 @@
         <v>87</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E95" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F95" s="48" t="s">
+      <c r="F95" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G95" s="32" t="s">
@@ -4346,7 +4582,7 @@
       <c r="E96" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F96" s="48" t="s">
+      <c r="F96" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G96" s="32" t="s">
@@ -4371,7 +4607,7 @@
       <c r="E97" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F97" s="65" t="s">
+      <c r="F97" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G97" s="31" t="s">
@@ -4392,7 +4628,7 @@
       <c r="E98" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F98" s="48" t="s">
+      <c r="F98" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G98" s="32" t="s">
@@ -4408,12 +4644,12 @@
         <v>89</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F99" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G99" s="32" t="s">
@@ -4434,7 +4670,7 @@
       <c r="E100" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F100" s="48" t="s">
+      <c r="F100" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G100" s="32" t="s">
@@ -4459,7 +4695,7 @@
       <c r="E101" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F101" s="65" t="s">
+      <c r="F101" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G101" s="31" t="s">
@@ -4480,7 +4716,7 @@
       <c r="E102" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="48" t="s">
+      <c r="F102" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G102" s="32" t="s">
@@ -4501,7 +4737,7 @@
       <c r="E103" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F103" s="48" t="s">
+      <c r="F103" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G103" s="32" t="s">
@@ -4522,7 +4758,7 @@
       <c r="E104" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F104" s="48" t="s">
+      <c r="F104" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G104" s="32" t="s">
@@ -4543,7 +4779,7 @@
       <c r="E105" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F105" s="48" t="s">
+      <c r="F105" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G105" s="32" t="s">
@@ -4564,7 +4800,7 @@
       <c r="E106" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F106" s="48" t="s">
+      <c r="F106" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G106" s="32" t="s">
@@ -4580,12 +4816,12 @@
         <v>95</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E107" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="48" t="s">
+      <c r="F107" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G107" s="32" t="s">
@@ -4606,7 +4842,7 @@
       <c r="E108" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F108" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G108" s="32" t="s">
@@ -4631,7 +4867,7 @@
       <c r="E109" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="65" t="s">
+      <c r="F109" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G109" s="31" t="s">
@@ -4652,7 +4888,7 @@
       <c r="E110" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F110" s="48" t="s">
+      <c r="F110" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G110" s="32" t="s">
@@ -4673,7 +4909,7 @@
       <c r="E111" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F111" s="48" t="s">
+      <c r="F111" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G111" s="32" t="s">
@@ -4694,7 +4930,7 @@
       <c r="E112" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G112" s="32" t="s">
@@ -4715,7 +4951,7 @@
       <c r="E113" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F113" s="48" t="s">
+      <c r="F113" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G113" s="32" t="s">
@@ -4736,7 +4972,7 @@
       <c r="E114" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F114" s="48" t="s">
+      <c r="F114" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G114" s="32" t="s">
@@ -4752,12 +4988,12 @@
         <v>98</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E115" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F115" s="48" t="s">
+      <c r="F115" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G115" s="32" t="s">
@@ -4778,7 +5014,7 @@
       <c r="E116" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F116" s="48" t="s">
+      <c r="F116" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G116" s="32" t="s">
@@ -4803,7 +5039,7 @@
       <c r="E117" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F117" s="65" t="s">
+      <c r="F117" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G117" s="31" t="s">
@@ -4824,7 +5060,7 @@
       <c r="E118" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F118" s="48" t="s">
+      <c r="F118" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G118" s="32" t="s">
@@ -4845,7 +5081,7 @@
       <c r="E119" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F119" s="48" t="s">
+      <c r="F119" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G119" s="32" t="s">
@@ -4866,7 +5102,7 @@
       <c r="E120" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F120" s="48" t="s">
+      <c r="F120" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G120" s="32" t="s">
@@ -4887,7 +5123,7 @@
       <c r="E121" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F121" s="48" t="s">
+      <c r="F121" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G121" s="32" t="s">
@@ -4908,7 +5144,7 @@
       <c r="E122" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F122" s="48" t="s">
+      <c r="F122" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G122" s="32" t="s">
@@ -4929,7 +5165,7 @@
       <c r="E123" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F123" s="48" t="s">
+      <c r="F123" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G123" s="32" t="s">
@@ -4950,7 +5186,7 @@
       <c r="E124" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F124" s="48" t="s">
+      <c r="F124" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G124" s="32" t="s">
@@ -4971,7 +5207,7 @@
       <c r="E125" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F125" s="48" t="s">
+      <c r="F125" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G125" s="32" t="s">
@@ -4992,7 +5228,7 @@
       <c r="E126" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F126" s="48" t="s">
+      <c r="F126" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G126" s="32" t="s">
@@ -5008,12 +5244,12 @@
         <v>106</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F127" s="48" t="s">
+      <c r="F127" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G127" s="32" t="s">
@@ -5034,7 +5270,7 @@
       <c r="E128" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F128" s="48" t="s">
+      <c r="F128" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G128" s="32" t="s">
@@ -5059,7 +5295,7 @@
       <c r="E129" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F129" s="65" t="s">
+      <c r="F129" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G129" s="31" t="s">
@@ -5080,7 +5316,7 @@
       <c r="E130" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F130" s="48" t="s">
+      <c r="F130" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G130" s="32" t="s">
@@ -5101,7 +5337,7 @@
       <c r="E131" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F131" s="48" t="s">
+      <c r="F131" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G131" s="32" t="s">
@@ -5110,19 +5346,19 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="E132" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F132" s="48" t="s">
+      <c r="F132" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G132" s="32" t="s">
@@ -5131,19 +5367,19 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="E133" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F133" s="48" t="s">
+      <c r="F133" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G133" s="32" t="s">
@@ -5164,7 +5400,7 @@
       <c r="E134" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F134" s="48" t="s">
+      <c r="F134" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G134" s="32" t="s">
@@ -5185,7 +5421,7 @@
       <c r="E135" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F135" s="48" t="s">
+      <c r="F135" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G135" s="32" t="s">
@@ -5206,7 +5442,7 @@
       <c r="E136" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F136" s="48" t="s">
+      <c r="F136" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G136" s="32" t="s">
@@ -5227,7 +5463,7 @@
       <c r="E137" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F137" s="48" t="s">
+      <c r="F137" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G137" s="32" t="s">
@@ -5248,7 +5484,7 @@
       <c r="E138" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F138" s="48" t="s">
+      <c r="F138" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G138" s="32" t="s">
@@ -5269,7 +5505,7 @@
       <c r="E139" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F139" s="48" t="s">
+      <c r="F139" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G139" s="32" t="s">
@@ -5294,7 +5530,7 @@
       <c r="E140" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F140" s="65" t="s">
+      <c r="F140" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G140" s="31" t="s">
@@ -5312,13 +5548,13 @@
       <c r="D141" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E141" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F141" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G141" s="58" t="s">
+      <c r="E141" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F141" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G141" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H141" s="14"/>
@@ -5333,13 +5569,13 @@
       <c r="D142" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E142" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F142" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G142" s="58" t="s">
+      <c r="E142" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F142" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G142" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H142" s="14"/>
@@ -5352,15 +5588,15 @@
         <v>120</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E143" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F143" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G143" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E143" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F143" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G143" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H143" s="14"/>
@@ -5375,13 +5611,13 @@
       <c r="D144" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E144" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F144" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G144" s="58" t="s">
+      <c r="E144" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F144" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H144" s="14"/>
@@ -5400,13 +5636,13 @@
       <c r="D145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E145" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F145" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="G145" s="59" t="s">
+      <c r="E145" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F145" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="G145" s="54" t="s">
         <v>9</v>
       </c>
       <c r="H145" s="16"/>
@@ -5421,13 +5657,13 @@
       <c r="D146" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E146" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F146" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G146" s="58" t="s">
+      <c r="E146" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F146" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G146" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H146" s="26"/>
@@ -5442,13 +5678,13 @@
       <c r="D147" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E147" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F147" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G147" s="58" t="s">
+      <c r="E147" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F147" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G147" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H147" s="26"/>
@@ -5461,15 +5697,15 @@
         <v>25</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E148" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F148" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G148" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E148" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F148" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H148" s="26"/>
@@ -5484,13 +5720,13 @@
       <c r="D149" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E149" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F149" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G149" s="58" t="s">
+      <c r="E149" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F149" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G149" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H149" s="26"/>
@@ -5505,13 +5741,13 @@
       <c r="D150" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E150" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F150" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G150" s="58" t="s">
+      <c r="E150" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F150" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G150" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H150" s="12"/>
@@ -5526,13 +5762,13 @@
       <c r="D151" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E151" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F151" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G151" s="58" t="s">
+      <c r="E151" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F151" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G151" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H151" s="12"/>
@@ -5547,13 +5783,13 @@
       <c r="D152" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E152" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F152" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G152" s="58" t="s">
+      <c r="E152" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G152" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H152" s="28"/>
@@ -5568,13 +5804,13 @@
       <c r="D153" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E153" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F153" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G153" s="58" t="s">
+      <c r="E153" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F153" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G153" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H153" s="12"/>
@@ -5589,13 +5825,13 @@
       <c r="D154" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E154" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F154" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G154" s="58" t="s">
+      <c r="E154" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F154" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G154" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H154" s="12"/>
@@ -5610,13 +5846,13 @@
       <c r="D155" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E155" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F155" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G155" s="58" t="s">
+      <c r="E155" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F155" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G155" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H155" s="12"/>
@@ -5635,13 +5871,13 @@
       <c r="D156" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F156" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="G156" s="59" t="s">
+      <c r="E156" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F156" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="G156" s="54" t="s">
         <v>9</v>
       </c>
       <c r="H156" s="13"/>
@@ -5656,13 +5892,13 @@
       <c r="D157" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E157" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F157" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G157" s="58" t="s">
+      <c r="E157" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F157" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H157" s="12"/>
@@ -5677,13 +5913,13 @@
       <c r="D158" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E158" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F158" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G158" s="58" t="s">
+      <c r="E158" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F158" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G158" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H158" s="12"/>
@@ -5698,13 +5934,13 @@
       <c r="D159" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E159" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F159" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G159" s="58" t="s">
+      <c r="E159" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F159" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G159" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H159" s="12"/>
@@ -5719,13 +5955,13 @@
       <c r="D160" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E160" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F160" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G160" s="58" t="s">
+      <c r="E160" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F160" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G160" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H160" s="12"/>
@@ -5740,13 +5976,13 @@
       <c r="D161" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E161" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F161" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G161" s="58" t="s">
+      <c r="E161" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F161" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G161" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H161" s="12"/>
@@ -5761,13 +5997,13 @@
       <c r="D162" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E162" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F162" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G162" s="58" t="s">
+      <c r="E162" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F162" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G162" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H162" s="12"/>
@@ -5782,13 +6018,13 @@
       <c r="D163" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="E163" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F163" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G163" s="58" t="s">
+      <c r="E163" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F163" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G163" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H163" s="34"/>
@@ -5807,13 +6043,13 @@
       <c r="D164" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E164" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F164" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="G164" s="59" t="s">
+      <c r="E164" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F164" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="G164" s="54" t="s">
         <v>9</v>
       </c>
       <c r="H164" s="33"/>
@@ -5828,13 +6064,13 @@
       <c r="D165" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E165" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F165" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G165" s="58" t="s">
+      <c r="E165" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F165" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G165" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H165" s="12"/>
@@ -5849,13 +6085,13 @@
       <c r="D166" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E166" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F166" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G166" s="58" t="s">
+      <c r="E166" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F166" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G166" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H166" s="12"/>
@@ -5868,15 +6104,15 @@
         <v>42</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E167" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F167" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G167" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E167" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F167" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G167" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H167" s="12"/>
@@ -5891,13 +6127,13 @@
       <c r="D168" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E168" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F168" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G168" s="58" t="s">
+      <c r="E168" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F168" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G168" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H168" s="12"/>
@@ -5912,13 +6148,13 @@
       <c r="D169" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E169" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F169" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G169" s="58" t="s">
+      <c r="E169" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F169" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G169" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H169" s="12"/>
@@ -5933,13 +6169,13 @@
       <c r="D170" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E170" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F170" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G170" s="58" t="s">
+      <c r="E170" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F170" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G170" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H170" s="12"/>
@@ -5954,10 +6190,10 @@
       <c r="D171" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E171" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F171" s="48" t="s">
+      <c r="E171" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F171" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G171" s="5" t="s">
@@ -5966,32 +6202,32 @@
       <c r="H171" s="26"/>
       <c r="I171" s="26"/>
     </row>
-    <row r="172" spans="1:20" s="35" customFormat="1" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="41" t="s">
+    <row r="172" spans="1:20" s="2" customFormat="1" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="C172" s="43" t="s">
+      <c r="B172" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C172" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="41" t="s">
+      <c r="D172" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E172" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F172" s="65" t="s">
+      <c r="E172" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F172" s="59" t="s">
         <v>221</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="44"/>
-      <c r="I172" s="44"/>
-    </row>
-    <row r="173" spans="1:20" s="35" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+    </row>
+    <row r="173" spans="1:20" s="2" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="4" t="s">
@@ -6003,7 +6239,7 @@
       <c r="E173" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F173" s="48" t="s">
+      <c r="F173" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G173" s="32" t="s">
@@ -6012,7 +6248,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="34"/>
       <c r="B174" s="34"/>
       <c r="C174" s="4" t="s">
@@ -6021,94 +6257,94 @@
       <c r="D174" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F174" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G174" s="58" t="s">
+      <c r="E174" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F174" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G174" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H174" s="34"/>
       <c r="I174" s="12"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="35"/>
-      <c r="L174" s="35"/>
-      <c r="M174" s="35"/>
-      <c r="N174" s="35"/>
-      <c r="O174" s="35"/>
-      <c r="P174" s="35"/>
-      <c r="Q174" s="35"/>
-      <c r="R174" s="35"/>
-      <c r="S174" s="35"/>
-      <c r="T174" s="35"/>
-    </row>
-    <row r="175" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+    </row>
+    <row r="175" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
       <c r="C175" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E175" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F175" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G175" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E175" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F175" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G175" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H175" s="26"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35"/>
-      <c r="L175" s="35"/>
-      <c r="M175" s="35"/>
-      <c r="N175" s="35"/>
-      <c r="O175" s="35"/>
-      <c r="P175" s="35"/>
-      <c r="Q175" s="35"/>
-      <c r="R175" s="35"/>
-      <c r="S175" s="35"/>
-      <c r="T175" s="35"/>
-    </row>
-    <row r="176" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+    </row>
+    <row r="176" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
       <c r="C176" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E176" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F176" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G176" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E176" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F176" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G176" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H176" s="26"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="35"/>
-      <c r="L176" s="35"/>
-      <c r="M176" s="35"/>
-      <c r="N176" s="35"/>
-      <c r="O176" s="35"/>
-      <c r="P176" s="35"/>
-      <c r="Q176" s="35"/>
-      <c r="R176" s="35"/>
-      <c r="S176" s="35"/>
-      <c r="T176" s="35"/>
-    </row>
-    <row r="177" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+    </row>
+    <row r="177" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
       <c r="C177" s="4" t="s">
@@ -6117,30 +6353,30 @@
       <c r="D177" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E177" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F177" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G177" s="58" t="s">
+      <c r="E177" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F177" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G177" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H177" s="26"/>
       <c r="I177" s="12"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="35"/>
-      <c r="L177" s="35"/>
-      <c r="M177" s="35"/>
-      <c r="N177" s="35"/>
-      <c r="O177" s="35"/>
-      <c r="P177" s="35"/>
-      <c r="Q177" s="35"/>
-      <c r="R177" s="35"/>
-      <c r="S177" s="35"/>
-      <c r="T177" s="35"/>
-    </row>
-    <row r="178" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+    </row>
+    <row r="178" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
       <c r="C178" s="4" t="s">
@@ -6152,27 +6388,27 @@
       <c r="E178" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F178" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G178" s="58" t="s">
+      <c r="F178" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G178" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H178" s="26"/>
       <c r="I178" s="34"/>
-      <c r="J178" s="35"/>
-      <c r="K178" s="35"/>
-      <c r="L178" s="35"/>
-      <c r="M178" s="35"/>
-      <c r="N178" s="35"/>
-      <c r="O178" s="35"/>
-      <c r="P178" s="35"/>
-      <c r="Q178" s="35"/>
-      <c r="R178" s="35"/>
-      <c r="S178" s="35"/>
-      <c r="T178" s="35"/>
-    </row>
-    <row r="179" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+    </row>
+    <row r="179" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="4" t="s">
@@ -6184,27 +6420,27 @@
       <c r="E179" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F179" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G179" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="H179" s="49"/>
+      <c r="F179" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G179" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H179" s="45"/>
       <c r="I179" s="12"/>
-      <c r="J179" s="35"/>
-      <c r="K179" s="35"/>
-      <c r="L179" s="35"/>
-      <c r="M179" s="35"/>
-      <c r="N179" s="35"/>
-      <c r="O179" s="35"/>
-      <c r="P179" s="35"/>
-      <c r="Q179" s="35"/>
-      <c r="R179" s="35"/>
-      <c r="S179" s="35"/>
-      <c r="T179" s="35"/>
-    </row>
-    <row r="180" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+    </row>
+    <row r="180" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="4" t="s">
@@ -6216,7 +6452,7 @@
       <c r="E180" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F180" s="48" t="s">
+      <c r="F180" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G180" s="32" t="s">
@@ -6224,10 +6460,10 @@
       </c>
       <c r="H180" s="12"/>
       <c r="I180" s="26"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35"/>
-    </row>
-    <row r="181" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="4" t="s">
@@ -6239,7 +6475,7 @@
       <c r="E181" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F181" s="48" t="s">
+      <c r="F181" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G181" s="32" t="s">
@@ -6247,33 +6483,33 @@
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="26"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35"/>
-    </row>
-    <row r="182" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="34"/>
       <c r="B182" s="34"/>
-      <c r="C182" s="47" t="s">
+      <c r="C182" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D182" s="47" t="s">
+      <c r="D182" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E182" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F182" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="G182" s="58" t="s">
+      <c r="E182" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F182" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G182" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H182" s="34"/>
       <c r="I182" s="26"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="35"/>
-    </row>
-    <row r="183" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="26"/>
       <c r="B183" s="12"/>
       <c r="C183" s="14" t="s">
@@ -6285,7 +6521,7 @@
       <c r="E183" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F183" s="48" t="s">
+      <c r="F183" s="44" t="s">
         <v>221</v>
       </c>
       <c r="G183" s="32" t="s">
@@ -6293,14 +6529,14 @@
       </c>
       <c r="H183" s="12"/>
       <c r="I183" s="26"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="35"/>
-    </row>
-    <row r="184" spans="1:20" s="38" customFormat="1" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="41" t="s">
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:20" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B184" s="51" t="s">
+      <c r="B184" s="47" t="s">
         <v>252</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -6312,18 +6548,18 @@
       <c r="E184" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F184" s="24" t="s">
-        <v>289</v>
+      <c r="F184" s="73" t="s">
+        <v>223</v>
       </c>
       <c r="G184" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H184" s="45"/>
-      <c r="I184" s="45"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="35"/>
-    </row>
-    <row r="185" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H184" s="41"/>
+      <c r="I184" s="41"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
       <c r="C185" s="4" t="s">
@@ -6335,7 +6571,7 @@
       <c r="E185" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F185" s="40" t="s">
+      <c r="F185" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G185" s="32" t="s">
@@ -6343,10 +6579,10 @@
       </c>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35"/>
-    </row>
-    <row r="186" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="26"/>
       <c r="B186" s="26"/>
       <c r="C186" s="4" t="s">
@@ -6358,7 +6594,7 @@
       <c r="E186" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F186" s="40" t="s">
+      <c r="F186" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G186" s="32" t="s">
@@ -6366,22 +6602,22 @@
       </c>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35"/>
-    </row>
-    <row r="187" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="26"/>
       <c r="B187" s="26"/>
       <c r="C187" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E187" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F187" s="40" t="s">
+      <c r="F187" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G187" s="32" t="s">
@@ -6389,31 +6625,31 @@
       </c>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
-      <c r="L187" s="35"/>
-      <c r="M187" s="35"/>
-      <c r="N187" s="35"/>
-      <c r="O187" s="35"/>
-      <c r="P187" s="35"/>
-      <c r="Q187" s="35"/>
-      <c r="R187" s="35"/>
-      <c r="S187" s="35"/>
-      <c r="T187" s="35"/>
-    </row>
-    <row r="188" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+    </row>
+    <row r="188" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="26"/>
       <c r="B188" s="26"/>
       <c r="C188" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E188" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F188" s="40" t="s">
+      <c r="F188" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G188" s="32" t="s">
@@ -6421,19 +6657,19 @@
       </c>
       <c r="H188" s="26"/>
       <c r="I188" s="26"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35"/>
-      <c r="L188" s="35"/>
-      <c r="M188" s="35"/>
-      <c r="N188" s="35"/>
-      <c r="O188" s="35"/>
-      <c r="P188" s="35"/>
-      <c r="Q188" s="35"/>
-      <c r="R188" s="35"/>
-      <c r="S188" s="35"/>
-      <c r="T188" s="35"/>
-    </row>
-    <row r="189" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+    </row>
+    <row r="189" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="26"/>
       <c r="B189" s="26"/>
       <c r="C189" s="4" t="s">
@@ -6445,7 +6681,7 @@
       <c r="E189" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F189" s="40" t="s">
+      <c r="F189" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G189" s="32" t="s">
@@ -6453,19 +6689,19 @@
       </c>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35"/>
-      <c r="L189" s="35"/>
-      <c r="M189" s="35"/>
-      <c r="N189" s="35"/>
-      <c r="O189" s="35"/>
-      <c r="P189" s="35"/>
-      <c r="Q189" s="35"/>
-      <c r="R189" s="35"/>
-      <c r="S189" s="35"/>
-      <c r="T189" s="35"/>
-    </row>
-    <row r="190" spans="1:20" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+    </row>
+    <row r="190" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="26"/>
       <c r="B190" s="26"/>
       <c r="C190" s="4" t="s">
@@ -6477,7 +6713,7 @@
       <c r="E190" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F190" s="40" t="s">
+      <c r="F190" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G190" s="32" t="s">
@@ -6485,33 +6721,33 @@
       </c>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
-      <c r="L190" s="35"/>
-      <c r="M190" s="35"/>
-      <c r="N190" s="35"/>
-      <c r="O190" s="35"/>
-      <c r="P190" s="35"/>
-      <c r="Q190" s="35"/>
-      <c r="R190" s="35"/>
-      <c r="S190" s="35"/>
-      <c r="T190" s="35"/>
-    </row>
-    <row r="191" spans="1:20" s="38" customFormat="1" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+    </row>
+    <row r="191" spans="1:20" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="26" t="s">
         <v>255</v>
       </c>
       <c r="B191" s="26"/>
-      <c r="C191" s="50" t="s">
+      <c r="C191" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="D191" s="50" t="s">
+      <c r="D191" s="46" t="s">
         <v>256</v>
       </c>
       <c r="E191" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F191" s="40" t="s">
+      <c r="F191" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G191" s="32" t="s">
@@ -6519,19 +6755,19 @@
       </c>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="35"/>
-      <c r="L191" s="35"/>
-      <c r="M191" s="35"/>
-      <c r="N191" s="35"/>
-      <c r="O191" s="35"/>
-      <c r="P191" s="35"/>
-      <c r="Q191" s="35"/>
-      <c r="R191" s="35"/>
-      <c r="S191" s="35"/>
-      <c r="T191" s="35"/>
-    </row>
-    <row r="192" spans="1:20" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+    </row>
+    <row r="192" spans="1:20" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="26"/>
       <c r="B192" s="26"/>
       <c r="C192" s="4" t="s">
@@ -6543,7 +6779,7 @@
       <c r="E192" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F192" s="40" t="s">
+      <c r="F192" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G192" s="32" t="s">
@@ -6551,17 +6787,17 @@
       </c>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35"/>
-      <c r="L192" s="35"/>
-      <c r="M192" s="35"/>
-      <c r="N192" s="35"/>
-      <c r="O192" s="35"/>
-      <c r="P192" s="35"/>
-      <c r="Q192" s="35"/>
-      <c r="R192" s="35"/>
-      <c r="S192" s="35"/>
-      <c r="T192" s="35"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
     </row>
     <row r="193" spans="1:9" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
@@ -6600,14 +6836,14 @@
       <c r="E194" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F194" s="40" t="s">
+      <c r="F194" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G194" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H194" s="39"/>
-      <c r="I194" s="39"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="35"/>
     </row>
     <row r="195" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="15"/>
@@ -6621,14 +6857,14 @@
       <c r="E195" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F195" s="40" t="s">
+      <c r="F195" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G195" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H195" s="39"/>
-      <c r="I195" s="39"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="35"/>
     </row>
     <row r="196" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="15"/>
@@ -6642,35 +6878,35 @@
       <c r="E196" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F196" s="40" t="s">
+      <c r="F196" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G196" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H196" s="39"/>
-      <c r="I196" s="39"/>
-    </row>
-    <row r="197" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H196" s="35"/>
+      <c r="I196" s="35"/>
+    </row>
+    <row r="197" spans="1:9" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D197" s="46" t="s">
-        <v>260</v>
+      <c r="D197" s="42" t="s">
+        <v>285</v>
       </c>
       <c r="E197" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F197" s="40" t="s">
+      <c r="F197" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G197" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H197" s="39"/>
-      <c r="I197" s="39"/>
+      <c r="H197" s="35"/>
+      <c r="I197" s="35"/>
     </row>
     <row r="198" spans="1:9" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="15"/>
@@ -6684,16 +6920,16 @@
       <c r="E198" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F198" s="40" t="s">
+      <c r="F198" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G198" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H198" s="39"/>
-      <c r="I198" s="39"/>
-    </row>
-    <row r="199" spans="1:9" s="38" customFormat="1" ht="53.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H198" s="35"/>
+      <c r="I198" s="35"/>
+    </row>
+    <row r="199" spans="1:9" ht="53.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>244</v>
       </c>
@@ -6718,7 +6954,7 @@
       <c r="H199" s="33"/>
       <c r="I199" s="33"/>
     </row>
-    <row r="200" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="4" t="s">
@@ -6730,7 +6966,7 @@
       <c r="E200" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F200" s="40" t="s">
+      <c r="F200" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G200" s="32" t="s">
@@ -6739,7 +6975,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="4" t="s">
@@ -6751,7 +6987,7 @@
       <c r="E201" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F201" s="40" t="s">
+      <c r="F201" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G201" s="32" t="s">
@@ -6760,7 +6996,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="4" t="s">
@@ -6772,7 +7008,7 @@
       <c r="E202" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F202" s="40" t="s">
+      <c r="F202" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G202" s="32" t="s">
@@ -6781,7 +7017,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="14" t="s">
@@ -6793,7 +7029,7 @@
       <c r="E203" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F203" s="40" t="s">
+      <c r="F203" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G203" s="32" t="s">
@@ -6802,7 +7038,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9" s="38" customFormat="1" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>245</v>
       </c>
@@ -6827,7 +7063,7 @@
       <c r="H204" s="16"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="4" t="s">
@@ -6839,7 +7075,7 @@
       <c r="E205" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F205" s="40" t="s">
+      <c r="F205" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G205" s="32" t="s">
@@ -6848,7 +7084,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
     </row>
-    <row r="206" spans="1:9" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="4" t="s">
@@ -6860,7 +7096,7 @@
       <c r="E206" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F206" s="40" t="s">
+      <c r="F206" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G206" s="32" t="s">
@@ -6869,19 +7105,19 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
     </row>
-    <row r="207" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E207" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F207" s="40" t="s">
+      <c r="F207" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G207" s="32" t="s">
@@ -6890,19 +7126,19 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E208" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F208" s="40" t="s">
+      <c r="F208" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G208" s="32" t="s">
@@ -6911,7 +7147,7 @@
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
     </row>
-    <row r="209" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="4" t="s">
@@ -6923,7 +7159,7 @@
       <c r="E209" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F209" s="40" t="s">
+      <c r="F209" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G209" s="32" t="s">
@@ -6932,11 +7168,11 @@
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
     </row>
-    <row r="210" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="4" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>181</v>
@@ -6944,7 +7180,7 @@
       <c r="E210" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F210" s="40" t="s">
+      <c r="F210" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G210" s="32" t="s">
@@ -6953,7 +7189,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
     </row>
-    <row r="211" spans="1:9" s="38" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="4" t="s">
@@ -6965,7 +7201,7 @@
       <c r="E211" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F211" s="40" t="s">
+      <c r="F211" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G211" s="32" t="s">
@@ -6974,7 +7210,7 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:9" s="38" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="27" t="s">
@@ -6986,7 +7222,7 @@
       <c r="E212" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F212" s="40" t="s">
+      <c r="F212" s="36" t="s">
         <v>221</v>
       </c>
       <c r="G212" s="32" t="s">
@@ -6995,2519 +7231,3314 @@
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
     </row>
-    <row r="213" spans="1:9" s="38" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="16"/>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="56"/>
-      <c r="F213" s="24"/>
-      <c r="G213" s="61"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="16"/>
-    </row>
-    <row r="214" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="36"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36"/>
-      <c r="E214" s="37"/>
-      <c r="F214" s="52"/>
-      <c r="G214" s="36"/>
-      <c r="H214" s="36"/>
-      <c r="I214" s="36"/>
-    </row>
-    <row r="215" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="36"/>
-      <c r="B215" s="36"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
-      <c r="E215" s="37"/>
-      <c r="F215" s="52"/>
-      <c r="G215" s="36"/>
-      <c r="H215" s="36"/>
-      <c r="I215" s="36"/>
-    </row>
-    <row r="216" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="36"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="36"/>
-      <c r="D216" s="36"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="52"/>
-      <c r="G216" s="36"/>
-      <c r="H216" s="36"/>
-      <c r="I216" s="36"/>
-    </row>
-    <row r="217" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
-      <c r="E217" s="37"/>
-      <c r="F217" s="52"/>
-      <c r="G217" s="36"/>
-      <c r="H217" s="36"/>
-      <c r="I217" s="36"/>
-    </row>
-    <row r="218" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="36"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="36"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="52"/>
-      <c r="G218" s="36"/>
-      <c r="H218" s="36"/>
-      <c r="I218" s="36"/>
-    </row>
-    <row r="219" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="36"/>
-      <c r="D219" s="36"/>
-      <c r="E219" s="37"/>
-      <c r="F219" s="52"/>
-      <c r="G219" s="36"/>
-      <c r="H219" s="36"/>
-      <c r="I219" s="36"/>
-    </row>
-    <row r="220" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="36"/>
-      <c r="B220" s="36"/>
-      <c r="C220" s="36"/>
-      <c r="D220" s="36"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="52"/>
-      <c r="G220" s="36"/>
-      <c r="H220" s="36"/>
-      <c r="I220" s="36"/>
-    </row>
-    <row r="221" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="36"/>
-      <c r="B221" s="36"/>
-      <c r="C221" s="36"/>
-      <c r="D221" s="36"/>
-      <c r="E221" s="37"/>
-      <c r="F221" s="52"/>
-      <c r="G221" s="36"/>
-      <c r="H221" s="36"/>
-      <c r="I221" s="36"/>
-    </row>
-    <row r="222" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="36"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="36"/>
-      <c r="D222" s="36"/>
-      <c r="E222" s="37"/>
-      <c r="F222" s="52"/>
-      <c r="G222" s="36"/>
-      <c r="H222" s="36"/>
-      <c r="I222" s="36"/>
-    </row>
-    <row r="223" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="36"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="36"/>
-      <c r="D223" s="36"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="52"/>
-      <c r="G223" s="36"/>
-      <c r="H223" s="36"/>
-      <c r="I223" s="36"/>
-    </row>
-    <row r="224" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="36"/>
-      <c r="B224" s="36"/>
-      <c r="C224" s="36"/>
-      <c r="D224" s="36"/>
-      <c r="E224" s="37"/>
-      <c r="F224" s="52"/>
-      <c r="G224" s="36"/>
-      <c r="H224" s="36"/>
-      <c r="I224" s="36"/>
-    </row>
-    <row r="225" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="36"/>
-      <c r="B225" s="36"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="36"/>
-      <c r="E225" s="37"/>
-      <c r="F225" s="52"/>
-      <c r="G225" s="36"/>
-      <c r="H225" s="36"/>
-      <c r="I225" s="36"/>
-    </row>
-    <row r="226" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="36"/>
-      <c r="B226" s="36"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-      <c r="E226" s="37"/>
-      <c r="F226" s="52"/>
-      <c r="G226" s="36"/>
-      <c r="H226" s="36"/>
-      <c r="I226" s="36"/>
-    </row>
-    <row r="227" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="36"/>
-      <c r="B227" s="36"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="37"/>
-      <c r="F227" s="52"/>
-      <c r="G227" s="36"/>
-      <c r="H227" s="36"/>
-      <c r="I227" s="36"/>
-    </row>
-    <row r="228" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="36"/>
-      <c r="B228" s="36"/>
-      <c r="C228" s="36"/>
-      <c r="D228" s="36"/>
-      <c r="E228" s="37"/>
-      <c r="F228" s="52"/>
-      <c r="G228" s="36"/>
-      <c r="H228" s="36"/>
-      <c r="I228" s="36"/>
-    </row>
-    <row r="229" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="36"/>
-      <c r="B229" s="36"/>
-      <c r="C229" s="36"/>
-      <c r="D229" s="36"/>
-      <c r="E229" s="37"/>
-      <c r="F229" s="52"/>
-      <c r="G229" s="36"/>
-      <c r="H229" s="36"/>
-      <c r="I229" s="36"/>
-    </row>
-    <row r="230" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="36"/>
-      <c r="B230" s="36"/>
-      <c r="C230" s="36"/>
-      <c r="D230" s="36"/>
-      <c r="E230" s="37"/>
-      <c r="F230" s="52"/>
-      <c r="G230" s="36"/>
-      <c r="H230" s="36"/>
-      <c r="I230" s="36"/>
-    </row>
-    <row r="231" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="36"/>
-      <c r="B231" s="36"/>
-      <c r="C231" s="36"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="37"/>
-      <c r="F231" s="52"/>
-      <c r="G231" s="36"/>
-      <c r="H231" s="36"/>
-      <c r="I231" s="36"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F232" s="52"/>
-      <c r="I232" s="36"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F233" s="52"/>
-      <c r="I233" s="36"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F234" s="52"/>
-      <c r="I234" s="36"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F235" s="52"/>
-      <c r="I235" s="36"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F236" s="52"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F237" s="52"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F238" s="52"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F239" s="52"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F240" s="52"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F241" s="52"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F242" s="52"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F243" s="52"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F244" s="52"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F245" s="52"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F246" s="52"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F247" s="52"/>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F248" s="52"/>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F249" s="52"/>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F250" s="52"/>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F251" s="52"/>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F252" s="52"/>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F253" s="52"/>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F254" s="52"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F255" s="52"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F256" s="52"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F257" s="52"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F258" s="52"/>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F259" s="52"/>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F260" s="52"/>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F261" s="52"/>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F262" s="52"/>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F263" s="52"/>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F264" s="52"/>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F265" s="52"/>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F266" s="52"/>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F267" s="52"/>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F268" s="52"/>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F269" s="52"/>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F270" s="52"/>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F271" s="52"/>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F272" s="52"/>
+    <row r="213" spans="1:9" s="2" customFormat="1" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="B213" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F213" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="G213" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H213" s="33"/>
+      <c r="I213" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="61"/>
+      <c r="B214" s="61"/>
+      <c r="C214" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E214" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F214" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G214" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="61"/>
+      <c r="B215" s="61"/>
+      <c r="C215" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E215" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F215" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G215" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="61"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E216" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F216" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G216" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="1:9" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="61"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D217" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E217" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F217" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G217" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="27"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F218" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G218" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+    </row>
+    <row r="219" spans="1:9" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="27"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="E219" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F219" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G219" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+    </row>
+    <row r="220" spans="1:9" ht="72.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B220" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C220" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F220" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G220" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H220" s="64"/>
+      <c r="I220" s="68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="15"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F221" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G221" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H221" s="15"/>
+      <c r="I221" s="15"/>
+    </row>
+    <row r="222" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="15"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E222" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F222" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G222" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H222" s="15"/>
+      <c r="I222" s="15"/>
+    </row>
+    <row r="223" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="15"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E223" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F223" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H223" s="15"/>
+      <c r="I223" s="15"/>
+    </row>
+    <row r="224" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="15"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E224" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F224" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H224" s="15"/>
+      <c r="I224" s="15"/>
+    </row>
+    <row r="225" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="15"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E225" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F225" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H225" s="15"/>
+      <c r="I225" s="15"/>
+    </row>
+    <row r="226" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="15"/>
+      <c r="B226" s="15"/>
+      <c r="C226" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E226" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F226" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+    </row>
+    <row r="227" spans="1:9" ht="68.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C227" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F227" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+    </row>
+    <row r="228" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="15"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F228" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G228" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15"/>
+    </row>
+    <row r="229" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="15"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F229" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G229" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H229" s="15"/>
+      <c r="I229" s="15"/>
+    </row>
+    <row r="230" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="15"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F230" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G230" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H230" s="15"/>
+      <c r="I230" s="15"/>
+    </row>
+    <row r="231" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="15"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E231" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F231" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H231" s="15"/>
+      <c r="I231" s="15"/>
+    </row>
+    <row r="232" spans="1:9" ht="72.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="15"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D232" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E232" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F232" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H232" s="15"/>
+      <c r="I232" s="15"/>
+    </row>
+    <row r="233" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="67"/>
+      <c r="B233" s="67"/>
+      <c r="C233" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D233" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E233" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F233" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H233" s="67"/>
+      <c r="I233" s="67"/>
+    </row>
+    <row r="234" spans="1:9" s="70" customFormat="1" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F234" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H234" s="47"/>
+      <c r="I234" s="47"/>
+    </row>
+    <row r="235" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F235" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E236" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F236" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G236" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="12"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E237" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F237" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G237" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E238" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F238" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G238" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E239" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F239" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G239" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E240" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F240" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G240" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="12"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E241" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F241" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G241" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="12"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D242" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E242" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F242" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G242" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D243" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E243" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F243" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G243" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D244" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F244" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G244" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D245" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F245" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G245" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B246" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F246" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="G246" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246" s="16"/>
+      <c r="I246" s="16"/>
+    </row>
+    <row r="247" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E247" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F247" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G247" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H247" s="12"/>
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E248" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F248" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G248" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E249" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F249" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G249" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H249" s="12"/>
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E250" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F250" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G250" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E251" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F251" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G251" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E252" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F252" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G252" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H252" s="12"/>
+      <c r="I252" s="12"/>
+    </row>
+    <row r="253" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E253" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F253" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G253" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12"/>
+    </row>
+    <row r="254" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D254" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E254" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F254" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G254" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H254" s="12"/>
+      <c r="I254" s="12"/>
+    </row>
+    <row r="255" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D255" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E255" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F255" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G255" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H255" s="12"/>
+      <c r="I255" s="12"/>
+    </row>
+    <row r="256" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D256" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E256" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F256" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G256" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H256" s="12"/>
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D257" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E257" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F257" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G257" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
+    </row>
+    <row r="258" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F258" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="G258" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H258" s="16"/>
+      <c r="I258" s="16"/>
+    </row>
+    <row r="259" spans="1:9" s="2" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="35"/>
+      <c r="B259" s="35"/>
+      <c r="C259" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E259" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F259" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G259" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H259" s="35"/>
+      <c r="I259" s="35"/>
+    </row>
+    <row r="260" spans="1:9" s="2" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D260" s="76" t="s">
+        <v>336</v>
+      </c>
+      <c r="E260" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F260" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G260" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H260" s="35"/>
+      <c r="I260" s="35"/>
+    </row>
+    <row r="261" spans="1:9" s="2" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="D261" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="E261" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F261" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G261" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H261" s="35"/>
+      <c r="I261" s="35"/>
+    </row>
+    <row r="262" spans="1:9" s="2" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A262" s="35"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="D262" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="E262" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F262" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G262" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H262" s="35"/>
+      <c r="I262" s="35"/>
+    </row>
+    <row r="263" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="D263" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E263" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F263" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G263" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H263" s="12"/>
+      <c r="I263" s="12"/>
+    </row>
+    <row r="264" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="16"/>
+      <c r="B264" s="16"/>
+      <c r="C264" s="16"/>
+      <c r="D264" s="16"/>
+      <c r="E264" s="24"/>
+      <c r="F264" s="63"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="16"/>
+      <c r="I264" s="16"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F266" s="48"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F267" s="48"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F268" s="48"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F269" s="48"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F270" s="48"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F271" s="48"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F272" s="48"/>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F273" s="52"/>
+      <c r="F273" s="48"/>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F274" s="52"/>
+      <c r="F274" s="48"/>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F275" s="52"/>
+      <c r="F275" s="48"/>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F276" s="52"/>
+      <c r="F276" s="48"/>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F277" s="52"/>
+      <c r="F277" s="48"/>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F278" s="52"/>
+      <c r="F278" s="48"/>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F279" s="52"/>
+      <c r="F279" s="48"/>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F280" s="52"/>
+      <c r="F280" s="48"/>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F281" s="52"/>
+      <c r="F281" s="48"/>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F282" s="52"/>
+      <c r="F282" s="48"/>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F283" s="52"/>
+      <c r="F283" s="48"/>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F284" s="52"/>
+      <c r="F284" s="48"/>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F285" s="52"/>
+      <c r="F285" s="48"/>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F286" s="52"/>
+      <c r="F286" s="48"/>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F287" s="52"/>
+      <c r="F287" s="48"/>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F288" s="52"/>
+      <c r="F288" s="48"/>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F289" s="52"/>
+      <c r="F289" s="48"/>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F290" s="52"/>
+      <c r="F290" s="48"/>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F291" s="52"/>
+      <c r="F291" s="48"/>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F292" s="52"/>
+      <c r="F292" s="48"/>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F293" s="52"/>
+      <c r="F293" s="48"/>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F294" s="52"/>
+      <c r="F294" s="48"/>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F295" s="52"/>
+      <c r="F295" s="48"/>
     </row>
     <row r="296" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F296" s="52"/>
+      <c r="F296" s="48"/>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F297" s="52"/>
+      <c r="F297" s="48"/>
     </row>
     <row r="298" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F298" s="52"/>
+      <c r="F298" s="48"/>
     </row>
     <row r="299" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F299" s="52"/>
+      <c r="F299" s="48"/>
     </row>
     <row r="300" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F300" s="52"/>
+      <c r="F300" s="48"/>
     </row>
     <row r="301" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F301" s="52"/>
+      <c r="F301" s="48"/>
     </row>
     <row r="302" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F302" s="52"/>
+      <c r="F302" s="48"/>
     </row>
     <row r="303" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F303" s="52"/>
+      <c r="F303" s="48"/>
     </row>
     <row r="304" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F304" s="52"/>
+      <c r="F304" s="48"/>
     </row>
     <row r="305" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F305" s="52"/>
+      <c r="F305" s="48"/>
     </row>
     <row r="306" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F306" s="52"/>
+      <c r="F306" s="48"/>
     </row>
     <row r="307" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F307" s="52"/>
+      <c r="F307" s="48"/>
     </row>
     <row r="308" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F308" s="52"/>
+      <c r="F308" s="48"/>
     </row>
     <row r="309" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F309" s="52"/>
+      <c r="F309" s="48"/>
     </row>
     <row r="310" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F310" s="52"/>
+      <c r="F310" s="48"/>
     </row>
     <row r="311" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F311" s="52"/>
+      <c r="F311" s="48"/>
     </row>
     <row r="312" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F312" s="52"/>
+      <c r="F312" s="48"/>
     </row>
     <row r="313" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F313" s="52"/>
+      <c r="F313" s="48"/>
     </row>
     <row r="314" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F314" s="52"/>
+      <c r="F314" s="48"/>
     </row>
     <row r="315" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F315" s="52"/>
+      <c r="F315" s="48"/>
     </row>
     <row r="316" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F316" s="52"/>
+      <c r="F316" s="48"/>
     </row>
     <row r="317" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F317" s="52"/>
+      <c r="F317" s="48"/>
     </row>
     <row r="318" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F318" s="52"/>
+      <c r="F318" s="48"/>
     </row>
     <row r="319" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F319" s="52"/>
+      <c r="F319" s="48"/>
     </row>
     <row r="320" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F320" s="52"/>
+      <c r="F320" s="48"/>
     </row>
     <row r="321" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F321" s="52"/>
+      <c r="F321" s="48"/>
     </row>
     <row r="322" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F322" s="52"/>
+      <c r="F322" s="48"/>
     </row>
     <row r="323" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F323" s="52"/>
+      <c r="F323" s="48"/>
     </row>
     <row r="324" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F324" s="52"/>
+      <c r="F324" s="48"/>
     </row>
     <row r="325" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F325" s="52"/>
+      <c r="F325" s="48"/>
     </row>
     <row r="326" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F326" s="52"/>
+      <c r="F326" s="48"/>
     </row>
     <row r="327" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F327" s="52"/>
+      <c r="F327" s="48"/>
     </row>
     <row r="328" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F328" s="52"/>
+      <c r="F328" s="48"/>
     </row>
     <row r="329" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F329" s="52"/>
+      <c r="F329" s="48"/>
     </row>
     <row r="330" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F330" s="52"/>
+      <c r="F330" s="48"/>
     </row>
     <row r="331" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F331" s="52"/>
+      <c r="F331" s="48"/>
     </row>
     <row r="332" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F332" s="52"/>
+      <c r="F332" s="48"/>
     </row>
     <row r="333" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F333" s="52"/>
+      <c r="F333" s="48"/>
     </row>
     <row r="334" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F334" s="52"/>
+      <c r="F334" s="48"/>
     </row>
     <row r="335" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F335" s="52"/>
+      <c r="F335" s="48"/>
     </row>
     <row r="336" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F336" s="52"/>
+      <c r="F336" s="48"/>
     </row>
     <row r="337" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F337" s="52"/>
+      <c r="F337" s="48"/>
     </row>
     <row r="338" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F338" s="52"/>
+      <c r="F338" s="48"/>
     </row>
     <row r="339" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F339" s="52"/>
+      <c r="F339" s="48"/>
     </row>
     <row r="340" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F340" s="52"/>
+      <c r="F340" s="48"/>
     </row>
     <row r="341" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F341" s="52"/>
+      <c r="F341" s="48"/>
     </row>
     <row r="342" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F342" s="52"/>
+      <c r="F342" s="48"/>
     </row>
     <row r="343" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F343" s="52"/>
+      <c r="F343" s="48"/>
     </row>
     <row r="344" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F344" s="52"/>
+      <c r="F344" s="48"/>
     </row>
     <row r="345" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F345" s="52"/>
+      <c r="F345" s="48"/>
     </row>
     <row r="346" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F346" s="52"/>
+      <c r="F346" s="48"/>
     </row>
     <row r="347" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F347" s="52"/>
+      <c r="F347" s="48"/>
     </row>
     <row r="348" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F348" s="52"/>
+      <c r="F348" s="48"/>
     </row>
     <row r="349" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F349" s="52"/>
+      <c r="F349" s="48"/>
     </row>
     <row r="350" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F350" s="52"/>
+      <c r="F350" s="48"/>
     </row>
     <row r="351" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F351" s="52"/>
+      <c r="F351" s="48"/>
     </row>
     <row r="352" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F352" s="52"/>
+      <c r="F352" s="48"/>
     </row>
     <row r="353" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F353" s="52"/>
+      <c r="F353" s="48"/>
     </row>
     <row r="354" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F354" s="52"/>
+      <c r="F354" s="48"/>
     </row>
     <row r="355" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F355" s="52"/>
+      <c r="F355" s="48"/>
     </row>
     <row r="356" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F356" s="52"/>
+      <c r="F356" s="48"/>
     </row>
     <row r="357" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F357" s="52"/>
+      <c r="F357" s="48"/>
     </row>
     <row r="358" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F358" s="52"/>
+      <c r="F358" s="48"/>
     </row>
     <row r="359" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F359" s="52"/>
+      <c r="F359" s="48"/>
     </row>
     <row r="360" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F360" s="52"/>
+      <c r="F360" s="48"/>
     </row>
     <row r="361" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F361" s="52"/>
+      <c r="F361" s="48"/>
     </row>
     <row r="362" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F362" s="52"/>
+      <c r="F362" s="48"/>
     </row>
     <row r="363" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F363" s="52"/>
+      <c r="F363" s="48"/>
     </row>
     <row r="364" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F364" s="52"/>
+      <c r="F364" s="48"/>
     </row>
     <row r="365" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F365" s="52"/>
+      <c r="F365" s="48"/>
     </row>
     <row r="366" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F366" s="52"/>
+      <c r="F366" s="48"/>
     </row>
     <row r="367" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F367" s="52"/>
+      <c r="F367" s="48"/>
     </row>
     <row r="368" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F368" s="52"/>
+      <c r="F368" s="48"/>
     </row>
     <row r="369" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F369" s="52"/>
+      <c r="F369" s="48"/>
     </row>
     <row r="370" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F370" s="52"/>
+      <c r="F370" s="48"/>
     </row>
     <row r="371" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F371" s="52"/>
+      <c r="F371" s="48"/>
     </row>
     <row r="372" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F372" s="52"/>
+      <c r="F372" s="48"/>
     </row>
     <row r="373" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F373" s="52"/>
+      <c r="F373" s="48"/>
     </row>
     <row r="374" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F374" s="52"/>
+      <c r="F374" s="48"/>
     </row>
     <row r="375" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F375" s="52"/>
+      <c r="F375" s="48"/>
     </row>
     <row r="376" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F376" s="52"/>
+      <c r="F376" s="48"/>
     </row>
     <row r="377" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F377" s="52"/>
+      <c r="F377" s="48"/>
     </row>
     <row r="378" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F378" s="52"/>
+      <c r="F378" s="48"/>
     </row>
     <row r="379" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F379" s="52"/>
+      <c r="F379" s="48"/>
     </row>
     <row r="380" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F380" s="52"/>
+      <c r="F380" s="48"/>
     </row>
     <row r="381" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F381" s="52"/>
+      <c r="F381" s="48"/>
     </row>
     <row r="382" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F382" s="52"/>
+      <c r="F382" s="48"/>
     </row>
     <row r="383" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F383" s="52"/>
+      <c r="F383" s="48"/>
     </row>
     <row r="384" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F384" s="52"/>
+      <c r="F384" s="48"/>
     </row>
     <row r="385" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F385" s="52"/>
+      <c r="F385" s="48"/>
     </row>
     <row r="386" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F386" s="52"/>
+      <c r="F386" s="48"/>
     </row>
     <row r="387" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F387" s="52"/>
+      <c r="F387" s="48"/>
     </row>
     <row r="388" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F388" s="52"/>
+      <c r="F388" s="48"/>
     </row>
     <row r="389" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F389" s="52"/>
+      <c r="F389" s="48"/>
     </row>
     <row r="390" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F390" s="52"/>
+      <c r="F390" s="48"/>
     </row>
     <row r="391" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F391" s="52"/>
+      <c r="F391" s="48"/>
     </row>
     <row r="392" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F392" s="52"/>
+      <c r="F392" s="48"/>
     </row>
     <row r="393" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F393" s="52"/>
+      <c r="F393" s="48"/>
     </row>
     <row r="394" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F394" s="52"/>
+      <c r="F394" s="48"/>
     </row>
     <row r="395" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F395" s="52"/>
+      <c r="F395" s="48"/>
     </row>
     <row r="396" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F396" s="52"/>
+      <c r="F396" s="48"/>
     </row>
     <row r="397" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F397" s="52"/>
+      <c r="F397" s="48"/>
     </row>
     <row r="398" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F398" s="52"/>
+      <c r="F398" s="48"/>
     </row>
     <row r="399" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F399" s="52"/>
+      <c r="F399" s="48"/>
     </row>
     <row r="400" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F400" s="52"/>
+      <c r="F400" s="48"/>
     </row>
     <row r="401" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F401" s="52"/>
+      <c r="F401" s="48"/>
     </row>
     <row r="402" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F402" s="52"/>
+      <c r="F402" s="48"/>
     </row>
     <row r="403" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F403" s="52"/>
+      <c r="F403" s="48"/>
     </row>
     <row r="404" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F404" s="52"/>
+      <c r="F404" s="48"/>
     </row>
     <row r="405" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F405" s="52"/>
+      <c r="F405" s="48"/>
     </row>
     <row r="406" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F406" s="52"/>
+      <c r="F406" s="48"/>
     </row>
     <row r="407" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F407" s="52"/>
+      <c r="F407" s="48"/>
     </row>
     <row r="408" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F408" s="52"/>
+      <c r="F408" s="48"/>
     </row>
     <row r="409" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F409" s="52"/>
+      <c r="F409" s="48"/>
     </row>
     <row r="410" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F410" s="52"/>
+      <c r="F410" s="48"/>
     </row>
     <row r="411" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F411" s="52"/>
+      <c r="F411" s="48"/>
     </row>
     <row r="412" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F412" s="52"/>
+      <c r="F412" s="48"/>
     </row>
     <row r="413" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F413" s="52"/>
+      <c r="F413" s="48"/>
     </row>
     <row r="414" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F414" s="52"/>
+      <c r="F414" s="48"/>
     </row>
     <row r="415" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F415" s="52"/>
+      <c r="F415" s="48"/>
     </row>
     <row r="416" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F416" s="52"/>
+      <c r="F416" s="48"/>
     </row>
     <row r="417" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F417" s="52"/>
+      <c r="F417" s="48"/>
     </row>
     <row r="418" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F418" s="52"/>
+      <c r="F418" s="48"/>
     </row>
     <row r="419" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F419" s="52"/>
+      <c r="F419" s="48"/>
     </row>
     <row r="420" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F420" s="52"/>
+      <c r="F420" s="48"/>
     </row>
     <row r="421" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F421" s="52"/>
+      <c r="F421" s="48"/>
     </row>
     <row r="422" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F422" s="52"/>
+      <c r="F422" s="48"/>
     </row>
     <row r="423" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F423" s="52"/>
+      <c r="F423" s="48"/>
     </row>
     <row r="424" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F424" s="52"/>
+      <c r="F424" s="48"/>
     </row>
     <row r="425" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F425" s="52"/>
+      <c r="F425" s="48"/>
     </row>
     <row r="426" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F426" s="52"/>
+      <c r="F426" s="48"/>
     </row>
     <row r="427" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F427" s="52"/>
+      <c r="F427" s="48"/>
     </row>
     <row r="428" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F428" s="52"/>
+      <c r="F428" s="48"/>
     </row>
     <row r="429" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F429" s="52"/>
+      <c r="F429" s="48"/>
     </row>
     <row r="430" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F430" s="52"/>
+      <c r="F430" s="48"/>
     </row>
     <row r="431" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F431" s="52"/>
+      <c r="F431" s="48"/>
     </row>
     <row r="432" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F432" s="52"/>
+      <c r="F432" s="48"/>
     </row>
     <row r="433" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F433" s="52"/>
+      <c r="F433" s="48"/>
     </row>
     <row r="434" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F434" s="52"/>
+      <c r="F434" s="48"/>
     </row>
     <row r="435" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F435" s="52"/>
+      <c r="F435" s="48"/>
     </row>
     <row r="436" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F436" s="52"/>
+      <c r="F436" s="48"/>
     </row>
     <row r="437" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F437" s="52"/>
+      <c r="F437" s="48"/>
     </row>
     <row r="438" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F438" s="52"/>
+      <c r="F438" s="48"/>
     </row>
     <row r="439" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F439" s="52"/>
+      <c r="F439" s="48"/>
     </row>
     <row r="440" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F440" s="52"/>
+      <c r="F440" s="48"/>
     </row>
     <row r="441" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F441" s="52"/>
+      <c r="F441" s="48"/>
     </row>
     <row r="442" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F442" s="52"/>
+      <c r="F442" s="48"/>
     </row>
     <row r="443" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F443" s="52"/>
+      <c r="F443" s="48"/>
     </row>
     <row r="444" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F444" s="52"/>
+      <c r="F444" s="48"/>
     </row>
     <row r="445" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F445" s="52"/>
+      <c r="F445" s="48"/>
     </row>
     <row r="446" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F446" s="52"/>
+      <c r="F446" s="48"/>
     </row>
     <row r="447" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F447" s="52"/>
+      <c r="F447" s="48"/>
     </row>
     <row r="448" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F448" s="52"/>
+      <c r="F448" s="48"/>
     </row>
     <row r="449" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F449" s="52"/>
+      <c r="F449" s="48"/>
     </row>
     <row r="450" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F450" s="52"/>
+      <c r="F450" s="48"/>
     </row>
     <row r="451" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F451" s="52"/>
+      <c r="F451" s="48"/>
     </row>
     <row r="452" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F452" s="52"/>
+      <c r="F452" s="48"/>
     </row>
     <row r="453" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F453" s="52"/>
+      <c r="F453" s="48"/>
     </row>
     <row r="454" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F454" s="52"/>
+      <c r="F454" s="48"/>
     </row>
     <row r="455" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F455" s="52"/>
+      <c r="F455" s="48"/>
     </row>
     <row r="456" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F456" s="52"/>
+      <c r="F456" s="48"/>
     </row>
     <row r="457" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F457" s="52"/>
+      <c r="F457" s="48"/>
     </row>
     <row r="458" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F458" s="52"/>
+      <c r="F458" s="48"/>
     </row>
     <row r="459" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F459" s="52"/>
+      <c r="F459" s="48"/>
     </row>
     <row r="460" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F460" s="52"/>
+      <c r="F460" s="48"/>
     </row>
     <row r="461" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F461" s="52"/>
+      <c r="F461" s="48"/>
     </row>
     <row r="462" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F462" s="52"/>
+      <c r="F462" s="48"/>
     </row>
     <row r="463" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F463" s="52"/>
+      <c r="F463" s="48"/>
     </row>
     <row r="464" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F464" s="52"/>
+      <c r="F464" s="48"/>
     </row>
     <row r="465" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F465" s="52"/>
+      <c r="F465" s="48"/>
     </row>
     <row r="466" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F466" s="52"/>
+      <c r="F466" s="48"/>
     </row>
     <row r="467" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F467" s="52"/>
+      <c r="F467" s="48"/>
     </row>
     <row r="468" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F468" s="52"/>
+      <c r="F468" s="48"/>
     </row>
     <row r="469" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F469" s="52"/>
+      <c r="F469" s="48"/>
     </row>
     <row r="470" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F470" s="52"/>
+      <c r="F470" s="48"/>
     </row>
     <row r="471" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F471" s="52"/>
+      <c r="F471" s="48"/>
     </row>
     <row r="472" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F472" s="52"/>
+      <c r="F472" s="48"/>
     </row>
     <row r="473" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F473" s="52"/>
+      <c r="F473" s="48"/>
     </row>
     <row r="474" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F474" s="52"/>
+      <c r="F474" s="48"/>
     </row>
     <row r="475" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F475" s="52"/>
+      <c r="F475" s="48"/>
     </row>
     <row r="476" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F476" s="52"/>
+      <c r="F476" s="48"/>
     </row>
     <row r="477" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F477" s="52"/>
+      <c r="F477" s="48"/>
     </row>
     <row r="478" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F478" s="52"/>
+      <c r="F478" s="48"/>
     </row>
     <row r="479" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F479" s="52"/>
+      <c r="F479" s="48"/>
     </row>
     <row r="480" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F480" s="52"/>
+      <c r="F480" s="48"/>
     </row>
     <row r="481" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F481" s="52"/>
+      <c r="F481" s="48"/>
     </row>
     <row r="482" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F482" s="52"/>
+      <c r="F482" s="48"/>
     </row>
     <row r="483" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F483" s="52"/>
+      <c r="F483" s="48"/>
     </row>
     <row r="484" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F484" s="52"/>
+      <c r="F484" s="48"/>
     </row>
     <row r="485" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F485" s="52"/>
+      <c r="F485" s="48"/>
     </row>
     <row r="486" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F486" s="52"/>
+      <c r="F486" s="48"/>
     </row>
     <row r="487" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F487" s="52"/>
+      <c r="F487" s="48"/>
     </row>
     <row r="488" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F488" s="52"/>
+      <c r="F488" s="48"/>
     </row>
     <row r="489" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F489" s="52"/>
+      <c r="F489" s="48"/>
     </row>
     <row r="490" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F490" s="52"/>
+      <c r="F490" s="48"/>
     </row>
     <row r="491" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F491" s="52"/>
+      <c r="F491" s="48"/>
     </row>
     <row r="492" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F492" s="52"/>
+      <c r="F492" s="48"/>
     </row>
     <row r="493" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F493" s="52"/>
+      <c r="F493" s="48"/>
     </row>
     <row r="494" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F494" s="52"/>
+      <c r="F494" s="48"/>
     </row>
     <row r="495" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F495" s="52"/>
+      <c r="F495" s="48"/>
     </row>
     <row r="496" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F496" s="52"/>
+      <c r="F496" s="48"/>
     </row>
     <row r="497" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F497" s="52"/>
+      <c r="F497" s="48"/>
     </row>
     <row r="498" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F498" s="52"/>
+      <c r="F498" s="48"/>
     </row>
     <row r="499" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F499" s="52"/>
+      <c r="F499" s="48"/>
     </row>
     <row r="500" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F500" s="52"/>
+      <c r="F500" s="48"/>
     </row>
     <row r="501" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F501" s="52"/>
+      <c r="F501" s="48"/>
     </row>
     <row r="502" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F502" s="52"/>
+      <c r="F502" s="48"/>
     </row>
     <row r="503" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F503" s="52"/>
+      <c r="F503" s="48"/>
     </row>
     <row r="504" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F504" s="52"/>
+      <c r="F504" s="48"/>
     </row>
     <row r="505" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F505" s="52"/>
+      <c r="F505" s="48"/>
     </row>
     <row r="506" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F506" s="52"/>
+      <c r="F506" s="48"/>
     </row>
     <row r="507" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F507" s="52"/>
+      <c r="F507" s="48"/>
     </row>
     <row r="508" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F508" s="52"/>
+      <c r="F508" s="48"/>
     </row>
     <row r="509" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F509" s="52"/>
+      <c r="F509" s="48"/>
     </row>
     <row r="510" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F510" s="52"/>
+      <c r="F510" s="48"/>
     </row>
     <row r="511" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F511" s="52"/>
+      <c r="F511" s="48"/>
     </row>
     <row r="512" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F512" s="52"/>
+      <c r="F512" s="48"/>
     </row>
     <row r="513" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F513" s="52"/>
+      <c r="F513" s="48"/>
     </row>
     <row r="514" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F514" s="52"/>
+      <c r="F514" s="48"/>
     </row>
     <row r="515" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F515" s="52"/>
+      <c r="F515" s="48"/>
     </row>
     <row r="516" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F516" s="52"/>
+      <c r="F516" s="48"/>
     </row>
     <row r="517" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F517" s="52"/>
+      <c r="F517" s="48"/>
     </row>
     <row r="518" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F518" s="52"/>
+      <c r="F518" s="48"/>
     </row>
     <row r="519" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F519" s="52"/>
+      <c r="F519" s="48"/>
     </row>
     <row r="520" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F520" s="52"/>
+      <c r="F520" s="48"/>
     </row>
     <row r="521" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F521" s="52"/>
+      <c r="F521" s="48"/>
     </row>
     <row r="522" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F522" s="52"/>
+      <c r="F522" s="48"/>
     </row>
     <row r="523" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F523" s="52"/>
+      <c r="F523" s="48"/>
     </row>
     <row r="524" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F524" s="52"/>
+      <c r="F524" s="48"/>
     </row>
     <row r="525" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F525" s="52"/>
+      <c r="F525" s="48"/>
     </row>
     <row r="526" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F526" s="52"/>
+      <c r="F526" s="48"/>
     </row>
     <row r="527" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F527" s="52"/>
+      <c r="F527" s="48"/>
     </row>
     <row r="528" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F528" s="52"/>
+      <c r="F528" s="48"/>
     </row>
     <row r="529" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F529" s="52"/>
+      <c r="F529" s="48"/>
     </row>
     <row r="530" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F530" s="52"/>
+      <c r="F530" s="48"/>
     </row>
     <row r="531" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F531" s="52"/>
+      <c r="F531" s="48"/>
     </row>
     <row r="532" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F532" s="52"/>
+      <c r="F532" s="48"/>
     </row>
     <row r="533" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F533" s="52"/>
+      <c r="F533" s="48"/>
     </row>
     <row r="534" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F534" s="52"/>
+      <c r="F534" s="48"/>
     </row>
     <row r="535" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F535" s="52"/>
+      <c r="F535" s="48"/>
     </row>
     <row r="536" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F536" s="52"/>
+      <c r="F536" s="48"/>
     </row>
     <row r="537" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F537" s="52"/>
+      <c r="F537" s="48"/>
     </row>
     <row r="538" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F538" s="52"/>
+      <c r="F538" s="48"/>
     </row>
     <row r="539" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F539" s="52"/>
+      <c r="F539" s="48"/>
     </row>
     <row r="540" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F540" s="52"/>
+      <c r="F540" s="48"/>
     </row>
     <row r="541" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F541" s="52"/>
+      <c r="F541" s="48"/>
     </row>
     <row r="542" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F542" s="52"/>
+      <c r="F542" s="48"/>
     </row>
     <row r="543" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F543" s="52"/>
+      <c r="F543" s="48"/>
     </row>
     <row r="544" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F544" s="52"/>
+      <c r="F544" s="48"/>
     </row>
     <row r="545" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F545" s="52"/>
+      <c r="F545" s="48"/>
     </row>
     <row r="546" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F546" s="52"/>
+      <c r="F546" s="48"/>
     </row>
     <row r="547" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F547" s="52"/>
+      <c r="F547" s="48"/>
     </row>
     <row r="548" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F548" s="52"/>
+      <c r="F548" s="48"/>
     </row>
     <row r="549" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F549" s="52"/>
+      <c r="F549" s="48"/>
     </row>
     <row r="550" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F550" s="52"/>
+      <c r="F550" s="48"/>
     </row>
     <row r="551" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F551" s="52"/>
+      <c r="F551" s="48"/>
     </row>
     <row r="552" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F552" s="52"/>
+      <c r="F552" s="48"/>
     </row>
     <row r="553" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F553" s="52"/>
+      <c r="F553" s="48"/>
     </row>
     <row r="554" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F554" s="52"/>
+      <c r="F554" s="48"/>
     </row>
     <row r="555" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F555" s="52"/>
+      <c r="F555" s="48"/>
     </row>
     <row r="556" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F556" s="52"/>
+      <c r="F556" s="48"/>
     </row>
     <row r="557" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F557" s="52"/>
+      <c r="F557" s="48"/>
     </row>
     <row r="558" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F558" s="52"/>
+      <c r="F558" s="48"/>
     </row>
     <row r="559" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F559" s="52"/>
+      <c r="F559" s="48"/>
     </row>
     <row r="560" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F560" s="52"/>
+      <c r="F560" s="48"/>
     </row>
     <row r="561" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F561" s="52"/>
+      <c r="F561" s="48"/>
     </row>
     <row r="562" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F562" s="52"/>
+      <c r="F562" s="48"/>
     </row>
     <row r="563" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F563" s="52"/>
+      <c r="F563" s="48"/>
     </row>
     <row r="564" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F564" s="52"/>
+      <c r="F564" s="48"/>
     </row>
     <row r="565" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F565" s="52"/>
+      <c r="F565" s="48"/>
     </row>
     <row r="566" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F566" s="52"/>
+      <c r="F566" s="48"/>
     </row>
     <row r="567" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F567" s="52"/>
+      <c r="F567" s="48"/>
     </row>
     <row r="568" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F568" s="52"/>
+      <c r="F568" s="48"/>
     </row>
     <row r="569" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F569" s="52"/>
+      <c r="F569" s="48"/>
     </row>
     <row r="570" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F570" s="52"/>
+      <c r="F570" s="48"/>
     </row>
     <row r="571" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F571" s="52"/>
+      <c r="F571" s="48"/>
     </row>
     <row r="572" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F572" s="52"/>
+      <c r="F572" s="48"/>
     </row>
     <row r="573" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F573" s="52"/>
+      <c r="F573" s="48"/>
     </row>
     <row r="574" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F574" s="52"/>
+      <c r="F574" s="48"/>
     </row>
     <row r="575" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F575" s="52"/>
+      <c r="F575" s="48"/>
     </row>
     <row r="576" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F576" s="52"/>
+      <c r="F576" s="48"/>
     </row>
     <row r="577" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F577" s="52"/>
+      <c r="F577" s="48"/>
     </row>
     <row r="578" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F578" s="52"/>
+      <c r="F578" s="48"/>
     </row>
     <row r="579" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F579" s="52"/>
+      <c r="F579" s="48"/>
     </row>
     <row r="580" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F580" s="52"/>
+      <c r="F580" s="48"/>
     </row>
     <row r="581" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F581" s="52"/>
+      <c r="F581" s="48"/>
     </row>
     <row r="582" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F582" s="52"/>
+      <c r="F582" s="48"/>
     </row>
     <row r="583" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F583" s="52"/>
+      <c r="F583" s="48"/>
     </row>
     <row r="584" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F584" s="52"/>
+      <c r="F584" s="48"/>
     </row>
     <row r="585" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F585" s="52"/>
+      <c r="F585" s="48"/>
     </row>
     <row r="586" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F586" s="52"/>
+      <c r="F586" s="48"/>
     </row>
     <row r="587" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F587" s="52"/>
+      <c r="F587" s="48"/>
     </row>
     <row r="588" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F588" s="52"/>
+      <c r="F588" s="48"/>
     </row>
     <row r="589" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F589" s="52"/>
+      <c r="F589" s="48"/>
     </row>
     <row r="590" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F590" s="52"/>
+      <c r="F590" s="48"/>
     </row>
     <row r="591" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F591" s="52"/>
+      <c r="F591" s="48"/>
     </row>
     <row r="592" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F592" s="52"/>
+      <c r="F592" s="48"/>
     </row>
     <row r="593" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F593" s="52"/>
+      <c r="F593" s="48"/>
     </row>
     <row r="594" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F594" s="52"/>
+      <c r="F594" s="48"/>
     </row>
     <row r="595" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F595" s="52"/>
+      <c r="F595" s="48"/>
     </row>
     <row r="596" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F596" s="52"/>
+      <c r="F596" s="48"/>
     </row>
     <row r="597" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F597" s="52"/>
+      <c r="F597" s="48"/>
     </row>
     <row r="598" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F598" s="52"/>
+      <c r="F598" s="48"/>
     </row>
     <row r="599" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F599" s="52"/>
+      <c r="F599" s="48"/>
     </row>
     <row r="600" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F600" s="52"/>
+      <c r="F600" s="48"/>
     </row>
     <row r="601" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F601" s="52"/>
+      <c r="F601" s="48"/>
     </row>
     <row r="602" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F602" s="52"/>
+      <c r="F602" s="48"/>
     </row>
     <row r="603" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F603" s="52"/>
+      <c r="F603" s="48"/>
     </row>
     <row r="604" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F604" s="52"/>
+      <c r="F604" s="48"/>
     </row>
     <row r="605" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F605" s="52"/>
+      <c r="F605" s="48"/>
     </row>
     <row r="606" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F606" s="52"/>
+      <c r="F606" s="48"/>
     </row>
     <row r="607" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F607" s="52"/>
+      <c r="F607" s="48"/>
     </row>
     <row r="608" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F608" s="52"/>
+      <c r="F608" s="48"/>
     </row>
     <row r="609" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F609" s="52"/>
+      <c r="F609" s="48"/>
     </row>
     <row r="610" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F610" s="52"/>
+      <c r="F610" s="48"/>
     </row>
     <row r="611" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F611" s="52"/>
+      <c r="F611" s="48"/>
     </row>
     <row r="612" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F612" s="52"/>
+      <c r="F612" s="48"/>
     </row>
     <row r="613" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F613" s="52"/>
+      <c r="F613" s="48"/>
     </row>
     <row r="614" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F614" s="52"/>
+      <c r="F614" s="48"/>
     </row>
     <row r="615" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F615" s="52"/>
+      <c r="F615" s="48"/>
     </row>
     <row r="616" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F616" s="52"/>
+      <c r="F616" s="48"/>
     </row>
     <row r="617" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F617" s="52"/>
+      <c r="F617" s="48"/>
     </row>
     <row r="618" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F618" s="52"/>
+      <c r="F618" s="48"/>
     </row>
     <row r="619" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F619" s="52"/>
+      <c r="F619" s="48"/>
     </row>
     <row r="620" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F620" s="52"/>
+      <c r="F620" s="48"/>
     </row>
     <row r="621" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F621" s="52"/>
+      <c r="F621" s="48"/>
     </row>
     <row r="622" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F622" s="52"/>
+      <c r="F622" s="48"/>
     </row>
     <row r="623" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F623" s="52"/>
+      <c r="F623" s="48"/>
     </row>
     <row r="624" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F624" s="52"/>
+      <c r="F624" s="48"/>
     </row>
     <row r="625" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F625" s="52"/>
+      <c r="F625" s="48"/>
     </row>
     <row r="626" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F626" s="52"/>
+      <c r="F626" s="48"/>
     </row>
     <row r="627" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F627" s="52"/>
+      <c r="F627" s="48"/>
     </row>
     <row r="628" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F628" s="52"/>
+      <c r="F628" s="48"/>
     </row>
     <row r="629" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F629" s="52"/>
+      <c r="F629" s="48"/>
     </row>
     <row r="630" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F630" s="52"/>
+      <c r="F630" s="48"/>
     </row>
     <row r="631" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F631" s="52"/>
+      <c r="F631" s="48"/>
     </row>
     <row r="632" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F632" s="52"/>
+      <c r="F632" s="48"/>
     </row>
     <row r="633" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F633" s="52"/>
+      <c r="F633" s="48"/>
     </row>
     <row r="634" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F634" s="52"/>
+      <c r="F634" s="48"/>
     </row>
     <row r="635" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F635" s="52"/>
+      <c r="F635" s="48"/>
     </row>
     <row r="636" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F636" s="52"/>
+      <c r="F636" s="48"/>
     </row>
     <row r="637" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F637" s="52"/>
+      <c r="F637" s="48"/>
     </row>
     <row r="638" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F638" s="52"/>
+      <c r="F638" s="48"/>
     </row>
     <row r="639" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F639" s="52"/>
+      <c r="F639" s="48"/>
     </row>
     <row r="640" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F640" s="52"/>
+      <c r="F640" s="48"/>
     </row>
     <row r="641" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F641" s="52"/>
+      <c r="F641" s="48"/>
     </row>
     <row r="642" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F642" s="52"/>
+      <c r="F642" s="48"/>
     </row>
     <row r="643" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F643" s="52"/>
+      <c r="F643" s="48"/>
     </row>
     <row r="644" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F644" s="52"/>
+      <c r="F644" s="48"/>
     </row>
     <row r="645" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F645" s="52"/>
+      <c r="F645" s="48"/>
     </row>
     <row r="646" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F646" s="52"/>
+      <c r="F646" s="48"/>
     </row>
     <row r="647" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F647" s="52"/>
+      <c r="F647" s="48"/>
     </row>
     <row r="648" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F648" s="52"/>
+      <c r="F648" s="48"/>
     </row>
     <row r="649" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F649" s="52"/>
+      <c r="F649" s="48"/>
     </row>
     <row r="650" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F650" s="52"/>
+      <c r="F650" s="48"/>
     </row>
     <row r="651" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F651" s="52"/>
+      <c r="F651" s="48"/>
     </row>
     <row r="652" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F652" s="52"/>
+      <c r="F652" s="48"/>
     </row>
     <row r="653" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F653" s="52"/>
+      <c r="F653" s="48"/>
     </row>
     <row r="654" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F654" s="52"/>
+      <c r="F654" s="48"/>
     </row>
     <row r="655" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F655" s="52"/>
+      <c r="F655" s="48"/>
     </row>
     <row r="656" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F656" s="52"/>
+      <c r="F656" s="48"/>
     </row>
     <row r="657" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F657" s="52"/>
+      <c r="F657" s="48"/>
     </row>
     <row r="658" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F658" s="52"/>
+      <c r="F658" s="48"/>
     </row>
     <row r="659" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F659" s="52"/>
+      <c r="F659" s="48"/>
     </row>
     <row r="660" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F660" s="52"/>
+      <c r="F660" s="48"/>
     </row>
     <row r="661" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F661" s="52"/>
+      <c r="F661" s="48"/>
     </row>
     <row r="662" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F662" s="52"/>
+      <c r="F662" s="48"/>
     </row>
     <row r="663" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F663" s="52"/>
+      <c r="F663" s="48"/>
     </row>
     <row r="664" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F664" s="52"/>
+      <c r="F664" s="48"/>
     </row>
     <row r="665" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F665" s="52"/>
+      <c r="F665" s="48"/>
     </row>
     <row r="666" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F666" s="52"/>
+      <c r="F666" s="48"/>
     </row>
     <row r="667" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F667" s="52"/>
+      <c r="F667" s="48"/>
     </row>
     <row r="668" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F668" s="52"/>
+      <c r="F668" s="48"/>
     </row>
     <row r="669" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F669" s="52"/>
+      <c r="F669" s="48"/>
     </row>
     <row r="670" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F670" s="52"/>
+      <c r="F670" s="48"/>
     </row>
     <row r="671" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F671" s="52"/>
+      <c r="F671" s="48"/>
     </row>
     <row r="672" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F672" s="52"/>
+      <c r="F672" s="48"/>
     </row>
     <row r="673" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F673" s="52"/>
+      <c r="F673" s="48"/>
     </row>
     <row r="674" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F674" s="52"/>
+      <c r="F674" s="48"/>
     </row>
     <row r="675" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F675" s="52"/>
+      <c r="F675" s="48"/>
     </row>
     <row r="676" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F676" s="52"/>
+      <c r="F676" s="48"/>
     </row>
     <row r="677" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F677" s="52"/>
+      <c r="F677" s="48"/>
     </row>
     <row r="678" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F678" s="52"/>
+      <c r="F678" s="48"/>
     </row>
     <row r="679" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F679" s="52"/>
+      <c r="F679" s="48"/>
     </row>
     <row r="680" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F680" s="52"/>
+      <c r="F680" s="48"/>
     </row>
     <row r="681" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F681" s="52"/>
+      <c r="F681" s="48"/>
     </row>
     <row r="682" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F682" s="52"/>
+      <c r="F682" s="48"/>
     </row>
     <row r="683" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F683" s="52"/>
+      <c r="F683" s="48"/>
     </row>
     <row r="684" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F684" s="52"/>
+      <c r="F684" s="48"/>
     </row>
     <row r="685" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F685" s="52"/>
+      <c r="F685" s="48"/>
     </row>
     <row r="686" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F686" s="52"/>
+      <c r="F686" s="48"/>
     </row>
     <row r="687" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F687" s="52"/>
+      <c r="F687" s="48"/>
     </row>
     <row r="688" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F688" s="52"/>
+      <c r="F688" s="48"/>
     </row>
     <row r="689" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F689" s="52"/>
+      <c r="F689" s="48"/>
     </row>
     <row r="690" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F690" s="52"/>
+      <c r="F690" s="48"/>
     </row>
     <row r="691" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F691" s="52"/>
+      <c r="F691" s="48"/>
     </row>
     <row r="692" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F692" s="52"/>
+      <c r="F692" s="48"/>
     </row>
     <row r="693" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F693" s="52"/>
+      <c r="F693" s="48"/>
     </row>
     <row r="694" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F694" s="52"/>
+      <c r="F694" s="48"/>
     </row>
     <row r="695" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F695" s="52"/>
+      <c r="F695" s="48"/>
     </row>
     <row r="696" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F696" s="52"/>
+      <c r="F696" s="48"/>
     </row>
     <row r="697" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F697" s="52"/>
+      <c r="F697" s="48"/>
     </row>
     <row r="698" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F698" s="52"/>
+      <c r="F698" s="48"/>
     </row>
     <row r="699" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F699" s="52"/>
+      <c r="F699" s="48"/>
     </row>
     <row r="700" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F700" s="52"/>
+      <c r="F700" s="48"/>
     </row>
     <row r="701" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F701" s="52"/>
+      <c r="F701" s="48"/>
     </row>
     <row r="702" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F702" s="52"/>
+      <c r="F702" s="48"/>
     </row>
     <row r="703" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F703" s="52"/>
+      <c r="F703" s="48"/>
     </row>
     <row r="704" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F704" s="52"/>
+      <c r="F704" s="48"/>
     </row>
     <row r="705" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F705" s="52"/>
+      <c r="F705" s="48"/>
     </row>
     <row r="706" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F706" s="52"/>
+      <c r="F706" s="48"/>
     </row>
     <row r="707" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F707" s="52"/>
+      <c r="F707" s="48"/>
     </row>
     <row r="708" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F708" s="52"/>
+      <c r="F708" s="48"/>
     </row>
     <row r="709" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F709" s="52"/>
+      <c r="F709" s="48"/>
     </row>
     <row r="710" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F710" s="52"/>
+      <c r="F710" s="48"/>
     </row>
     <row r="711" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F711" s="52"/>
+      <c r="F711" s="48"/>
     </row>
     <row r="712" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F712" s="52"/>
+      <c r="F712" s="48"/>
     </row>
     <row r="713" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F713" s="52"/>
+      <c r="F713" s="48"/>
     </row>
     <row r="714" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F714" s="52"/>
+      <c r="F714" s="48"/>
     </row>
     <row r="715" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F715" s="52"/>
+      <c r="F715" s="48"/>
     </row>
     <row r="716" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F716" s="52"/>
+      <c r="F716" s="48"/>
     </row>
     <row r="717" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F717" s="52"/>
+      <c r="F717" s="48"/>
     </row>
     <row r="718" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F718" s="52"/>
+      <c r="F718" s="48"/>
     </row>
     <row r="719" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F719" s="52"/>
+      <c r="F719" s="48"/>
     </row>
     <row r="720" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F720" s="52"/>
+      <c r="F720" s="48"/>
     </row>
     <row r="721" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F721" s="52"/>
+      <c r="F721" s="48"/>
     </row>
     <row r="722" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F722" s="52"/>
+      <c r="F722" s="48"/>
     </row>
     <row r="723" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F723" s="52"/>
+      <c r="F723" s="48"/>
     </row>
     <row r="724" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F724" s="52"/>
+      <c r="F724" s="48"/>
     </row>
     <row r="725" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F725" s="52"/>
+      <c r="F725" s="48"/>
     </row>
     <row r="726" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F726" s="52"/>
+      <c r="F726" s="48"/>
     </row>
     <row r="727" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F727" s="52"/>
+      <c r="F727" s="48"/>
     </row>
     <row r="728" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F728" s="52"/>
+      <c r="F728" s="48"/>
     </row>
     <row r="729" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F729" s="52"/>
+      <c r="F729" s="48"/>
     </row>
     <row r="730" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F730" s="52"/>
+      <c r="F730" s="48"/>
     </row>
     <row r="731" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F731" s="52"/>
+      <c r="F731" s="48"/>
     </row>
     <row r="732" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F732" s="52"/>
+      <c r="F732" s="48"/>
     </row>
     <row r="733" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F733" s="52"/>
+      <c r="F733" s="48"/>
     </row>
     <row r="734" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F734" s="52"/>
+      <c r="F734" s="48"/>
     </row>
     <row r="735" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F735" s="52"/>
+      <c r="F735" s="48"/>
     </row>
     <row r="736" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F736" s="52"/>
+      <c r="F736" s="48"/>
     </row>
     <row r="737" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F737" s="52"/>
+      <c r="F737" s="48"/>
     </row>
     <row r="738" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F738" s="52"/>
+      <c r="F738" s="48"/>
     </row>
     <row r="739" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F739" s="52"/>
+      <c r="F739" s="48"/>
     </row>
     <row r="740" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F740" s="52"/>
+      <c r="F740" s="48"/>
     </row>
     <row r="741" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F741" s="52"/>
+      <c r="F741" s="48"/>
     </row>
     <row r="742" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F742" s="52"/>
+      <c r="F742" s="48"/>
     </row>
     <row r="743" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F743" s="52"/>
+      <c r="F743" s="48"/>
     </row>
     <row r="744" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F744" s="52"/>
+      <c r="F744" s="48"/>
     </row>
     <row r="745" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F745" s="52"/>
+      <c r="F745" s="48"/>
     </row>
     <row r="746" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F746" s="52"/>
+      <c r="F746" s="48"/>
     </row>
     <row r="747" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F747" s="52"/>
+      <c r="F747" s="48"/>
     </row>
     <row r="748" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F748" s="52"/>
+      <c r="F748" s="48"/>
     </row>
     <row r="749" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F749" s="52"/>
+      <c r="F749" s="48"/>
     </row>
     <row r="750" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F750" s="52"/>
+      <c r="F750" s="48"/>
     </row>
     <row r="751" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F751" s="52"/>
+      <c r="F751" s="48"/>
     </row>
     <row r="752" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F752" s="52"/>
+      <c r="F752" s="48"/>
     </row>
     <row r="753" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F753" s="52"/>
+      <c r="F753" s="48"/>
     </row>
     <row r="754" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F754" s="52"/>
+      <c r="F754" s="48"/>
     </row>
     <row r="755" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F755" s="52"/>
+      <c r="F755" s="48"/>
     </row>
     <row r="756" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F756" s="52"/>
+      <c r="F756" s="48"/>
     </row>
     <row r="757" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F757" s="52"/>
+      <c r="F757" s="48"/>
     </row>
     <row r="758" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F758" s="52"/>
+      <c r="F758" s="48"/>
     </row>
     <row r="759" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F759" s="52"/>
+      <c r="F759" s="48"/>
     </row>
     <row r="760" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F760" s="52"/>
+      <c r="F760" s="48"/>
     </row>
     <row r="761" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F761" s="52"/>
+      <c r="F761" s="48"/>
     </row>
     <row r="762" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F762" s="52"/>
+      <c r="F762" s="48"/>
     </row>
     <row r="763" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F763" s="52"/>
+      <c r="F763" s="48"/>
     </row>
     <row r="764" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F764" s="52"/>
+      <c r="F764" s="48"/>
     </row>
     <row r="765" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F765" s="52"/>
+      <c r="F765" s="48"/>
     </row>
     <row r="766" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F766" s="52"/>
+      <c r="F766" s="48"/>
     </row>
     <row r="767" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F767" s="52"/>
+      <c r="F767" s="48"/>
     </row>
     <row r="768" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F768" s="52"/>
+      <c r="F768" s="48"/>
     </row>
     <row r="769" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F769" s="52"/>
+      <c r="F769" s="48"/>
     </row>
     <row r="770" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F770" s="52"/>
+      <c r="F770" s="48"/>
     </row>
     <row r="771" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F771" s="52"/>
+      <c r="F771" s="48"/>
     </row>
     <row r="772" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F772" s="52"/>
+      <c r="F772" s="48"/>
     </row>
     <row r="773" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F773" s="52"/>
+      <c r="F773" s="48"/>
     </row>
     <row r="774" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F774" s="52"/>
+      <c r="F774" s="48"/>
     </row>
     <row r="775" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F775" s="52"/>
+      <c r="F775" s="48"/>
     </row>
     <row r="776" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F776" s="52"/>
+      <c r="F776" s="48"/>
     </row>
     <row r="777" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F777" s="52"/>
+      <c r="F777" s="48"/>
     </row>
     <row r="778" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F778" s="52"/>
+      <c r="F778" s="48"/>
     </row>
     <row r="779" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F779" s="52"/>
+      <c r="F779" s="48"/>
     </row>
     <row r="780" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F780" s="52"/>
+      <c r="F780" s="48"/>
     </row>
     <row r="781" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F781" s="52"/>
+      <c r="F781" s="48"/>
     </row>
     <row r="782" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F782" s="52"/>
+      <c r="F782" s="48"/>
     </row>
     <row r="783" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F783" s="52"/>
+      <c r="F783" s="48"/>
     </row>
     <row r="784" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F784" s="52"/>
+      <c r="F784" s="48"/>
     </row>
     <row r="785" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F785" s="52"/>
+      <c r="F785" s="48"/>
     </row>
     <row r="786" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F786" s="52"/>
+      <c r="F786" s="48"/>
     </row>
     <row r="787" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F787" s="52"/>
+      <c r="F787" s="48"/>
     </row>
     <row r="788" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F788" s="52"/>
+      <c r="F788" s="48"/>
     </row>
     <row r="789" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F789" s="52"/>
+      <c r="F789" s="48"/>
     </row>
     <row r="790" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F790" s="52"/>
+      <c r="F790" s="48"/>
     </row>
     <row r="791" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F791" s="52"/>
+      <c r="F791" s="48"/>
     </row>
     <row r="792" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F792" s="52"/>
+      <c r="F792" s="48"/>
     </row>
     <row r="793" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F793" s="52"/>
+      <c r="F793" s="48"/>
     </row>
     <row r="794" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F794" s="52"/>
+      <c r="F794" s="48"/>
     </row>
     <row r="795" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F795" s="52"/>
+      <c r="F795" s="48"/>
     </row>
     <row r="796" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F796" s="52"/>
+      <c r="F796" s="48"/>
     </row>
     <row r="797" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F797" s="52"/>
+      <c r="F797" s="48"/>
     </row>
     <row r="798" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F798" s="52"/>
+      <c r="F798" s="48"/>
     </row>
     <row r="799" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F799" s="52"/>
+      <c r="F799" s="48"/>
     </row>
     <row r="800" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F800" s="52"/>
+      <c r="F800" s="48"/>
     </row>
     <row r="801" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F801" s="52"/>
+      <c r="F801" s="48"/>
     </row>
     <row r="802" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F802" s="52"/>
+      <c r="F802" s="48"/>
     </row>
     <row r="803" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F803" s="52"/>
+      <c r="F803" s="48"/>
     </row>
     <row r="804" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F804" s="52"/>
+      <c r="F804" s="48"/>
     </row>
     <row r="805" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F805" s="52"/>
+      <c r="F805" s="48"/>
     </row>
     <row r="806" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F806" s="52"/>
+      <c r="F806" s="48"/>
     </row>
     <row r="807" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F807" s="52"/>
+      <c r="F807" s="48"/>
     </row>
     <row r="808" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F808" s="52"/>
+      <c r="F808" s="48"/>
     </row>
     <row r="809" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F809" s="52"/>
+      <c r="F809" s="48"/>
     </row>
     <row r="810" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F810" s="52"/>
+      <c r="F810" s="48"/>
     </row>
     <row r="811" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F811" s="52"/>
+      <c r="F811" s="48"/>
     </row>
     <row r="812" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F812" s="52"/>
+      <c r="F812" s="48"/>
     </row>
     <row r="813" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F813" s="52"/>
+      <c r="F813" s="48"/>
     </row>
     <row r="814" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F814" s="52"/>
+      <c r="F814" s="48"/>
     </row>
     <row r="815" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F815" s="52"/>
+      <c r="F815" s="48"/>
     </row>
     <row r="816" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F816" s="52"/>
+      <c r="F816" s="48"/>
     </row>
     <row r="817" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F817" s="52"/>
+      <c r="F817" s="48"/>
     </row>
     <row r="818" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F818" s="52"/>
+      <c r="F818" s="48"/>
     </row>
     <row r="819" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F819" s="52"/>
+      <c r="F819" s="48"/>
     </row>
     <row r="820" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F820" s="52"/>
+      <c r="F820" s="48"/>
     </row>
     <row r="821" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F821" s="52"/>
+      <c r="F821" s="48"/>
     </row>
     <row r="822" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F822" s="52"/>
+      <c r="F822" s="48"/>
     </row>
     <row r="823" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F823" s="52"/>
+      <c r="F823" s="48"/>
     </row>
     <row r="824" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F824" s="52"/>
+      <c r="F824" s="48"/>
     </row>
     <row r="825" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F825" s="52"/>
+      <c r="F825" s="48"/>
     </row>
     <row r="826" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F826" s="52"/>
+      <c r="F826" s="48"/>
     </row>
     <row r="827" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F827" s="52"/>
+      <c r="F827" s="48"/>
     </row>
     <row r="828" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F828" s="52"/>
+      <c r="F828" s="48"/>
     </row>
     <row r="829" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F829" s="52"/>
+      <c r="F829" s="48"/>
     </row>
     <row r="830" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F830" s="52"/>
+      <c r="F830" s="48"/>
     </row>
     <row r="831" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F831" s="52"/>
+      <c r="F831" s="48"/>
     </row>
     <row r="832" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F832" s="52"/>
+      <c r="F832" s="48"/>
     </row>
     <row r="833" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F833" s="52"/>
+      <c r="F833" s="48"/>
     </row>
     <row r="834" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F834" s="52"/>
+      <c r="F834" s="48"/>
     </row>
     <row r="835" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F835" s="52"/>
+      <c r="F835" s="48"/>
     </row>
     <row r="836" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F836" s="52"/>
+      <c r="F836" s="48"/>
     </row>
     <row r="837" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F837" s="52"/>
+      <c r="F837" s="48"/>
     </row>
     <row r="838" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F838" s="52"/>
+      <c r="F838" s="48"/>
     </row>
     <row r="839" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F839" s="52"/>
+      <c r="F839" s="48"/>
     </row>
     <row r="840" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F840" s="52"/>
+      <c r="F840" s="48"/>
     </row>
     <row r="841" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F841" s="52"/>
+      <c r="F841" s="48"/>
     </row>
     <row r="842" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F842" s="52"/>
+      <c r="F842" s="48"/>
     </row>
     <row r="843" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F843" s="52"/>
+      <c r="F843" s="48"/>
     </row>
     <row r="844" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F844" s="52"/>
+      <c r="F844" s="48"/>
     </row>
     <row r="845" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F845" s="52"/>
+      <c r="F845" s="48"/>
     </row>
     <row r="846" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F846" s="52"/>
+      <c r="F846" s="48"/>
     </row>
     <row r="847" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F847" s="52"/>
+      <c r="F847" s="48"/>
     </row>
     <row r="848" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F848" s="52"/>
+      <c r="F848" s="48"/>
     </row>
     <row r="849" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F849" s="52"/>
+      <c r="F849" s="48"/>
     </row>
     <row r="850" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F850" s="52"/>
+      <c r="F850" s="48"/>
     </row>
     <row r="851" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F851" s="52"/>
+      <c r="F851" s="48"/>
     </row>
     <row r="852" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F852" s="52"/>
+      <c r="F852" s="48"/>
     </row>
     <row r="853" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F853" s="52"/>
+      <c r="F853" s="48"/>
     </row>
     <row r="854" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F854" s="52"/>
+      <c r="F854" s="48"/>
     </row>
     <row r="855" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F855" s="52"/>
+      <c r="F855" s="48"/>
     </row>
     <row r="856" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F856" s="52"/>
+      <c r="F856" s="48"/>
     </row>
     <row r="857" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F857" s="52"/>
+      <c r="F857" s="48"/>
     </row>
     <row r="858" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F858" s="52"/>
+      <c r="F858" s="48"/>
     </row>
     <row r="859" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F859" s="52"/>
+      <c r="F859" s="48"/>
     </row>
     <row r="860" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F860" s="52"/>
+      <c r="F860" s="48"/>
     </row>
     <row r="861" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F861" s="52"/>
+      <c r="F861" s="48"/>
     </row>
     <row r="862" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F862" s="52"/>
+      <c r="F862" s="48"/>
     </row>
     <row r="863" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F863" s="52"/>
+      <c r="F863" s="48"/>
     </row>
     <row r="864" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F864" s="52"/>
+      <c r="F864" s="48"/>
     </row>
     <row r="865" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F865" s="52"/>
+      <c r="F865" s="48"/>
     </row>
     <row r="866" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F866" s="52"/>
+      <c r="F866" s="48"/>
     </row>
     <row r="867" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F867" s="52"/>
+      <c r="F867" s="48"/>
     </row>
     <row r="868" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F868" s="52"/>
+      <c r="F868" s="48"/>
     </row>
     <row r="869" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F869" s="52"/>
+      <c r="F869" s="48"/>
     </row>
     <row r="870" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F870" s="52"/>
+      <c r="F870" s="48"/>
     </row>
     <row r="871" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F871" s="52"/>
+      <c r="F871" s="48"/>
     </row>
     <row r="872" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F872" s="52"/>
+      <c r="F872" s="48"/>
     </row>
     <row r="873" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F873" s="52"/>
+      <c r="F873" s="48"/>
     </row>
     <row r="874" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F874" s="52"/>
+      <c r="F874" s="48"/>
     </row>
     <row r="875" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F875" s="52"/>
+      <c r="F875" s="48"/>
     </row>
     <row r="876" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F876" s="52"/>
+      <c r="F876" s="48"/>
     </row>
     <row r="877" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F877" s="52"/>
+      <c r="F877" s="48"/>
     </row>
     <row r="878" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F878" s="52"/>
+      <c r="F878" s="48"/>
     </row>
     <row r="879" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F879" s="52"/>
+      <c r="F879" s="48"/>
     </row>
     <row r="880" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F880" s="52"/>
+      <c r="F880" s="48"/>
     </row>
     <row r="881" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F881" s="52"/>
+      <c r="F881" s="48"/>
     </row>
     <row r="882" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F882" s="52"/>
+      <c r="F882" s="48"/>
     </row>
     <row r="883" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F883" s="52"/>
+      <c r="F883" s="48"/>
     </row>
     <row r="884" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F884" s="52"/>
+      <c r="F884" s="48"/>
     </row>
     <row r="885" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F885" s="52"/>
+      <c r="F885" s="48"/>
     </row>
     <row r="886" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F886" s="52"/>
+      <c r="F886" s="48"/>
     </row>
     <row r="887" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F887" s="52"/>
+      <c r="F887" s="48"/>
     </row>
     <row r="888" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F888" s="52"/>
+      <c r="F888" s="48"/>
     </row>
     <row r="889" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F889" s="52"/>
+      <c r="F889" s="48"/>
     </row>
     <row r="890" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F890" s="52"/>
+      <c r="F890" s="48"/>
     </row>
     <row r="891" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F891" s="52"/>
+      <c r="F891" s="48"/>
     </row>
     <row r="892" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F892" s="52"/>
+      <c r="F892" s="48"/>
     </row>
     <row r="893" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F893" s="52"/>
+      <c r="F893" s="48"/>
     </row>
     <row r="894" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F894" s="52"/>
+      <c r="F894" s="48"/>
     </row>
     <row r="895" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F895" s="52"/>
+      <c r="F895" s="48"/>
     </row>
     <row r="896" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F896" s="52"/>
+      <c r="F896" s="48"/>
     </row>
     <row r="897" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F897" s="52"/>
+      <c r="F897" s="48"/>
     </row>
     <row r="898" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F898" s="52"/>
+      <c r="F898" s="48"/>
     </row>
     <row r="899" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F899" s="52"/>
+      <c r="F899" s="48"/>
     </row>
     <row r="900" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F900" s="52"/>
+      <c r="F900" s="48"/>
     </row>
     <row r="901" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F901" s="52"/>
+      <c r="F901" s="48"/>
     </row>
     <row r="902" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F902" s="52"/>
+      <c r="F902" s="48"/>
     </row>
     <row r="903" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F903" s="52"/>
+      <c r="F903" s="48"/>
     </row>
     <row r="904" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F904" s="52"/>
+      <c r="F904" s="48"/>
     </row>
     <row r="905" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F905" s="52"/>
+      <c r="F905" s="48"/>
     </row>
     <row r="906" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F906" s="52"/>
+      <c r="F906" s="48"/>
     </row>
     <row r="907" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F907" s="52"/>
+      <c r="F907" s="48"/>
     </row>
     <row r="908" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F908" s="52"/>
+      <c r="F908" s="48"/>
     </row>
     <row r="909" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F909" s="52"/>
+      <c r="F909" s="48"/>
     </row>
     <row r="910" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F910" s="52"/>
+      <c r="F910" s="48"/>
     </row>
     <row r="911" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F911" s="52"/>
+      <c r="F911" s="48"/>
     </row>
     <row r="912" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F912" s="52"/>
+      <c r="F912" s="48"/>
     </row>
     <row r="913" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F913" s="52"/>
+      <c r="F913" s="48"/>
     </row>
     <row r="914" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F914" s="52"/>
+      <c r="F914" s="48"/>
     </row>
     <row r="915" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F915" s="52"/>
+      <c r="F915" s="48"/>
     </row>
     <row r="916" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F916" s="52"/>
+      <c r="F916" s="48"/>
     </row>
     <row r="917" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F917" s="52"/>
+      <c r="F917" s="48"/>
     </row>
     <row r="918" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F918" s="52"/>
+      <c r="F918" s="48"/>
     </row>
     <row r="919" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F919" s="52"/>
+      <c r="F919" s="48"/>
     </row>
     <row r="920" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F920" s="52"/>
+      <c r="F920" s="48"/>
     </row>
     <row r="921" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F921" s="52"/>
+      <c r="F921" s="48"/>
     </row>
     <row r="922" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F922" s="52"/>
+      <c r="F922" s="48"/>
     </row>
     <row r="923" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F923" s="52"/>
+      <c r="F923" s="48"/>
     </row>
     <row r="924" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F924" s="52"/>
+      <c r="F924" s="48"/>
     </row>
     <row r="925" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F925" s="52"/>
+      <c r="F925" s="48"/>
     </row>
     <row r="926" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F926" s="52"/>
+      <c r="F926" s="48"/>
     </row>
     <row r="927" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F927" s="52"/>
+      <c r="F927" s="48"/>
     </row>
     <row r="928" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F928" s="52"/>
+      <c r="F928" s="48"/>
     </row>
     <row r="929" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F929" s="52"/>
+      <c r="F929" s="48"/>
     </row>
     <row r="930" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F930" s="52"/>
+      <c r="F930" s="48"/>
     </row>
     <row r="931" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F931" s="52"/>
+      <c r="F931" s="48"/>
     </row>
     <row r="932" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F932" s="52"/>
+      <c r="F932" s="48"/>
     </row>
     <row r="933" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F933" s="52"/>
+      <c r="F933" s="48"/>
     </row>
     <row r="934" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F934" s="52"/>
+      <c r="F934" s="48"/>
     </row>
     <row r="935" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F935" s="52"/>
+      <c r="F935" s="48"/>
     </row>
     <row r="936" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F936" s="52"/>
+      <c r="F936" s="48"/>
     </row>
     <row r="937" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F937" s="52"/>
+      <c r="F937" s="48"/>
     </row>
     <row r="938" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F938" s="52"/>
+      <c r="F938" s="48"/>
     </row>
     <row r="939" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F939" s="52"/>
+      <c r="F939" s="48"/>
     </row>
     <row r="940" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F940" s="52"/>
+      <c r="F940" s="48"/>
     </row>
     <row r="941" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F941" s="52"/>
+      <c r="F941" s="48"/>
     </row>
     <row r="942" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F942" s="52"/>
+      <c r="F942" s="48"/>
     </row>
     <row r="943" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F943" s="52"/>
+      <c r="F943" s="48"/>
     </row>
     <row r="944" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F944" s="52"/>
+      <c r="F944" s="48"/>
     </row>
     <row r="945" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F945" s="52"/>
+      <c r="F945" s="48"/>
     </row>
     <row r="946" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F946" s="52"/>
+      <c r="F946" s="48"/>
     </row>
     <row r="947" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F947" s="52"/>
+      <c r="F947" s="48"/>
     </row>
     <row r="948" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F948" s="52"/>
+      <c r="F948" s="48"/>
     </row>
     <row r="949" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F949" s="52"/>
+      <c r="F949" s="48"/>
     </row>
     <row r="950" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F950" s="52"/>
+      <c r="F950" s="48"/>
     </row>
     <row r="951" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F951" s="52"/>
+      <c r="F951" s="48"/>
     </row>
     <row r="952" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F952" s="52"/>
+      <c r="F952" s="48"/>
     </row>
     <row r="953" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F953" s="52"/>
+      <c r="F953" s="48"/>
     </row>
     <row r="954" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F954" s="52"/>
+      <c r="F954" s="48"/>
     </row>
     <row r="955" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F955" s="52"/>
+      <c r="F955" s="48"/>
     </row>
     <row r="956" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F956" s="52"/>
+      <c r="F956" s="48"/>
     </row>
     <row r="957" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F957" s="52"/>
+      <c r="F957" s="48"/>
     </row>
     <row r="958" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F958" s="52"/>
+      <c r="F958" s="48"/>
     </row>
     <row r="959" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F959" s="52"/>
+      <c r="F959" s="48"/>
     </row>
     <row r="960" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F960" s="52"/>
+      <c r="F960" s="48"/>
     </row>
     <row r="961" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F961" s="52"/>
+      <c r="F961" s="48"/>
     </row>
     <row r="962" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F962" s="52"/>
+      <c r="F962" s="48"/>
     </row>
     <row r="963" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F963" s="52"/>
+      <c r="F963" s="48"/>
     </row>
     <row r="964" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F964" s="52"/>
+      <c r="F964" s="48"/>
     </row>
     <row r="965" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F965" s="52"/>
+      <c r="F965" s="48"/>
     </row>
     <row r="966" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F966" s="52"/>
+      <c r="F966" s="48"/>
     </row>
     <row r="967" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F967" s="52"/>
+      <c r="F967" s="48"/>
     </row>
     <row r="968" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F968" s="52"/>
+      <c r="F968" s="48"/>
     </row>
     <row r="969" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F969" s="52"/>
+      <c r="F969" s="48"/>
     </row>
     <row r="970" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F970" s="52"/>
+      <c r="F970" s="48"/>
     </row>
     <row r="971" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F971" s="52"/>
+      <c r="F971" s="48"/>
     </row>
     <row r="972" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F972" s="52"/>
+      <c r="F972" s="48"/>
     </row>
     <row r="973" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F973" s="52"/>
+      <c r="F973" s="48"/>
     </row>
     <row r="974" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F974" s="52"/>
+      <c r="F974" s="48"/>
     </row>
     <row r="975" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F975" s="52"/>
+      <c r="F975" s="48"/>
     </row>
     <row r="976" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F976" s="52"/>
+      <c r="F976" s="48"/>
     </row>
     <row r="977" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F977" s="52"/>
+      <c r="F977" s="48"/>
     </row>
     <row r="978" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F978" s="52"/>
+      <c r="F978" s="48"/>
     </row>
     <row r="979" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F979" s="52"/>
+      <c r="F979" s="48"/>
     </row>
     <row r="980" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F980" s="52"/>
+      <c r="F980" s="48"/>
     </row>
     <row r="981" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F981" s="52"/>
+      <c r="F981" s="48"/>
     </row>
     <row r="982" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F982" s="52"/>
+      <c r="F982" s="48"/>
     </row>
     <row r="983" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F983" s="52"/>
+      <c r="F983" s="48"/>
     </row>
     <row r="984" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F984" s="52"/>
+      <c r="F984" s="48"/>
     </row>
     <row r="985" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F985" s="52"/>
+      <c r="F985" s="48"/>
     </row>
     <row r="986" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F986" s="52"/>
+      <c r="F986" s="48"/>
     </row>
     <row r="987" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F987" s="52"/>
+      <c r="F987" s="48"/>
     </row>
     <row r="988" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F988" s="52"/>
+      <c r="F988" s="48"/>
     </row>
     <row r="989" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F989" s="52"/>
+      <c r="F989" s="48"/>
     </row>
     <row r="990" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F990" s="52"/>
+      <c r="F990" s="48"/>
     </row>
     <row r="991" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F991" s="52"/>
+      <c r="F991" s="48"/>
     </row>
     <row r="992" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F992" s="52"/>
+      <c r="F992" s="48"/>
     </row>
     <row r="993" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F993" s="52"/>
+      <c r="F993" s="48"/>
     </row>
     <row r="994" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F994" s="52"/>
+      <c r="F994" s="48"/>
     </row>
     <row r="995" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F995" s="52"/>
+      <c r="F995" s="48"/>
     </row>
     <row r="996" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F996" s="52"/>
+      <c r="F996" s="48"/>
     </row>
     <row r="997" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F997" s="52"/>
+      <c r="F997" s="48"/>
     </row>
     <row r="998" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F998" s="52"/>
+      <c r="F998" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lumaData/testcases.xlsx
+++ b/data/lumaData/testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Auto IT training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sehso\eclipse-workspace\FinalProject\data\lumaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792DB35-C0FE-45D0-8CEC-4F21DF3BFCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7706B4-E478-4B06-9D82-5FADEF2D78B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24B4FD53-3088-4808-923C-A87E95CBB857}"/>
   </bookViews>
@@ -2263,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3746E3E-DBEF-407E-89EF-8F1170A2823E}">
-  <dimension ref="A1:T998"/>
+  <dimension ref="A1:T620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F259" sqref="F259:F263"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8341,6 +8341,9 @@
       <c r="H264" s="16"/>
       <c r="I264" s="16"/>
     </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F265" s="48"/>
+    </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F266" s="48"/>
     </row>
@@ -9405,1140 +9408,6 @@
     </row>
     <row r="620" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F620" s="48"/>
-    </row>
-    <row r="621" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F621" s="48"/>
-    </row>
-    <row r="622" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F622" s="48"/>
-    </row>
-    <row r="623" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F623" s="48"/>
-    </row>
-    <row r="624" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F624" s="48"/>
-    </row>
-    <row r="625" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F625" s="48"/>
-    </row>
-    <row r="626" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F626" s="48"/>
-    </row>
-    <row r="627" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F627" s="48"/>
-    </row>
-    <row r="628" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F628" s="48"/>
-    </row>
-    <row r="629" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F629" s="48"/>
-    </row>
-    <row r="630" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F630" s="48"/>
-    </row>
-    <row r="631" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F631" s="48"/>
-    </row>
-    <row r="632" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F632" s="48"/>
-    </row>
-    <row r="633" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F633" s="48"/>
-    </row>
-    <row r="634" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F634" s="48"/>
-    </row>
-    <row r="635" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F635" s="48"/>
-    </row>
-    <row r="636" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F636" s="48"/>
-    </row>
-    <row r="637" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F637" s="48"/>
-    </row>
-    <row r="638" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F638" s="48"/>
-    </row>
-    <row r="639" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F639" s="48"/>
-    </row>
-    <row r="640" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F640" s="48"/>
-    </row>
-    <row r="641" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F641" s="48"/>
-    </row>
-    <row r="642" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F642" s="48"/>
-    </row>
-    <row r="643" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F643" s="48"/>
-    </row>
-    <row r="644" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F644" s="48"/>
-    </row>
-    <row r="645" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F645" s="48"/>
-    </row>
-    <row r="646" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F646" s="48"/>
-    </row>
-    <row r="647" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F647" s="48"/>
-    </row>
-    <row r="648" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F648" s="48"/>
-    </row>
-    <row r="649" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F649" s="48"/>
-    </row>
-    <row r="650" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F650" s="48"/>
-    </row>
-    <row r="651" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F651" s="48"/>
-    </row>
-    <row r="652" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F652" s="48"/>
-    </row>
-    <row r="653" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F653" s="48"/>
-    </row>
-    <row r="654" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F654" s="48"/>
-    </row>
-    <row r="655" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F655" s="48"/>
-    </row>
-    <row r="656" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F656" s="48"/>
-    </row>
-    <row r="657" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F657" s="48"/>
-    </row>
-    <row r="658" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F658" s="48"/>
-    </row>
-    <row r="659" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F659" s="48"/>
-    </row>
-    <row r="660" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F660" s="48"/>
-    </row>
-    <row r="661" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F661" s="48"/>
-    </row>
-    <row r="662" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F662" s="48"/>
-    </row>
-    <row r="663" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F663" s="48"/>
-    </row>
-    <row r="664" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F664" s="48"/>
-    </row>
-    <row r="665" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F665" s="48"/>
-    </row>
-    <row r="666" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F666" s="48"/>
-    </row>
-    <row r="667" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F667" s="48"/>
-    </row>
-    <row r="668" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F668" s="48"/>
-    </row>
-    <row r="669" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F669" s="48"/>
-    </row>
-    <row r="670" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F670" s="48"/>
-    </row>
-    <row r="671" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F671" s="48"/>
-    </row>
-    <row r="672" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F672" s="48"/>
-    </row>
-    <row r="673" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F673" s="48"/>
-    </row>
-    <row r="674" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F674" s="48"/>
-    </row>
-    <row r="675" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F675" s="48"/>
-    </row>
-    <row r="676" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F676" s="48"/>
-    </row>
-    <row r="677" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F677" s="48"/>
-    </row>
-    <row r="678" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F678" s="48"/>
-    </row>
-    <row r="679" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F679" s="48"/>
-    </row>
-    <row r="680" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F680" s="48"/>
-    </row>
-    <row r="681" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F681" s="48"/>
-    </row>
-    <row r="682" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F682" s="48"/>
-    </row>
-    <row r="683" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F683" s="48"/>
-    </row>
-    <row r="684" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F684" s="48"/>
-    </row>
-    <row r="685" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F685" s="48"/>
-    </row>
-    <row r="686" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F686" s="48"/>
-    </row>
-    <row r="687" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F687" s="48"/>
-    </row>
-    <row r="688" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F688" s="48"/>
-    </row>
-    <row r="689" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F689" s="48"/>
-    </row>
-    <row r="690" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F690" s="48"/>
-    </row>
-    <row r="691" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F691" s="48"/>
-    </row>
-    <row r="692" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F692" s="48"/>
-    </row>
-    <row r="693" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F693" s="48"/>
-    </row>
-    <row r="694" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F694" s="48"/>
-    </row>
-    <row r="695" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F695" s="48"/>
-    </row>
-    <row r="696" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F696" s="48"/>
-    </row>
-    <row r="697" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F697" s="48"/>
-    </row>
-    <row r="698" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F698" s="48"/>
-    </row>
-    <row r="699" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F699" s="48"/>
-    </row>
-    <row r="700" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F700" s="48"/>
-    </row>
-    <row r="701" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F701" s="48"/>
-    </row>
-    <row r="702" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F702" s="48"/>
-    </row>
-    <row r="703" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F703" s="48"/>
-    </row>
-    <row r="704" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F704" s="48"/>
-    </row>
-    <row r="705" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F705" s="48"/>
-    </row>
-    <row r="706" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F706" s="48"/>
-    </row>
-    <row r="707" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F707" s="48"/>
-    </row>
-    <row r="708" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F708" s="48"/>
-    </row>
-    <row r="709" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F709" s="48"/>
-    </row>
-    <row r="710" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F710" s="48"/>
-    </row>
-    <row r="711" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F711" s="48"/>
-    </row>
-    <row r="712" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F712" s="48"/>
-    </row>
-    <row r="713" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F713" s="48"/>
-    </row>
-    <row r="714" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F714" s="48"/>
-    </row>
-    <row r="715" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F715" s="48"/>
-    </row>
-    <row r="716" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F716" s="48"/>
-    </row>
-    <row r="717" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F717" s="48"/>
-    </row>
-    <row r="718" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F718" s="48"/>
-    </row>
-    <row r="719" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F719" s="48"/>
-    </row>
-    <row r="720" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F720" s="48"/>
-    </row>
-    <row r="721" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F721" s="48"/>
-    </row>
-    <row r="722" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F722" s="48"/>
-    </row>
-    <row r="723" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F723" s="48"/>
-    </row>
-    <row r="724" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F724" s="48"/>
-    </row>
-    <row r="725" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F725" s="48"/>
-    </row>
-    <row r="726" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F726" s="48"/>
-    </row>
-    <row r="727" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F727" s="48"/>
-    </row>
-    <row r="728" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F728" s="48"/>
-    </row>
-    <row r="729" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F729" s="48"/>
-    </row>
-    <row r="730" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F730" s="48"/>
-    </row>
-    <row r="731" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F731" s="48"/>
-    </row>
-    <row r="732" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F732" s="48"/>
-    </row>
-    <row r="733" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F733" s="48"/>
-    </row>
-    <row r="734" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F734" s="48"/>
-    </row>
-    <row r="735" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F735" s="48"/>
-    </row>
-    <row r="736" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F736" s="48"/>
-    </row>
-    <row r="737" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F737" s="48"/>
-    </row>
-    <row r="738" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F738" s="48"/>
-    </row>
-    <row r="739" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F739" s="48"/>
-    </row>
-    <row r="740" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F740" s="48"/>
-    </row>
-    <row r="741" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F741" s="48"/>
-    </row>
-    <row r="742" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F742" s="48"/>
-    </row>
-    <row r="743" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F743" s="48"/>
-    </row>
-    <row r="744" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F744" s="48"/>
-    </row>
-    <row r="745" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F745" s="48"/>
-    </row>
-    <row r="746" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F746" s="48"/>
-    </row>
-    <row r="747" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F747" s="48"/>
-    </row>
-    <row r="748" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F748" s="48"/>
-    </row>
-    <row r="749" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F749" s="48"/>
-    </row>
-    <row r="750" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F750" s="48"/>
-    </row>
-    <row r="751" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F751" s="48"/>
-    </row>
-    <row r="752" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F752" s="48"/>
-    </row>
-    <row r="753" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F753" s="48"/>
-    </row>
-    <row r="754" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F754" s="48"/>
-    </row>
-    <row r="755" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F755" s="48"/>
-    </row>
-    <row r="756" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F756" s="48"/>
-    </row>
-    <row r="757" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F757" s="48"/>
-    </row>
-    <row r="758" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F758" s="48"/>
-    </row>
-    <row r="759" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F759" s="48"/>
-    </row>
-    <row r="760" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F760" s="48"/>
-    </row>
-    <row r="761" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F761" s="48"/>
-    </row>
-    <row r="762" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F762" s="48"/>
-    </row>
-    <row r="763" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F763" s="48"/>
-    </row>
-    <row r="764" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F764" s="48"/>
-    </row>
-    <row r="765" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F765" s="48"/>
-    </row>
-    <row r="766" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F766" s="48"/>
-    </row>
-    <row r="767" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F767" s="48"/>
-    </row>
-    <row r="768" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F768" s="48"/>
-    </row>
-    <row r="769" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F769" s="48"/>
-    </row>
-    <row r="770" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F770" s="48"/>
-    </row>
-    <row r="771" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F771" s="48"/>
-    </row>
-    <row r="772" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F772" s="48"/>
-    </row>
-    <row r="773" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F773" s="48"/>
-    </row>
-    <row r="774" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F774" s="48"/>
-    </row>
-    <row r="775" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F775" s="48"/>
-    </row>
-    <row r="776" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F776" s="48"/>
-    </row>
-    <row r="777" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F777" s="48"/>
-    </row>
-    <row r="778" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F778" s="48"/>
-    </row>
-    <row r="779" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F779" s="48"/>
-    </row>
-    <row r="780" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F780" s="48"/>
-    </row>
-    <row r="781" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F781" s="48"/>
-    </row>
-    <row r="782" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F782" s="48"/>
-    </row>
-    <row r="783" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F783" s="48"/>
-    </row>
-    <row r="784" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F784" s="48"/>
-    </row>
-    <row r="785" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F785" s="48"/>
-    </row>
-    <row r="786" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F786" s="48"/>
-    </row>
-    <row r="787" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F787" s="48"/>
-    </row>
-    <row r="788" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F788" s="48"/>
-    </row>
-    <row r="789" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F789" s="48"/>
-    </row>
-    <row r="790" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F790" s="48"/>
-    </row>
-    <row r="791" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F791" s="48"/>
-    </row>
-    <row r="792" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F792" s="48"/>
-    </row>
-    <row r="793" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F793" s="48"/>
-    </row>
-    <row r="794" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F794" s="48"/>
-    </row>
-    <row r="795" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F795" s="48"/>
-    </row>
-    <row r="796" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F796" s="48"/>
-    </row>
-    <row r="797" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F797" s="48"/>
-    </row>
-    <row r="798" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F798" s="48"/>
-    </row>
-    <row r="799" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F799" s="48"/>
-    </row>
-    <row r="800" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F800" s="48"/>
-    </row>
-    <row r="801" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F801" s="48"/>
-    </row>
-    <row r="802" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F802" s="48"/>
-    </row>
-    <row r="803" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F803" s="48"/>
-    </row>
-    <row r="804" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F804" s="48"/>
-    </row>
-    <row r="805" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F805" s="48"/>
-    </row>
-    <row r="806" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F806" s="48"/>
-    </row>
-    <row r="807" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F807" s="48"/>
-    </row>
-    <row r="808" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F808" s="48"/>
-    </row>
-    <row r="809" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F809" s="48"/>
-    </row>
-    <row r="810" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F810" s="48"/>
-    </row>
-    <row r="811" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F811" s="48"/>
-    </row>
-    <row r="812" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F812" s="48"/>
-    </row>
-    <row r="813" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F813" s="48"/>
-    </row>
-    <row r="814" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F814" s="48"/>
-    </row>
-    <row r="815" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F815" s="48"/>
-    </row>
-    <row r="816" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F816" s="48"/>
-    </row>
-    <row r="817" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F817" s="48"/>
-    </row>
-    <row r="818" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F818" s="48"/>
-    </row>
-    <row r="819" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F819" s="48"/>
-    </row>
-    <row r="820" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F820" s="48"/>
-    </row>
-    <row r="821" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F821" s="48"/>
-    </row>
-    <row r="822" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F822" s="48"/>
-    </row>
-    <row r="823" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F823" s="48"/>
-    </row>
-    <row r="824" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F824" s="48"/>
-    </row>
-    <row r="825" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F825" s="48"/>
-    </row>
-    <row r="826" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F826" s="48"/>
-    </row>
-    <row r="827" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F827" s="48"/>
-    </row>
-    <row r="828" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F828" s="48"/>
-    </row>
-    <row r="829" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F829" s="48"/>
-    </row>
-    <row r="830" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F830" s="48"/>
-    </row>
-    <row r="831" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F831" s="48"/>
-    </row>
-    <row r="832" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F832" s="48"/>
-    </row>
-    <row r="833" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F833" s="48"/>
-    </row>
-    <row r="834" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F834" s="48"/>
-    </row>
-    <row r="835" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F835" s="48"/>
-    </row>
-    <row r="836" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F836" s="48"/>
-    </row>
-    <row r="837" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F837" s="48"/>
-    </row>
-    <row r="838" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F838" s="48"/>
-    </row>
-    <row r="839" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F839" s="48"/>
-    </row>
-    <row r="840" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F840" s="48"/>
-    </row>
-    <row r="841" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F841" s="48"/>
-    </row>
-    <row r="842" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F842" s="48"/>
-    </row>
-    <row r="843" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F843" s="48"/>
-    </row>
-    <row r="844" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F844" s="48"/>
-    </row>
-    <row r="845" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F845" s="48"/>
-    </row>
-    <row r="846" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F846" s="48"/>
-    </row>
-    <row r="847" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F847" s="48"/>
-    </row>
-    <row r="848" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F848" s="48"/>
-    </row>
-    <row r="849" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F849" s="48"/>
-    </row>
-    <row r="850" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F850" s="48"/>
-    </row>
-    <row r="851" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F851" s="48"/>
-    </row>
-    <row r="852" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F852" s="48"/>
-    </row>
-    <row r="853" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F853" s="48"/>
-    </row>
-    <row r="854" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F854" s="48"/>
-    </row>
-    <row r="855" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F855" s="48"/>
-    </row>
-    <row r="856" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F856" s="48"/>
-    </row>
-    <row r="857" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F857" s="48"/>
-    </row>
-    <row r="858" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F858" s="48"/>
-    </row>
-    <row r="859" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F859" s="48"/>
-    </row>
-    <row r="860" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F860" s="48"/>
-    </row>
-    <row r="861" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F861" s="48"/>
-    </row>
-    <row r="862" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F862" s="48"/>
-    </row>
-    <row r="863" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F863" s="48"/>
-    </row>
-    <row r="864" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F864" s="48"/>
-    </row>
-    <row r="865" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F865" s="48"/>
-    </row>
-    <row r="866" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F866" s="48"/>
-    </row>
-    <row r="867" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F867" s="48"/>
-    </row>
-    <row r="868" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F868" s="48"/>
-    </row>
-    <row r="869" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F869" s="48"/>
-    </row>
-    <row r="870" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F870" s="48"/>
-    </row>
-    <row r="871" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F871" s="48"/>
-    </row>
-    <row r="872" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F872" s="48"/>
-    </row>
-    <row r="873" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F873" s="48"/>
-    </row>
-    <row r="874" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F874" s="48"/>
-    </row>
-    <row r="875" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F875" s="48"/>
-    </row>
-    <row r="876" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F876" s="48"/>
-    </row>
-    <row r="877" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F877" s="48"/>
-    </row>
-    <row r="878" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F878" s="48"/>
-    </row>
-    <row r="879" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F879" s="48"/>
-    </row>
-    <row r="880" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F880" s="48"/>
-    </row>
-    <row r="881" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F881" s="48"/>
-    </row>
-    <row r="882" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F882" s="48"/>
-    </row>
-    <row r="883" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F883" s="48"/>
-    </row>
-    <row r="884" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F884" s="48"/>
-    </row>
-    <row r="885" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F885" s="48"/>
-    </row>
-    <row r="886" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F886" s="48"/>
-    </row>
-    <row r="887" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F887" s="48"/>
-    </row>
-    <row r="888" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F888" s="48"/>
-    </row>
-    <row r="889" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F889" s="48"/>
-    </row>
-    <row r="890" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F890" s="48"/>
-    </row>
-    <row r="891" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F891" s="48"/>
-    </row>
-    <row r="892" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F892" s="48"/>
-    </row>
-    <row r="893" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F893" s="48"/>
-    </row>
-    <row r="894" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F894" s="48"/>
-    </row>
-    <row r="895" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F895" s="48"/>
-    </row>
-    <row r="896" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F896" s="48"/>
-    </row>
-    <row r="897" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F897" s="48"/>
-    </row>
-    <row r="898" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F898" s="48"/>
-    </row>
-    <row r="899" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F899" s="48"/>
-    </row>
-    <row r="900" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F900" s="48"/>
-    </row>
-    <row r="901" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F901" s="48"/>
-    </row>
-    <row r="902" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F902" s="48"/>
-    </row>
-    <row r="903" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F903" s="48"/>
-    </row>
-    <row r="904" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F904" s="48"/>
-    </row>
-    <row r="905" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F905" s="48"/>
-    </row>
-    <row r="906" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F906" s="48"/>
-    </row>
-    <row r="907" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F907" s="48"/>
-    </row>
-    <row r="908" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F908" s="48"/>
-    </row>
-    <row r="909" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F909" s="48"/>
-    </row>
-    <row r="910" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F910" s="48"/>
-    </row>
-    <row r="911" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F911" s="48"/>
-    </row>
-    <row r="912" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F912" s="48"/>
-    </row>
-    <row r="913" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F913" s="48"/>
-    </row>
-    <row r="914" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F914" s="48"/>
-    </row>
-    <row r="915" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F915" s="48"/>
-    </row>
-    <row r="916" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F916" s="48"/>
-    </row>
-    <row r="917" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F917" s="48"/>
-    </row>
-    <row r="918" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F918" s="48"/>
-    </row>
-    <row r="919" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F919" s="48"/>
-    </row>
-    <row r="920" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F920" s="48"/>
-    </row>
-    <row r="921" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F921" s="48"/>
-    </row>
-    <row r="922" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F922" s="48"/>
-    </row>
-    <row r="923" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F923" s="48"/>
-    </row>
-    <row r="924" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F924" s="48"/>
-    </row>
-    <row r="925" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F925" s="48"/>
-    </row>
-    <row r="926" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F926" s="48"/>
-    </row>
-    <row r="927" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F927" s="48"/>
-    </row>
-    <row r="928" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F928" s="48"/>
-    </row>
-    <row r="929" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F929" s="48"/>
-    </row>
-    <row r="930" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F930" s="48"/>
-    </row>
-    <row r="931" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F931" s="48"/>
-    </row>
-    <row r="932" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F932" s="48"/>
-    </row>
-    <row r="933" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F933" s="48"/>
-    </row>
-    <row r="934" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F934" s="48"/>
-    </row>
-    <row r="935" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F935" s="48"/>
-    </row>
-    <row r="936" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F936" s="48"/>
-    </row>
-    <row r="937" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F937" s="48"/>
-    </row>
-    <row r="938" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F938" s="48"/>
-    </row>
-    <row r="939" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F939" s="48"/>
-    </row>
-    <row r="940" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F940" s="48"/>
-    </row>
-    <row r="941" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F941" s="48"/>
-    </row>
-    <row r="942" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F942" s="48"/>
-    </row>
-    <row r="943" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F943" s="48"/>
-    </row>
-    <row r="944" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F944" s="48"/>
-    </row>
-    <row r="945" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F945" s="48"/>
-    </row>
-    <row r="946" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F946" s="48"/>
-    </row>
-    <row r="947" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F947" s="48"/>
-    </row>
-    <row r="948" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F948" s="48"/>
-    </row>
-    <row r="949" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F949" s="48"/>
-    </row>
-    <row r="950" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F950" s="48"/>
-    </row>
-    <row r="951" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F951" s="48"/>
-    </row>
-    <row r="952" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F952" s="48"/>
-    </row>
-    <row r="953" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F953" s="48"/>
-    </row>
-    <row r="954" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F954" s="48"/>
-    </row>
-    <row r="955" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F955" s="48"/>
-    </row>
-    <row r="956" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F956" s="48"/>
-    </row>
-    <row r="957" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F957" s="48"/>
-    </row>
-    <row r="958" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F958" s="48"/>
-    </row>
-    <row r="959" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F959" s="48"/>
-    </row>
-    <row r="960" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F960" s="48"/>
-    </row>
-    <row r="961" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F961" s="48"/>
-    </row>
-    <row r="962" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F962" s="48"/>
-    </row>
-    <row r="963" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F963" s="48"/>
-    </row>
-    <row r="964" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F964" s="48"/>
-    </row>
-    <row r="965" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F965" s="48"/>
-    </row>
-    <row r="966" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F966" s="48"/>
-    </row>
-    <row r="967" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F967" s="48"/>
-    </row>
-    <row r="968" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F968" s="48"/>
-    </row>
-    <row r="969" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F969" s="48"/>
-    </row>
-    <row r="970" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F970" s="48"/>
-    </row>
-    <row r="971" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F971" s="48"/>
-    </row>
-    <row r="972" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F972" s="48"/>
-    </row>
-    <row r="973" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F973" s="48"/>
-    </row>
-    <row r="974" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F974" s="48"/>
-    </row>
-    <row r="975" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F975" s="48"/>
-    </row>
-    <row r="976" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F976" s="48"/>
-    </row>
-    <row r="977" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F977" s="48"/>
-    </row>
-    <row r="978" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F978" s="48"/>
-    </row>
-    <row r="979" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F979" s="48"/>
-    </row>
-    <row r="980" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F980" s="48"/>
-    </row>
-    <row r="981" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F981" s="48"/>
-    </row>
-    <row r="982" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F982" s="48"/>
-    </row>
-    <row r="983" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F983" s="48"/>
-    </row>
-    <row r="984" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F984" s="48"/>
-    </row>
-    <row r="985" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F985" s="48"/>
-    </row>
-    <row r="986" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F986" s="48"/>
-    </row>
-    <row r="987" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F987" s="48"/>
-    </row>
-    <row r="988" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F988" s="48"/>
-    </row>
-    <row r="989" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F989" s="48"/>
-    </row>
-    <row r="990" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F990" s="48"/>
-    </row>
-    <row r="991" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F991" s="48"/>
-    </row>
-    <row r="992" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F992" s="48"/>
-    </row>
-    <row r="993" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F993" s="48"/>
-    </row>
-    <row r="994" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F994" s="48"/>
-    </row>
-    <row r="995" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F995" s="48"/>
-    </row>
-    <row r="996" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F996" s="48"/>
-    </row>
-    <row r="997" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F997" s="48"/>
-    </row>
-    <row r="998" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F998" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
